--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13718600</v>
+        <v>12324300</v>
       </c>
       <c r="E8" s="3">
-        <v>11366200</v>
+        <v>13382100</v>
       </c>
       <c r="F8" s="3">
-        <v>9460600</v>
+        <v>11087400</v>
       </c>
       <c r="G8" s="3">
-        <v>9618500</v>
+        <v>9228500</v>
       </c>
       <c r="H8" s="3">
-        <v>13304200</v>
+        <v>9382500</v>
       </c>
       <c r="I8" s="3">
-        <v>15137600</v>
+        <v>12977800</v>
       </c>
       <c r="J8" s="3">
+        <v>14766200</v>
+      </c>
+      <c r="K8" s="3">
         <v>12513900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13284100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12890100</v>
+        <v>12102100</v>
       </c>
       <c r="E9" s="3">
-        <v>10387700</v>
+        <v>12573900</v>
       </c>
       <c r="F9" s="3">
-        <v>8426800</v>
+        <v>10132900</v>
       </c>
       <c r="G9" s="3">
-        <v>9004400</v>
+        <v>8220100</v>
       </c>
       <c r="H9" s="3">
-        <v>13330700</v>
+        <v>8783500</v>
       </c>
       <c r="I9" s="3">
-        <v>14810900</v>
+        <v>13003700</v>
       </c>
       <c r="J9" s="3">
+        <v>14447500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12714900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13042400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>828500</v>
+        <v>222200</v>
       </c>
       <c r="E10" s="3">
-        <v>978500</v>
+        <v>808200</v>
       </c>
       <c r="F10" s="3">
-        <v>1033700</v>
+        <v>954500</v>
       </c>
       <c r="G10" s="3">
-        <v>614100</v>
+        <v>1008400</v>
       </c>
       <c r="H10" s="3">
-        <v>-26600</v>
+        <v>599000</v>
       </c>
       <c r="I10" s="3">
-        <v>326700</v>
+        <v>-25900</v>
       </c>
       <c r="J10" s="3">
+        <v>318700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>241700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-1400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
-        <v>400</v>
-      </c>
       <c r="J14" s="3">
+        <v>300</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,16 +936,16 @@
         <v>1300</v>
       </c>
       <c r="F15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12917300</v>
+        <v>12139500</v>
       </c>
       <c r="E17" s="3">
-        <v>10447700</v>
+        <v>12600400</v>
       </c>
       <c r="F17" s="3">
-        <v>8488100</v>
+        <v>10191400</v>
       </c>
       <c r="G17" s="3">
-        <v>9057600</v>
+        <v>8279800</v>
       </c>
       <c r="H17" s="3">
-        <v>13388500</v>
+        <v>8835400</v>
       </c>
       <c r="I17" s="3">
-        <v>14823000</v>
+        <v>13060100</v>
       </c>
       <c r="J17" s="3">
+        <v>14459400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12768200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13126800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>801400</v>
+        <v>184800</v>
       </c>
       <c r="E18" s="3">
-        <v>918500</v>
+        <v>781700</v>
       </c>
       <c r="F18" s="3">
-        <v>972500</v>
+        <v>896000</v>
       </c>
       <c r="G18" s="3">
-        <v>560900</v>
+        <v>948600</v>
       </c>
       <c r="H18" s="3">
-        <v>-84400</v>
+        <v>547100</v>
       </c>
       <c r="I18" s="3">
-        <v>314500</v>
+        <v>-82300</v>
       </c>
       <c r="J18" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-254300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>186800</v>
+        <v>194500</v>
       </c>
       <c r="E20" s="3">
-        <v>216000</v>
+        <v>182300</v>
       </c>
       <c r="F20" s="3">
-        <v>151200</v>
+        <v>210700</v>
       </c>
       <c r="G20" s="3">
-        <v>77500</v>
+        <v>147500</v>
       </c>
       <c r="H20" s="3">
-        <v>10400</v>
+        <v>75600</v>
       </c>
       <c r="I20" s="3">
-        <v>36200</v>
+        <v>10200</v>
       </c>
       <c r="J20" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K20" s="3">
         <v>16100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>67100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1212700</v>
+        <v>605900</v>
       </c>
       <c r="E21" s="3">
-        <v>1362800</v>
+        <v>1182400</v>
       </c>
       <c r="F21" s="3">
-        <v>1359100</v>
+        <v>1328700</v>
       </c>
       <c r="G21" s="3">
-        <v>885400</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>1325100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>863000</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
-        <v>716800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+      <c r="J21" s="3">
+        <v>698200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11400</v>
+        <v>7500</v>
       </c>
       <c r="E22" s="3">
-        <v>7800</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G22" s="3">
-        <v>30400</v>
+        <v>7500</v>
       </c>
       <c r="H22" s="3">
-        <v>53700</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>29700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>52400</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>976800</v>
+        <v>371800</v>
       </c>
       <c r="E23" s="3">
-        <v>1126700</v>
+        <v>952900</v>
       </c>
       <c r="F23" s="3">
-        <v>1116000</v>
+        <v>1099100</v>
       </c>
       <c r="G23" s="3">
-        <v>608000</v>
+        <v>1088700</v>
       </c>
       <c r="H23" s="3">
-        <v>-127700</v>
+        <v>593000</v>
       </c>
       <c r="I23" s="3">
-        <v>350800</v>
+        <v>-124600</v>
       </c>
       <c r="J23" s="3">
+        <v>342200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-289300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>192400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>211200</v>
+        <v>60000</v>
       </c>
       <c r="E24" s="3">
-        <v>243700</v>
+        <v>206000</v>
       </c>
       <c r="F24" s="3">
-        <v>257800</v>
+        <v>237800</v>
       </c>
       <c r="G24" s="3">
-        <v>133000</v>
+        <v>251500</v>
       </c>
       <c r="H24" s="3">
-        <v>-30700</v>
+        <v>129700</v>
       </c>
       <c r="I24" s="3">
-        <v>54400</v>
+        <v>-30000</v>
       </c>
       <c r="J24" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-73400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>765600</v>
+        <v>311700</v>
       </c>
       <c r="E26" s="3">
-        <v>883000</v>
+        <v>746900</v>
       </c>
       <c r="F26" s="3">
-        <v>858200</v>
+        <v>861300</v>
       </c>
       <c r="G26" s="3">
-        <v>475000</v>
+        <v>837200</v>
       </c>
       <c r="H26" s="3">
-        <v>-97000</v>
+        <v>463300</v>
       </c>
       <c r="I26" s="3">
-        <v>296400</v>
+        <v>-94600</v>
       </c>
       <c r="J26" s="3">
+        <v>289100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-216000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>765700</v>
+        <v>310100</v>
       </c>
       <c r="E27" s="3">
-        <v>881400</v>
+        <v>746900</v>
       </c>
       <c r="F27" s="3">
-        <v>856400</v>
+        <v>859800</v>
       </c>
       <c r="G27" s="3">
-        <v>469800</v>
+        <v>835300</v>
       </c>
       <c r="H27" s="3">
-        <v>-99300</v>
+        <v>458300</v>
       </c>
       <c r="I27" s="3">
-        <v>294900</v>
+        <v>-96900</v>
       </c>
       <c r="J27" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-219300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-186800</v>
+        <v>-194500</v>
       </c>
       <c r="E32" s="3">
-        <v>-216000</v>
+        <v>-182300</v>
       </c>
       <c r="F32" s="3">
-        <v>-151200</v>
+        <v>-210700</v>
       </c>
       <c r="G32" s="3">
-        <v>-77500</v>
+        <v>-147500</v>
       </c>
       <c r="H32" s="3">
-        <v>-10400</v>
+        <v>-75600</v>
       </c>
       <c r="I32" s="3">
-        <v>-36200</v>
+        <v>-10200</v>
       </c>
       <c r="J32" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-67100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>765700</v>
+        <v>310100</v>
       </c>
       <c r="E33" s="3">
-        <v>881400</v>
+        <v>746900</v>
       </c>
       <c r="F33" s="3">
-        <v>856400</v>
+        <v>859800</v>
       </c>
       <c r="G33" s="3">
-        <v>469800</v>
+        <v>835300</v>
       </c>
       <c r="H33" s="3">
-        <v>-99300</v>
+        <v>458300</v>
       </c>
       <c r="I33" s="3">
-        <v>294900</v>
+        <v>-96900</v>
       </c>
       <c r="J33" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-219300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>765700</v>
+        <v>310100</v>
       </c>
       <c r="E35" s="3">
-        <v>881400</v>
+        <v>746900</v>
       </c>
       <c r="F35" s="3">
-        <v>856400</v>
+        <v>859800</v>
       </c>
       <c r="G35" s="3">
-        <v>469800</v>
+        <v>835300</v>
       </c>
       <c r="H35" s="3">
-        <v>-99300</v>
+        <v>458300</v>
       </c>
       <c r="I35" s="3">
-        <v>294900</v>
+        <v>-96900</v>
       </c>
       <c r="J35" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-219300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,142 +1645,155 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1251100</v>
+        <v>1034800</v>
       </c>
       <c r="E41" s="3">
-        <v>1072500</v>
+        <v>1222200</v>
       </c>
       <c r="F41" s="3">
-        <v>756300</v>
+        <v>1047700</v>
       </c>
       <c r="G41" s="3">
-        <v>153800</v>
+        <v>738800</v>
       </c>
       <c r="H41" s="3">
-        <v>39300</v>
+        <v>150300</v>
       </c>
       <c r="I41" s="3">
-        <v>18100</v>
+        <v>38400</v>
       </c>
       <c r="J41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K41" s="3">
         <v>23100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>849700</v>
+        <v>902000</v>
       </c>
       <c r="E42" s="3">
-        <v>291100</v>
+        <v>830000</v>
       </c>
       <c r="F42" s="3">
-        <v>24300</v>
+        <v>284400</v>
       </c>
       <c r="G42" s="3">
+        <v>23700</v>
+      </c>
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>355000</v>
+        <v>240100</v>
       </c>
       <c r="E43" s="3">
-        <v>507300</v>
+        <v>346800</v>
       </c>
       <c r="F43" s="3">
-        <v>446200</v>
+        <v>495600</v>
       </c>
       <c r="G43" s="3">
-        <v>414400</v>
+        <v>435900</v>
       </c>
       <c r="H43" s="3">
-        <v>473600</v>
+        <v>404800</v>
       </c>
       <c r="I43" s="3">
-        <v>762400</v>
+        <v>462600</v>
       </c>
       <c r="J43" s="3">
+        <v>744700</v>
+      </c>
+      <c r="K43" s="3">
         <v>837800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>592500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1165200</v>
+        <v>946700</v>
       </c>
       <c r="E44" s="3">
-        <v>946600</v>
+        <v>1138200</v>
       </c>
       <c r="F44" s="3">
-        <v>883800</v>
+        <v>924700</v>
       </c>
       <c r="G44" s="3">
-        <v>599500</v>
+        <v>863300</v>
       </c>
       <c r="H44" s="3">
-        <v>850900</v>
+        <v>585600</v>
       </c>
       <c r="I44" s="3">
-        <v>1297000</v>
+        <v>831200</v>
       </c>
       <c r="J44" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1339100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>828500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8900</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>32800</v>
+        <v>8700</v>
       </c>
       <c r="F45" s="3">
-        <v>23800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+        <v>32000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>23200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1709,129 +1807,144 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3629900</v>
+        <v>3126900</v>
       </c>
       <c r="E46" s="3">
-        <v>2850400</v>
+        <v>3545900</v>
       </c>
       <c r="F46" s="3">
-        <v>2134400</v>
+        <v>2784400</v>
       </c>
       <c r="G46" s="3">
-        <v>1168500</v>
+        <v>2085000</v>
       </c>
       <c r="H46" s="3">
-        <v>1364600</v>
+        <v>1141500</v>
       </c>
       <c r="I46" s="3">
-        <v>2078500</v>
+        <v>1333000</v>
       </c>
       <c r="J46" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1849700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1434500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>649600</v>
+        <v>1222900</v>
       </c>
       <c r="E47" s="3">
-        <v>638800</v>
+        <v>634500</v>
       </c>
       <c r="F47" s="3">
-        <v>529300</v>
+        <v>624000</v>
       </c>
       <c r="G47" s="3">
-        <v>475100</v>
+        <v>517000</v>
       </c>
       <c r="H47" s="3">
-        <v>421300</v>
+        <v>464100</v>
       </c>
       <c r="I47" s="3">
-        <v>429500</v>
+        <v>411500</v>
       </c>
       <c r="J47" s="3">
+        <v>419600</v>
+      </c>
+      <c r="K47" s="3">
         <v>411400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>430600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1948800</v>
+        <v>1938100</v>
       </c>
       <c r="E48" s="3">
-        <v>2045900</v>
+        <v>1903700</v>
       </c>
       <c r="F48" s="3">
-        <v>2090800</v>
+        <v>1998500</v>
       </c>
       <c r="G48" s="3">
-        <v>2225600</v>
+        <v>2042500</v>
       </c>
       <c r="H48" s="3">
-        <v>2367500</v>
+        <v>2174100</v>
       </c>
       <c r="I48" s="3">
-        <v>2518900</v>
+        <v>2312700</v>
       </c>
       <c r="J48" s="3">
+        <v>2460600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5226700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2494400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75100</v>
+        <v>2500</v>
       </c>
       <c r="E49" s="3">
-        <v>53500</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>46700</v>
+        <v>3300</v>
       </c>
       <c r="G49" s="3">
-        <v>55800</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>91100</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>70800</v>
+        <v>4500</v>
       </c>
       <c r="J49" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K49" s="3">
         <v>258700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>122500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65200</v>
+        <v>86100</v>
       </c>
       <c r="E52" s="3">
-        <v>70800</v>
+        <v>134100</v>
       </c>
       <c r="F52" s="3">
-        <v>69300</v>
+        <v>118200</v>
       </c>
       <c r="G52" s="3">
-        <v>66800</v>
+        <v>109600</v>
       </c>
       <c r="H52" s="3">
-        <v>190000</v>
+        <v>115600</v>
       </c>
       <c r="I52" s="3">
-        <v>159000</v>
+        <v>270000</v>
       </c>
       <c r="J52" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K52" s="3">
         <v>368000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6368500</v>
+        <v>6376400</v>
       </c>
       <c r="E54" s="3">
-        <v>5659300</v>
+        <v>6221100</v>
       </c>
       <c r="F54" s="3">
-        <v>4870500</v>
+        <v>5528400</v>
       </c>
       <c r="G54" s="3">
-        <v>3991700</v>
+        <v>4757800</v>
       </c>
       <c r="H54" s="3">
-        <v>4434300</v>
+        <v>3899300</v>
       </c>
       <c r="I54" s="3">
-        <v>5256600</v>
+        <v>4331700</v>
       </c>
       <c r="J54" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="K54" s="3">
         <v>5231600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4559000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,133 +2137,146 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>419400</v>
+        <v>394700</v>
       </c>
       <c r="E57" s="3">
-        <v>273800</v>
+        <v>409700</v>
       </c>
       <c r="F57" s="3">
-        <v>304700</v>
+        <v>267500</v>
       </c>
       <c r="G57" s="3">
-        <v>224100</v>
+        <v>297700</v>
       </c>
       <c r="H57" s="3">
-        <v>503800</v>
+        <v>219000</v>
       </c>
       <c r="I57" s="3">
-        <v>393100</v>
+        <v>492200</v>
       </c>
       <c r="J57" s="3">
+        <v>384000</v>
+      </c>
+      <c r="K57" s="3">
         <v>828300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>464000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71300</v>
+        <v>218500</v>
       </c>
       <c r="E58" s="3">
-        <v>87000</v>
+        <v>69700</v>
       </c>
       <c r="F58" s="3">
-        <v>78400</v>
+        <v>85000</v>
       </c>
       <c r="G58" s="3">
-        <v>297000</v>
+        <v>76600</v>
       </c>
       <c r="H58" s="3">
-        <v>585100</v>
+        <v>290100</v>
       </c>
       <c r="I58" s="3">
-        <v>1017900</v>
+        <v>571600</v>
       </c>
       <c r="J58" s="3">
+        <v>994300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3163400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>818000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1505500</v>
+        <v>1556400</v>
       </c>
       <c r="E59" s="3">
-        <v>1206300</v>
+        <v>1470700</v>
       </c>
       <c r="F59" s="3">
-        <v>899900</v>
+        <v>1178400</v>
       </c>
       <c r="G59" s="3">
-        <v>587400</v>
+        <v>879100</v>
       </c>
       <c r="H59" s="3">
-        <v>702400</v>
+        <v>573800</v>
       </c>
       <c r="I59" s="3">
-        <v>1174200</v>
+        <v>686100</v>
       </c>
       <c r="J59" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="K59" s="3">
         <v>949800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>539200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1996200</v>
+        <v>2169600</v>
       </c>
       <c r="E60" s="3">
-        <v>1567100</v>
+        <v>1950000</v>
       </c>
       <c r="F60" s="3">
-        <v>1283100</v>
+        <v>1530900</v>
       </c>
       <c r="G60" s="3">
-        <v>1108600</v>
+        <v>1253400</v>
       </c>
       <c r="H60" s="3">
-        <v>1791300</v>
+        <v>1082900</v>
       </c>
       <c r="I60" s="3">
-        <v>2585100</v>
+        <v>1749900</v>
       </c>
       <c r="J60" s="3">
+        <v>2525300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2715700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1821300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2146,50 +2288,56 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>234300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>90100</v>
+        <v>228800</v>
       </c>
       <c r="J61" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K61" s="3">
         <v>176700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2014400</v>
+        <v>2190800</v>
       </c>
       <c r="E66" s="3">
-        <v>1608900</v>
+        <v>1967800</v>
       </c>
       <c r="F66" s="3">
-        <v>1323400</v>
+        <v>1571600</v>
       </c>
       <c r="G66" s="3">
-        <v>1151200</v>
+        <v>1292800</v>
       </c>
       <c r="H66" s="3">
-        <v>2066900</v>
+        <v>1124500</v>
       </c>
       <c r="I66" s="3">
-        <v>2712400</v>
+        <v>2019100</v>
       </c>
       <c r="J66" s="3">
+        <v>2649600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2930600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1898700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2785700</v>
+        <v>2653600</v>
       </c>
       <c r="E72" s="3">
-        <v>2489900</v>
+        <v>2721300</v>
       </c>
       <c r="F72" s="3">
-        <v>1997500</v>
+        <v>2432300</v>
       </c>
       <c r="G72" s="3">
-        <v>1290900</v>
+        <v>1951300</v>
       </c>
       <c r="H72" s="3">
-        <v>817900</v>
+        <v>1261100</v>
       </c>
       <c r="I72" s="3">
-        <v>994700</v>
+        <v>799000</v>
       </c>
       <c r="J72" s="3">
+        <v>971700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1840100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1232500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4354100</v>
+        <v>4185600</v>
       </c>
       <c r="E76" s="3">
-        <v>4050500</v>
+        <v>4253300</v>
       </c>
       <c r="F76" s="3">
-        <v>3547100</v>
+        <v>3956700</v>
       </c>
       <c r="G76" s="3">
-        <v>2840500</v>
+        <v>3465000</v>
       </c>
       <c r="H76" s="3">
-        <v>2367500</v>
+        <v>2774800</v>
       </c>
       <c r="I76" s="3">
-        <v>2544300</v>
+        <v>2312700</v>
       </c>
       <c r="J76" s="3">
+        <v>2485400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2301000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2660300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>765700</v>
+        <v>310100</v>
       </c>
       <c r="E81" s="3">
-        <v>881400</v>
+        <v>746900</v>
       </c>
       <c r="F81" s="3">
-        <v>856400</v>
+        <v>859800</v>
       </c>
       <c r="G81" s="3">
-        <v>469800</v>
+        <v>835300</v>
       </c>
       <c r="H81" s="3">
-        <v>-99300</v>
+        <v>458300</v>
       </c>
       <c r="I81" s="3">
-        <v>294900</v>
+        <v>-96900</v>
       </c>
       <c r="J81" s="3">
+        <v>287700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-219300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>224600</v>
+        <v>227400</v>
       </c>
       <c r="E83" s="3">
-        <v>228300</v>
+        <v>219100</v>
       </c>
       <c r="F83" s="3">
-        <v>235500</v>
+        <v>222700</v>
       </c>
       <c r="G83" s="3">
-        <v>247100</v>
-      </c>
-      <c r="H83" s="3" t="s">
+        <v>229700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>241100</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
-        <v>366200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>357200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>955500</v>
+        <v>707900</v>
       </c>
       <c r="E89" s="3">
-        <v>1013100</v>
+        <v>932100</v>
       </c>
       <c r="F89" s="3">
-        <v>1030400</v>
+        <v>988200</v>
       </c>
       <c r="G89" s="3">
-        <v>707800</v>
+        <v>1005200</v>
       </c>
       <c r="H89" s="3">
-        <v>525500</v>
+        <v>690400</v>
       </c>
       <c r="I89" s="3">
-        <v>731500</v>
+        <v>512600</v>
       </c>
       <c r="J89" s="3">
+        <v>713600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-296500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>329500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-170300</v>
+        <v>-200200</v>
       </c>
       <c r="E91" s="3">
-        <v>-171800</v>
+        <v>-166100</v>
       </c>
       <c r="F91" s="3">
-        <v>-129300</v>
+        <v>-167500</v>
       </c>
       <c r="G91" s="3">
-        <v>-99800</v>
+        <v>-126200</v>
       </c>
       <c r="H91" s="3">
-        <v>-156300</v>
+        <v>-97300</v>
       </c>
       <c r="I91" s="3">
-        <v>-189800</v>
+        <v>-152500</v>
       </c>
       <c r="J91" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-611200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-516700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-276700</v>
+        <v>-647100</v>
       </c>
       <c r="E94" s="3">
-        <v>-344500</v>
+        <v>-269900</v>
       </c>
       <c r="F94" s="3">
-        <v>-27200</v>
+        <v>-336000</v>
       </c>
       <c r="G94" s="3">
-        <v>-63000</v>
+        <v>-26600</v>
       </c>
       <c r="H94" s="3">
-        <v>-130600</v>
+        <v>-61400</v>
       </c>
       <c r="I94" s="3">
-        <v>-90300</v>
+        <v>-127400</v>
       </c>
       <c r="J94" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-582800</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-470000</v>
+        <v>-378600</v>
       </c>
       <c r="E96" s="3">
-        <v>-387000</v>
+        <v>-458500</v>
       </c>
       <c r="F96" s="3">
-        <v>-155600</v>
+        <v>-377500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-151800</v>
       </c>
       <c r="H96" s="3">
-        <v>-77900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-51700</v>
+        <v>-76000</v>
       </c>
       <c r="J96" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-51800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-105800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,54 +3420,60 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-503200</v>
+        <v>-243200</v>
       </c>
       <c r="E100" s="3">
-        <v>-371600</v>
+        <v>-490900</v>
       </c>
       <c r="F100" s="3">
-        <v>-378400</v>
+        <v>-362500</v>
       </c>
       <c r="G100" s="3">
-        <v>-530300</v>
+        <v>-369100</v>
       </c>
       <c r="H100" s="3">
-        <v>-374000</v>
+        <v>-517300</v>
       </c>
       <c r="I100" s="3">
-        <v>-645200</v>
+        <v>-364800</v>
       </c>
       <c r="J100" s="3">
+        <v>-629400</v>
+      </c>
+      <c r="K100" s="3">
         <v>889300</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3235,40 +3483,46 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>177600</v>
+        <v>-180900</v>
       </c>
       <c r="E102" s="3">
-        <v>296100</v>
+        <v>173200</v>
       </c>
       <c r="F102" s="3">
-        <v>626000</v>
+        <v>288800</v>
       </c>
       <c r="G102" s="3">
-        <v>114500</v>
+        <v>610700</v>
       </c>
       <c r="H102" s="3">
-        <v>20900</v>
+        <v>111700</v>
       </c>
       <c r="I102" s="3">
-        <v>-4000</v>
+        <v>20400</v>
       </c>
       <c r="J102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12324300</v>
+        <v>12788300</v>
       </c>
       <c r="E8" s="3">
-        <v>13382100</v>
+        <v>13885900</v>
       </c>
       <c r="F8" s="3">
-        <v>11087400</v>
+        <v>11504900</v>
       </c>
       <c r="G8" s="3">
-        <v>9228500</v>
+        <v>9576000</v>
       </c>
       <c r="H8" s="3">
-        <v>9382500</v>
+        <v>9735800</v>
       </c>
       <c r="I8" s="3">
-        <v>12977800</v>
+        <v>13466400</v>
       </c>
       <c r="J8" s="3">
-        <v>14766200</v>
+        <v>15322200</v>
       </c>
       <c r="K8" s="3">
         <v>12513900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12102100</v>
+        <v>12557700</v>
       </c>
       <c r="E9" s="3">
-        <v>12573900</v>
+        <v>13047300</v>
       </c>
       <c r="F9" s="3">
-        <v>10132900</v>
+        <v>10514400</v>
       </c>
       <c r="G9" s="3">
-        <v>8220100</v>
+        <v>8529600</v>
       </c>
       <c r="H9" s="3">
-        <v>8783500</v>
+        <v>9114200</v>
       </c>
       <c r="I9" s="3">
-        <v>13003700</v>
+        <v>13493300</v>
       </c>
       <c r="J9" s="3">
-        <v>14447500</v>
+        <v>14991500</v>
       </c>
       <c r="K9" s="3">
         <v>12714900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>222200</v>
+        <v>230600</v>
       </c>
       <c r="E10" s="3">
-        <v>808200</v>
+        <v>838600</v>
       </c>
       <c r="F10" s="3">
-        <v>954500</v>
+        <v>990500</v>
       </c>
       <c r="G10" s="3">
-        <v>1008400</v>
+        <v>1046400</v>
       </c>
       <c r="H10" s="3">
-        <v>599000</v>
+        <v>621600</v>
       </c>
       <c r="I10" s="3">
-        <v>-25900</v>
+        <v>-26900</v>
       </c>
       <c r="J10" s="3">
-        <v>318700</v>
+        <v>330700</v>
       </c>
       <c r="K10" s="3">
         <v>-200900</v>
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3">
         <v>-200</v>
       </c>
       <c r="F14" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>-900</v>
       </c>
       <c r="J14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K14" s="3">
         <v>1100</v>
@@ -936,7 +936,7 @@
         <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12139500</v>
+        <v>12596500</v>
       </c>
       <c r="E17" s="3">
-        <v>12600400</v>
+        <v>13074800</v>
       </c>
       <c r="F17" s="3">
-        <v>10191400</v>
+        <v>10575100</v>
       </c>
       <c r="G17" s="3">
-        <v>8279800</v>
+        <v>8591600</v>
       </c>
       <c r="H17" s="3">
-        <v>8835400</v>
+        <v>9168100</v>
       </c>
       <c r="I17" s="3">
-        <v>13060100</v>
+        <v>13551800</v>
       </c>
       <c r="J17" s="3">
-        <v>14459400</v>
+        <v>15003800</v>
       </c>
       <c r="K17" s="3">
         <v>12768200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>184800</v>
+        <v>191800</v>
       </c>
       <c r="E18" s="3">
-        <v>781700</v>
+        <v>811100</v>
       </c>
       <c r="F18" s="3">
-        <v>896000</v>
+        <v>929700</v>
       </c>
       <c r="G18" s="3">
-        <v>948600</v>
+        <v>984300</v>
       </c>
       <c r="H18" s="3">
-        <v>547100</v>
+        <v>567700</v>
       </c>
       <c r="I18" s="3">
-        <v>-82300</v>
+        <v>-85400</v>
       </c>
       <c r="J18" s="3">
-        <v>306800</v>
+        <v>318400</v>
       </c>
       <c r="K18" s="3">
         <v>-254300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>194500</v>
+        <v>201800</v>
       </c>
       <c r="E20" s="3">
-        <v>182300</v>
+        <v>189100</v>
       </c>
       <c r="F20" s="3">
-        <v>210700</v>
+        <v>218600</v>
       </c>
       <c r="G20" s="3">
-        <v>147500</v>
+        <v>153100</v>
       </c>
       <c r="H20" s="3">
-        <v>75600</v>
+        <v>78500</v>
       </c>
       <c r="I20" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J20" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="K20" s="3">
         <v>16100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>605900</v>
+        <v>628600</v>
       </c>
       <c r="E21" s="3">
-        <v>1182400</v>
+        <v>1226700</v>
       </c>
       <c r="F21" s="3">
-        <v>1328700</v>
+        <v>1378600</v>
       </c>
       <c r="G21" s="3">
-        <v>1325100</v>
+        <v>1374900</v>
       </c>
       <c r="H21" s="3">
-        <v>863000</v>
+        <v>895300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>698200</v>
+        <v>724300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="F22" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="I22" s="3">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>371800</v>
+        <v>385700</v>
       </c>
       <c r="E23" s="3">
-        <v>952900</v>
+        <v>988700</v>
       </c>
       <c r="F23" s="3">
-        <v>1099100</v>
+        <v>1140500</v>
       </c>
       <c r="G23" s="3">
-        <v>1088700</v>
+        <v>1129600</v>
       </c>
       <c r="H23" s="3">
-        <v>593000</v>
+        <v>615400</v>
       </c>
       <c r="I23" s="3">
-        <v>-124600</v>
+        <v>-129200</v>
       </c>
       <c r="J23" s="3">
-        <v>342200</v>
+        <v>355000</v>
       </c>
       <c r="K23" s="3">
         <v>-289300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60000</v>
+        <v>62300</v>
       </c>
       <c r="E24" s="3">
-        <v>206000</v>
+        <v>213800</v>
       </c>
       <c r="F24" s="3">
-        <v>237800</v>
+        <v>246700</v>
       </c>
       <c r="G24" s="3">
-        <v>251500</v>
+        <v>261000</v>
       </c>
       <c r="H24" s="3">
-        <v>129700</v>
+        <v>134600</v>
       </c>
       <c r="I24" s="3">
-        <v>-30000</v>
+        <v>-31100</v>
       </c>
       <c r="J24" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="K24" s="3">
         <v>-73400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>311700</v>
+        <v>323500</v>
       </c>
       <c r="E26" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="F26" s="3">
-        <v>861300</v>
+        <v>893800</v>
       </c>
       <c r="G26" s="3">
-        <v>837200</v>
+        <v>868700</v>
       </c>
       <c r="H26" s="3">
-        <v>463300</v>
+        <v>480800</v>
       </c>
       <c r="I26" s="3">
-        <v>-94600</v>
+        <v>-98100</v>
       </c>
       <c r="J26" s="3">
-        <v>289100</v>
+        <v>300000</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>310100</v>
+        <v>321800</v>
       </c>
       <c r="E27" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="F27" s="3">
-        <v>859800</v>
+        <v>892200</v>
       </c>
       <c r="G27" s="3">
-        <v>835300</v>
+        <v>866800</v>
       </c>
       <c r="H27" s="3">
-        <v>458300</v>
+        <v>475500</v>
       </c>
       <c r="I27" s="3">
-        <v>-96900</v>
+        <v>-100500</v>
       </c>
       <c r="J27" s="3">
-        <v>287700</v>
+        <v>298500</v>
       </c>
       <c r="K27" s="3">
         <v>-219300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-194500</v>
+        <v>-201800</v>
       </c>
       <c r="E32" s="3">
-        <v>-182300</v>
+        <v>-189100</v>
       </c>
       <c r="F32" s="3">
-        <v>-210700</v>
+        <v>-218600</v>
       </c>
       <c r="G32" s="3">
-        <v>-147500</v>
+        <v>-153100</v>
       </c>
       <c r="H32" s="3">
-        <v>-75600</v>
+        <v>-78500</v>
       </c>
       <c r="I32" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="J32" s="3">
-        <v>-35300</v>
+        <v>-36700</v>
       </c>
       <c r="K32" s="3">
         <v>-16100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>310100</v>
+        <v>321800</v>
       </c>
       <c r="E33" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="F33" s="3">
-        <v>859800</v>
+        <v>892200</v>
       </c>
       <c r="G33" s="3">
-        <v>835300</v>
+        <v>866800</v>
       </c>
       <c r="H33" s="3">
-        <v>458300</v>
+        <v>475500</v>
       </c>
       <c r="I33" s="3">
-        <v>-96900</v>
+        <v>-100500</v>
       </c>
       <c r="J33" s="3">
-        <v>287700</v>
+        <v>298500</v>
       </c>
       <c r="K33" s="3">
         <v>-219300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>310100</v>
+        <v>321800</v>
       </c>
       <c r="E35" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="F35" s="3">
-        <v>859800</v>
+        <v>892200</v>
       </c>
       <c r="G35" s="3">
-        <v>835300</v>
+        <v>866800</v>
       </c>
       <c r="H35" s="3">
-        <v>458300</v>
+        <v>475500</v>
       </c>
       <c r="I35" s="3">
-        <v>-96900</v>
+        <v>-100500</v>
       </c>
       <c r="J35" s="3">
-        <v>287700</v>
+        <v>298500</v>
       </c>
       <c r="K35" s="3">
         <v>-219300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1034800</v>
+        <v>1072200</v>
       </c>
       <c r="E41" s="3">
-        <v>1222200</v>
+        <v>1266400</v>
       </c>
       <c r="F41" s="3">
-        <v>1047700</v>
+        <v>1085600</v>
       </c>
       <c r="G41" s="3">
-        <v>738800</v>
+        <v>765600</v>
       </c>
       <c r="H41" s="3">
-        <v>150300</v>
+        <v>155700</v>
       </c>
       <c r="I41" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="J41" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="K41" s="3">
         <v>23100</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>902000</v>
+        <v>934600</v>
       </c>
       <c r="E42" s="3">
-        <v>830000</v>
+        <v>860000</v>
       </c>
       <c r="F42" s="3">
-        <v>284400</v>
+        <v>294700</v>
       </c>
       <c r="G42" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
       </c>
       <c r="I42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>1000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>240100</v>
+        <v>248800</v>
       </c>
       <c r="E43" s="3">
-        <v>346800</v>
+        <v>359300</v>
       </c>
       <c r="F43" s="3">
-        <v>495600</v>
+        <v>513500</v>
       </c>
       <c r="G43" s="3">
-        <v>435900</v>
+        <v>451700</v>
       </c>
       <c r="H43" s="3">
-        <v>404800</v>
+        <v>419500</v>
       </c>
       <c r="I43" s="3">
-        <v>462600</v>
+        <v>479300</v>
       </c>
       <c r="J43" s="3">
-        <v>744700</v>
+        <v>771700</v>
       </c>
       <c r="K43" s="3">
         <v>837800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>946700</v>
+        <v>980900</v>
       </c>
       <c r="E44" s="3">
-        <v>1138200</v>
+        <v>1179400</v>
       </c>
       <c r="F44" s="3">
-        <v>924700</v>
+        <v>958200</v>
       </c>
       <c r="G44" s="3">
-        <v>863300</v>
+        <v>894500</v>
       </c>
       <c r="H44" s="3">
-        <v>585600</v>
+        <v>606800</v>
       </c>
       <c r="I44" s="3">
-        <v>831200</v>
+        <v>861300</v>
       </c>
       <c r="J44" s="3">
-        <v>1266900</v>
+        <v>1312800</v>
       </c>
       <c r="K44" s="3">
         <v>1339100</v>
@@ -1784,16 +1784,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="F45" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="G45" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3126900</v>
+        <v>3240000</v>
       </c>
       <c r="E46" s="3">
-        <v>3545900</v>
+        <v>3674200</v>
       </c>
       <c r="F46" s="3">
-        <v>2784400</v>
+        <v>2885100</v>
       </c>
       <c r="G46" s="3">
-        <v>2085000</v>
+        <v>2160400</v>
       </c>
       <c r="H46" s="3">
-        <v>1141500</v>
+        <v>1182800</v>
       </c>
       <c r="I46" s="3">
-        <v>1333000</v>
+        <v>1381200</v>
       </c>
       <c r="J46" s="3">
-        <v>2030400</v>
+        <v>2103800</v>
       </c>
       <c r="K46" s="3">
         <v>1849700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1222900</v>
+        <v>1267100</v>
       </c>
       <c r="E47" s="3">
-        <v>634500</v>
+        <v>657500</v>
       </c>
       <c r="F47" s="3">
-        <v>624000</v>
+        <v>646600</v>
       </c>
       <c r="G47" s="3">
-        <v>517000</v>
+        <v>535700</v>
       </c>
       <c r="H47" s="3">
-        <v>464100</v>
+        <v>480900</v>
       </c>
       <c r="I47" s="3">
-        <v>411500</v>
+        <v>426400</v>
       </c>
       <c r="J47" s="3">
-        <v>419600</v>
+        <v>434800</v>
       </c>
       <c r="K47" s="3">
         <v>411400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1938100</v>
+        <v>2008200</v>
       </c>
       <c r="E48" s="3">
-        <v>1903700</v>
+        <v>1972600</v>
       </c>
       <c r="F48" s="3">
-        <v>1998500</v>
+        <v>2070800</v>
       </c>
       <c r="G48" s="3">
-        <v>2042500</v>
+        <v>2116300</v>
       </c>
       <c r="H48" s="3">
-        <v>2174100</v>
+        <v>2252700</v>
       </c>
       <c r="I48" s="3">
-        <v>2312700</v>
+        <v>2396300</v>
       </c>
       <c r="J48" s="3">
-        <v>2460600</v>
+        <v>2549600</v>
       </c>
       <c r="K48" s="3">
         <v>5226700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F49" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J49" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="K49" s="3">
         <v>258700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86100</v>
+        <v>89300</v>
       </c>
       <c r="E52" s="3">
-        <v>134100</v>
+        <v>139000</v>
       </c>
       <c r="F52" s="3">
-        <v>118200</v>
+        <v>122400</v>
       </c>
       <c r="G52" s="3">
-        <v>109600</v>
+        <v>113600</v>
       </c>
       <c r="H52" s="3">
-        <v>115600</v>
+        <v>119800</v>
       </c>
       <c r="I52" s="3">
-        <v>270000</v>
+        <v>279800</v>
       </c>
       <c r="J52" s="3">
-        <v>219500</v>
+        <v>227500</v>
       </c>
       <c r="K52" s="3">
         <v>368000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6376400</v>
+        <v>6607100</v>
       </c>
       <c r="E54" s="3">
-        <v>6221100</v>
+        <v>6446200</v>
       </c>
       <c r="F54" s="3">
-        <v>5528400</v>
+        <v>5728400</v>
       </c>
       <c r="G54" s="3">
-        <v>4757800</v>
+        <v>4929900</v>
       </c>
       <c r="H54" s="3">
-        <v>3899300</v>
+        <v>4040400</v>
       </c>
       <c r="I54" s="3">
-        <v>4331700</v>
+        <v>4488400</v>
       </c>
       <c r="J54" s="3">
-        <v>5135000</v>
+        <v>5320800</v>
       </c>
       <c r="K54" s="3">
         <v>5231600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>394700</v>
+        <v>409000</v>
       </c>
       <c r="E57" s="3">
-        <v>409700</v>
+        <v>424500</v>
       </c>
       <c r="F57" s="3">
-        <v>267500</v>
+        <v>277200</v>
       </c>
       <c r="G57" s="3">
-        <v>297700</v>
+        <v>308500</v>
       </c>
       <c r="H57" s="3">
-        <v>219000</v>
+        <v>226900</v>
       </c>
       <c r="I57" s="3">
-        <v>492200</v>
+        <v>510000</v>
       </c>
       <c r="J57" s="3">
-        <v>384000</v>
+        <v>397900</v>
       </c>
       <c r="K57" s="3">
         <v>828300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>218500</v>
+        <v>226400</v>
       </c>
       <c r="E58" s="3">
-        <v>69700</v>
+        <v>72200</v>
       </c>
       <c r="F58" s="3">
-        <v>85000</v>
+        <v>88000</v>
       </c>
       <c r="G58" s="3">
-        <v>76600</v>
+        <v>79400</v>
       </c>
       <c r="H58" s="3">
-        <v>290100</v>
+        <v>300600</v>
       </c>
       <c r="I58" s="3">
-        <v>571600</v>
+        <v>592300</v>
       </c>
       <c r="J58" s="3">
-        <v>994300</v>
+        <v>1030300</v>
       </c>
       <c r="K58" s="3">
         <v>3163400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1556400</v>
+        <v>1612700</v>
       </c>
       <c r="E59" s="3">
-        <v>1470700</v>
+        <v>1523900</v>
       </c>
       <c r="F59" s="3">
-        <v>1178400</v>
+        <v>1221000</v>
       </c>
       <c r="G59" s="3">
-        <v>879100</v>
+        <v>910900</v>
       </c>
       <c r="H59" s="3">
-        <v>573800</v>
+        <v>594600</v>
       </c>
       <c r="I59" s="3">
-        <v>686100</v>
+        <v>710900</v>
       </c>
       <c r="J59" s="3">
-        <v>1147000</v>
+        <v>1188500</v>
       </c>
       <c r="K59" s="3">
         <v>949800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2169600</v>
+        <v>2248100</v>
       </c>
       <c r="E60" s="3">
-        <v>1950000</v>
+        <v>2020600</v>
       </c>
       <c r="F60" s="3">
-        <v>1530900</v>
+        <v>1586200</v>
       </c>
       <c r="G60" s="3">
-        <v>1253400</v>
+        <v>1298700</v>
       </c>
       <c r="H60" s="3">
-        <v>1082900</v>
+        <v>1122100</v>
       </c>
       <c r="I60" s="3">
-        <v>1749900</v>
+        <v>1813200</v>
       </c>
       <c r="J60" s="3">
-        <v>2525300</v>
+        <v>2616700</v>
       </c>
       <c r="K60" s="3">
         <v>2715700</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>228800</v>
+        <v>237100</v>
       </c>
       <c r="J61" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="K61" s="3">
         <v>176700</v>
@@ -2309,7 +2309,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
@@ -2324,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2190800</v>
+        <v>2270100</v>
       </c>
       <c r="E66" s="3">
-        <v>1967800</v>
+        <v>2039000</v>
       </c>
       <c r="F66" s="3">
-        <v>1571600</v>
+        <v>1628500</v>
       </c>
       <c r="G66" s="3">
-        <v>1292800</v>
+        <v>1339500</v>
       </c>
       <c r="H66" s="3">
-        <v>1124500</v>
+        <v>1165200</v>
       </c>
       <c r="I66" s="3">
-        <v>2019100</v>
+        <v>2092100</v>
       </c>
       <c r="J66" s="3">
-        <v>2649600</v>
+        <v>2745500</v>
       </c>
       <c r="K66" s="3">
         <v>2930600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2653600</v>
+        <v>2749600</v>
       </c>
       <c r="E72" s="3">
-        <v>2721300</v>
+        <v>2819700</v>
       </c>
       <c r="F72" s="3">
-        <v>2432300</v>
+        <v>2520300</v>
       </c>
       <c r="G72" s="3">
-        <v>1951300</v>
+        <v>2021900</v>
       </c>
       <c r="H72" s="3">
-        <v>1261100</v>
+        <v>1306700</v>
       </c>
       <c r="I72" s="3">
-        <v>799000</v>
+        <v>827900</v>
       </c>
       <c r="J72" s="3">
-        <v>971700</v>
+        <v>1006800</v>
       </c>
       <c r="K72" s="3">
         <v>1840100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4185600</v>
+        <v>4337000</v>
       </c>
       <c r="E76" s="3">
-        <v>4253300</v>
+        <v>4407200</v>
       </c>
       <c r="F76" s="3">
-        <v>3956700</v>
+        <v>4099900</v>
       </c>
       <c r="G76" s="3">
-        <v>3465000</v>
+        <v>3590400</v>
       </c>
       <c r="H76" s="3">
-        <v>2774800</v>
+        <v>2875200</v>
       </c>
       <c r="I76" s="3">
-        <v>2312700</v>
+        <v>2396300</v>
       </c>
       <c r="J76" s="3">
-        <v>2485400</v>
+        <v>2575300</v>
       </c>
       <c r="K76" s="3">
         <v>2301000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>310100</v>
+        <v>321800</v>
       </c>
       <c r="E81" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="F81" s="3">
-        <v>859800</v>
+        <v>892200</v>
       </c>
       <c r="G81" s="3">
-        <v>835300</v>
+        <v>866800</v>
       </c>
       <c r="H81" s="3">
-        <v>458300</v>
+        <v>475500</v>
       </c>
       <c r="I81" s="3">
-        <v>-96900</v>
+        <v>-100500</v>
       </c>
       <c r="J81" s="3">
-        <v>287700</v>
+        <v>298500</v>
       </c>
       <c r="K81" s="3">
         <v>-219300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E83" s="3">
         <v>227400</v>
       </c>
-      <c r="E83" s="3">
-        <v>219100</v>
-      </c>
       <c r="F83" s="3">
-        <v>222700</v>
+        <v>231100</v>
       </c>
       <c r="G83" s="3">
-        <v>229700</v>
+        <v>238300</v>
       </c>
       <c r="H83" s="3">
-        <v>241100</v>
+        <v>250100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>357200</v>
+        <v>370600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>707900</v>
+        <v>734500</v>
       </c>
       <c r="E89" s="3">
-        <v>932100</v>
+        <v>967100</v>
       </c>
       <c r="F89" s="3">
-        <v>988200</v>
+        <v>1025400</v>
       </c>
       <c r="G89" s="3">
-        <v>1005200</v>
+        <v>1043000</v>
       </c>
       <c r="H89" s="3">
-        <v>690400</v>
+        <v>716400</v>
       </c>
       <c r="I89" s="3">
-        <v>512600</v>
+        <v>531900</v>
       </c>
       <c r="J89" s="3">
-        <v>713600</v>
+        <v>740500</v>
       </c>
       <c r="K89" s="3">
         <v>-296500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200200</v>
+        <v>-207700</v>
       </c>
       <c r="E91" s="3">
-        <v>-166100</v>
+        <v>-172400</v>
       </c>
       <c r="F91" s="3">
-        <v>-167500</v>
+        <v>-173800</v>
       </c>
       <c r="G91" s="3">
-        <v>-126200</v>
+        <v>-130900</v>
       </c>
       <c r="H91" s="3">
-        <v>-97300</v>
+        <v>-101000</v>
       </c>
       <c r="I91" s="3">
-        <v>-152500</v>
+        <v>-158200</v>
       </c>
       <c r="J91" s="3">
-        <v>-185200</v>
+        <v>-192200</v>
       </c>
       <c r="K91" s="3">
         <v>-611200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-647100</v>
+        <v>-671400</v>
       </c>
       <c r="E94" s="3">
-        <v>-269900</v>
+        <v>-280100</v>
       </c>
       <c r="F94" s="3">
-        <v>-336000</v>
+        <v>-348700</v>
       </c>
       <c r="G94" s="3">
-        <v>-26600</v>
+        <v>-27600</v>
       </c>
       <c r="H94" s="3">
-        <v>-61400</v>
+        <v>-63800</v>
       </c>
       <c r="I94" s="3">
-        <v>-127400</v>
+        <v>-132200</v>
       </c>
       <c r="J94" s="3">
-        <v>-88100</v>
+        <v>-91400</v>
       </c>
       <c r="K94" s="3">
         <v>-582800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-378600</v>
+        <v>-392800</v>
       </c>
       <c r="E96" s="3">
-        <v>-458500</v>
+        <v>-475700</v>
       </c>
       <c r="F96" s="3">
-        <v>-377500</v>
+        <v>-391700</v>
       </c>
       <c r="G96" s="3">
-        <v>-151800</v>
+        <v>-157500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-76000</v>
+        <v>-78900</v>
       </c>
       <c r="J96" s="3">
-        <v>-50500</v>
+        <v>-52400</v>
       </c>
       <c r="K96" s="3">
         <v>-51800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-243200</v>
+        <v>-252300</v>
       </c>
       <c r="E100" s="3">
-        <v>-490900</v>
+        <v>-509400</v>
       </c>
       <c r="F100" s="3">
-        <v>-362500</v>
+        <v>-376100</v>
       </c>
       <c r="G100" s="3">
-        <v>-369100</v>
+        <v>-383000</v>
       </c>
       <c r="H100" s="3">
-        <v>-517300</v>
+        <v>-536700</v>
       </c>
       <c r="I100" s="3">
-        <v>-364800</v>
+        <v>-378500</v>
       </c>
       <c r="J100" s="3">
-        <v>-629400</v>
+        <v>-653100</v>
       </c>
       <c r="K100" s="3">
         <v>889300</v>
@@ -3466,10 +3466,10 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G101" s="3">
         <v>1200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-180900</v>
+        <v>-187700</v>
       </c>
       <c r="E102" s="3">
-        <v>173200</v>
+        <v>179700</v>
       </c>
       <c r="F102" s="3">
-        <v>288800</v>
+        <v>299700</v>
       </c>
       <c r="G102" s="3">
-        <v>610700</v>
+        <v>633700</v>
       </c>
       <c r="H102" s="3">
-        <v>111700</v>
+        <v>115900</v>
       </c>
       <c r="I102" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="J102" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K102" s="3">
         <v>10000</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12788300</v>
+        <v>13395000</v>
       </c>
       <c r="E8" s="3">
-        <v>13885900</v>
+        <v>14544700</v>
       </c>
       <c r="F8" s="3">
-        <v>11504900</v>
+        <v>12050700</v>
       </c>
       <c r="G8" s="3">
-        <v>9576000</v>
+        <v>10030300</v>
       </c>
       <c r="H8" s="3">
-        <v>9735800</v>
+        <v>10197700</v>
       </c>
       <c r="I8" s="3">
-        <v>13466400</v>
+        <v>14105300</v>
       </c>
       <c r="J8" s="3">
-        <v>15322200</v>
+        <v>16049100</v>
       </c>
       <c r="K8" s="3">
         <v>12513900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12557700</v>
+        <v>13153500</v>
       </c>
       <c r="E9" s="3">
-        <v>13047300</v>
+        <v>13666300</v>
       </c>
       <c r="F9" s="3">
-        <v>10514400</v>
+        <v>11013200</v>
       </c>
       <c r="G9" s="3">
-        <v>8529600</v>
+        <v>8934300</v>
       </c>
       <c r="H9" s="3">
-        <v>9114200</v>
+        <v>9546600</v>
       </c>
       <c r="I9" s="3">
-        <v>13493300</v>
+        <v>14133500</v>
       </c>
       <c r="J9" s="3">
-        <v>14991500</v>
+        <v>15702700</v>
       </c>
       <c r="K9" s="3">
         <v>12714900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>230600</v>
+        <v>241500</v>
       </c>
       <c r="E10" s="3">
-        <v>838600</v>
+        <v>878400</v>
       </c>
       <c r="F10" s="3">
-        <v>990500</v>
+        <v>1037500</v>
       </c>
       <c r="G10" s="3">
-        <v>1046400</v>
+        <v>1096000</v>
       </c>
       <c r="H10" s="3">
-        <v>621600</v>
+        <v>651100</v>
       </c>
       <c r="I10" s="3">
-        <v>-26900</v>
+        <v>-28200</v>
       </c>
       <c r="J10" s="3">
-        <v>330700</v>
+        <v>346400</v>
       </c>
       <c r="K10" s="3">
         <v>-200900</v>
@@ -897,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="E14" s="3">
         <v>-200</v>
       </c>
       <c r="F14" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E15" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="3">
         <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12596500</v>
+        <v>13194200</v>
       </c>
       <c r="E17" s="3">
-        <v>13074800</v>
+        <v>13695100</v>
       </c>
       <c r="F17" s="3">
-        <v>10575100</v>
+        <v>11076800</v>
       </c>
       <c r="G17" s="3">
-        <v>8591600</v>
+        <v>8999200</v>
       </c>
       <c r="H17" s="3">
-        <v>9168100</v>
+        <v>9603100</v>
       </c>
       <c r="I17" s="3">
-        <v>13551800</v>
+        <v>14194800</v>
       </c>
       <c r="J17" s="3">
-        <v>15003800</v>
+        <v>15715700</v>
       </c>
       <c r="K17" s="3">
         <v>12768200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>191800</v>
+        <v>200900</v>
       </c>
       <c r="E18" s="3">
-        <v>811100</v>
+        <v>849600</v>
       </c>
       <c r="F18" s="3">
-        <v>929700</v>
+        <v>973900</v>
       </c>
       <c r="G18" s="3">
-        <v>984300</v>
+        <v>1031000</v>
       </c>
       <c r="H18" s="3">
-        <v>567700</v>
+        <v>594600</v>
       </c>
       <c r="I18" s="3">
-        <v>-85400</v>
+        <v>-89400</v>
       </c>
       <c r="J18" s="3">
-        <v>318400</v>
+        <v>333500</v>
       </c>
       <c r="K18" s="3">
         <v>-254300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>201800</v>
+        <v>211300</v>
       </c>
       <c r="E20" s="3">
-        <v>189100</v>
+        <v>198100</v>
       </c>
       <c r="F20" s="3">
-        <v>218600</v>
+        <v>229000</v>
       </c>
       <c r="G20" s="3">
-        <v>153100</v>
+        <v>160300</v>
       </c>
       <c r="H20" s="3">
-        <v>78500</v>
+        <v>82200</v>
       </c>
       <c r="I20" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="J20" s="3">
-        <v>36700</v>
+        <v>38400</v>
       </c>
       <c r="K20" s="3">
         <v>16100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>628600</v>
+        <v>659300</v>
       </c>
       <c r="E21" s="3">
-        <v>1226700</v>
+        <v>1285800</v>
       </c>
       <c r="F21" s="3">
-        <v>1378600</v>
+        <v>1444900</v>
       </c>
       <c r="G21" s="3">
-        <v>1374900</v>
+        <v>1441000</v>
       </c>
       <c r="H21" s="3">
-        <v>895300</v>
+        <v>938800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>724300</v>
+        <v>760100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="E22" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="F22" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="H22" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="I22" s="3">
-        <v>54400</v>
+        <v>57000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>385700</v>
+        <v>404100</v>
       </c>
       <c r="E23" s="3">
-        <v>988700</v>
+        <v>1035700</v>
       </c>
       <c r="F23" s="3">
-        <v>1140500</v>
+        <v>1194600</v>
       </c>
       <c r="G23" s="3">
-        <v>1129600</v>
+        <v>1183200</v>
       </c>
       <c r="H23" s="3">
-        <v>615400</v>
+        <v>644600</v>
       </c>
       <c r="I23" s="3">
-        <v>-129200</v>
+        <v>-135400</v>
       </c>
       <c r="J23" s="3">
-        <v>355000</v>
+        <v>371900</v>
       </c>
       <c r="K23" s="3">
         <v>-289300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62300</v>
+        <v>65300</v>
       </c>
       <c r="E24" s="3">
-        <v>213800</v>
+        <v>223900</v>
       </c>
       <c r="F24" s="3">
-        <v>246700</v>
+        <v>258400</v>
       </c>
       <c r="G24" s="3">
-        <v>261000</v>
+        <v>273300</v>
       </c>
       <c r="H24" s="3">
-        <v>134600</v>
+        <v>141000</v>
       </c>
       <c r="I24" s="3">
-        <v>-31100</v>
+        <v>-32600</v>
       </c>
       <c r="J24" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="K24" s="3">
         <v>-73400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>323500</v>
+        <v>338800</v>
       </c>
       <c r="E26" s="3">
-        <v>775000</v>
+        <v>811700</v>
       </c>
       <c r="F26" s="3">
-        <v>893800</v>
+        <v>936200</v>
       </c>
       <c r="G26" s="3">
-        <v>868700</v>
+        <v>909900</v>
       </c>
       <c r="H26" s="3">
-        <v>480800</v>
+        <v>503600</v>
       </c>
       <c r="I26" s="3">
-        <v>-98100</v>
+        <v>-102800</v>
       </c>
       <c r="J26" s="3">
-        <v>300000</v>
+        <v>314200</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>321800</v>
+        <v>337100</v>
       </c>
       <c r="E27" s="3">
-        <v>775000</v>
+        <v>811800</v>
       </c>
       <c r="F27" s="3">
-        <v>892200</v>
+        <v>934500</v>
       </c>
       <c r="G27" s="3">
-        <v>866800</v>
+        <v>907900</v>
       </c>
       <c r="H27" s="3">
-        <v>475500</v>
+        <v>498100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100500</v>
+        <v>-105300</v>
       </c>
       <c r="J27" s="3">
-        <v>298500</v>
+        <v>312700</v>
       </c>
       <c r="K27" s="3">
         <v>-219300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-201800</v>
+        <v>-211300</v>
       </c>
       <c r="E32" s="3">
-        <v>-189100</v>
+        <v>-198100</v>
       </c>
       <c r="F32" s="3">
-        <v>-218600</v>
+        <v>-229000</v>
       </c>
       <c r="G32" s="3">
-        <v>-153100</v>
+        <v>-160300</v>
       </c>
       <c r="H32" s="3">
-        <v>-78500</v>
+        <v>-82200</v>
       </c>
       <c r="I32" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="J32" s="3">
-        <v>-36700</v>
+        <v>-38400</v>
       </c>
       <c r="K32" s="3">
         <v>-16100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>321800</v>
+        <v>337100</v>
       </c>
       <c r="E33" s="3">
-        <v>775000</v>
+        <v>811800</v>
       </c>
       <c r="F33" s="3">
-        <v>892200</v>
+        <v>934500</v>
       </c>
       <c r="G33" s="3">
-        <v>866800</v>
+        <v>907900</v>
       </c>
       <c r="H33" s="3">
-        <v>475500</v>
+        <v>498100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100500</v>
+        <v>-105300</v>
       </c>
       <c r="J33" s="3">
-        <v>298500</v>
+        <v>312700</v>
       </c>
       <c r="K33" s="3">
         <v>-219300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>321800</v>
+        <v>337100</v>
       </c>
       <c r="E35" s="3">
-        <v>775000</v>
+        <v>811800</v>
       </c>
       <c r="F35" s="3">
-        <v>892200</v>
+        <v>934500</v>
       </c>
       <c r="G35" s="3">
-        <v>866800</v>
+        <v>907900</v>
       </c>
       <c r="H35" s="3">
-        <v>475500</v>
+        <v>498100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100500</v>
+        <v>-105300</v>
       </c>
       <c r="J35" s="3">
-        <v>298500</v>
+        <v>312700</v>
       </c>
       <c r="K35" s="3">
         <v>-219300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1072200</v>
+        <v>1123100</v>
       </c>
       <c r="E41" s="3">
-        <v>1266400</v>
+        <v>1326500</v>
       </c>
       <c r="F41" s="3">
-        <v>1085600</v>
+        <v>1137100</v>
       </c>
       <c r="G41" s="3">
-        <v>765600</v>
+        <v>801900</v>
       </c>
       <c r="H41" s="3">
-        <v>155700</v>
+        <v>163100</v>
       </c>
       <c r="I41" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="J41" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="K41" s="3">
         <v>23100</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>934600</v>
+        <v>979000</v>
       </c>
       <c r="E42" s="3">
-        <v>860000</v>
+        <v>900800</v>
       </c>
       <c r="F42" s="3">
-        <v>294700</v>
+        <v>308700</v>
       </c>
       <c r="G42" s="3">
-        <v>24600</v>
+        <v>25700</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -1703,7 +1703,7 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>248800</v>
+        <v>260600</v>
       </c>
       <c r="E43" s="3">
-        <v>359300</v>
+        <v>376400</v>
       </c>
       <c r="F43" s="3">
-        <v>513500</v>
+        <v>537900</v>
       </c>
       <c r="G43" s="3">
-        <v>451700</v>
+        <v>473100</v>
       </c>
       <c r="H43" s="3">
-        <v>419500</v>
+        <v>439400</v>
       </c>
       <c r="I43" s="3">
-        <v>479300</v>
+        <v>502100</v>
       </c>
       <c r="J43" s="3">
-        <v>771700</v>
+        <v>808300</v>
       </c>
       <c r="K43" s="3">
         <v>837800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>980900</v>
+        <v>1027500</v>
       </c>
       <c r="E44" s="3">
-        <v>1179400</v>
+        <v>1235300</v>
       </c>
       <c r="F44" s="3">
-        <v>958200</v>
+        <v>1003600</v>
       </c>
       <c r="G44" s="3">
-        <v>894500</v>
+        <v>937000</v>
       </c>
       <c r="H44" s="3">
-        <v>606800</v>
+        <v>635600</v>
       </c>
       <c r="I44" s="3">
-        <v>861300</v>
+        <v>902200</v>
       </c>
       <c r="J44" s="3">
-        <v>1312800</v>
+        <v>1375000</v>
       </c>
       <c r="K44" s="3">
         <v>1339100</v>
@@ -1784,16 +1784,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>33200</v>
+        <v>34700</v>
       </c>
       <c r="G45" s="3">
-        <v>24100</v>
+        <v>25200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3240000</v>
+        <v>3393700</v>
       </c>
       <c r="E46" s="3">
-        <v>3674200</v>
+        <v>3848500</v>
       </c>
       <c r="F46" s="3">
-        <v>2885100</v>
+        <v>3022000</v>
       </c>
       <c r="G46" s="3">
-        <v>2160400</v>
+        <v>2262900</v>
       </c>
       <c r="H46" s="3">
-        <v>1182800</v>
+        <v>1238900</v>
       </c>
       <c r="I46" s="3">
-        <v>1381200</v>
+        <v>1446700</v>
       </c>
       <c r="J46" s="3">
-        <v>2103800</v>
+        <v>2203600</v>
       </c>
       <c r="K46" s="3">
         <v>1849700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1267100</v>
+        <v>1327200</v>
       </c>
       <c r="E47" s="3">
-        <v>657500</v>
+        <v>688700</v>
       </c>
       <c r="F47" s="3">
-        <v>646600</v>
+        <v>677200</v>
       </c>
       <c r="G47" s="3">
-        <v>535700</v>
+        <v>561100</v>
       </c>
       <c r="H47" s="3">
-        <v>480900</v>
+        <v>503700</v>
       </c>
       <c r="I47" s="3">
-        <v>426400</v>
+        <v>446700</v>
       </c>
       <c r="J47" s="3">
-        <v>434800</v>
+        <v>455400</v>
       </c>
       <c r="K47" s="3">
         <v>411400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2008200</v>
+        <v>2103500</v>
       </c>
       <c r="E48" s="3">
-        <v>1972600</v>
+        <v>2066200</v>
       </c>
       <c r="F48" s="3">
-        <v>2070800</v>
+        <v>2169100</v>
       </c>
       <c r="G48" s="3">
-        <v>2116300</v>
+        <v>2216800</v>
       </c>
       <c r="H48" s="3">
-        <v>2252700</v>
+        <v>2359600</v>
       </c>
       <c r="I48" s="3">
-        <v>2396300</v>
+        <v>2510000</v>
       </c>
       <c r="J48" s="3">
-        <v>2549600</v>
+        <v>2670600</v>
       </c>
       <c r="K48" s="3">
         <v>5226700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H49" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I49" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J49" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="K49" s="3">
         <v>258700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89300</v>
+        <v>93500</v>
       </c>
       <c r="E52" s="3">
-        <v>139000</v>
+        <v>145500</v>
       </c>
       <c r="F52" s="3">
-        <v>122400</v>
+        <v>128200</v>
       </c>
       <c r="G52" s="3">
-        <v>113600</v>
+        <v>119000</v>
       </c>
       <c r="H52" s="3">
-        <v>119800</v>
+        <v>125500</v>
       </c>
       <c r="I52" s="3">
-        <v>279800</v>
+        <v>293000</v>
       </c>
       <c r="J52" s="3">
-        <v>227500</v>
+        <v>238300</v>
       </c>
       <c r="K52" s="3">
         <v>368000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6607100</v>
+        <v>6920600</v>
       </c>
       <c r="E54" s="3">
-        <v>6446200</v>
+        <v>6752000</v>
       </c>
       <c r="F54" s="3">
-        <v>5728400</v>
+        <v>6000100</v>
       </c>
       <c r="G54" s="3">
-        <v>4929900</v>
+        <v>5163800</v>
       </c>
       <c r="H54" s="3">
-        <v>4040400</v>
+        <v>4232100</v>
       </c>
       <c r="I54" s="3">
-        <v>4488400</v>
+        <v>4701400</v>
       </c>
       <c r="J54" s="3">
-        <v>5320800</v>
+        <v>5573200</v>
       </c>
       <c r="K54" s="3">
         <v>5231600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>409000</v>
+        <v>428400</v>
       </c>
       <c r="E57" s="3">
-        <v>424500</v>
+        <v>444600</v>
       </c>
       <c r="F57" s="3">
-        <v>277200</v>
+        <v>290300</v>
       </c>
       <c r="G57" s="3">
-        <v>308500</v>
+        <v>323100</v>
       </c>
       <c r="H57" s="3">
-        <v>226900</v>
+        <v>237600</v>
       </c>
       <c r="I57" s="3">
-        <v>510000</v>
+        <v>534200</v>
       </c>
       <c r="J57" s="3">
-        <v>397900</v>
+        <v>416800</v>
       </c>
       <c r="K57" s="3">
         <v>828300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>226400</v>
+        <v>237200</v>
       </c>
       <c r="E58" s="3">
-        <v>72200</v>
+        <v>75600</v>
       </c>
       <c r="F58" s="3">
-        <v>88000</v>
+        <v>92200</v>
       </c>
       <c r="G58" s="3">
-        <v>79400</v>
+        <v>83100</v>
       </c>
       <c r="H58" s="3">
-        <v>300600</v>
+        <v>314900</v>
       </c>
       <c r="I58" s="3">
-        <v>592300</v>
+        <v>620400</v>
       </c>
       <c r="J58" s="3">
-        <v>1030300</v>
+        <v>1079100</v>
       </c>
       <c r="K58" s="3">
         <v>3163400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612700</v>
+        <v>1689200</v>
       </c>
       <c r="E59" s="3">
-        <v>1523900</v>
+        <v>1596200</v>
       </c>
       <c r="F59" s="3">
-        <v>1221000</v>
+        <v>1279000</v>
       </c>
       <c r="G59" s="3">
-        <v>910900</v>
+        <v>954100</v>
       </c>
       <c r="H59" s="3">
-        <v>594600</v>
+        <v>622800</v>
       </c>
       <c r="I59" s="3">
-        <v>710900</v>
+        <v>744600</v>
       </c>
       <c r="J59" s="3">
-        <v>1188500</v>
+        <v>1244900</v>
       </c>
       <c r="K59" s="3">
         <v>949800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2248100</v>
+        <v>2354800</v>
       </c>
       <c r="E60" s="3">
-        <v>2020600</v>
+        <v>2116400</v>
       </c>
       <c r="F60" s="3">
-        <v>1586200</v>
+        <v>1661500</v>
       </c>
       <c r="G60" s="3">
-        <v>1298700</v>
+        <v>1360300</v>
       </c>
       <c r="H60" s="3">
-        <v>1122100</v>
+        <v>1175300</v>
       </c>
       <c r="I60" s="3">
-        <v>1813200</v>
+        <v>1899200</v>
       </c>
       <c r="J60" s="3">
-        <v>2616700</v>
+        <v>2740800</v>
       </c>
       <c r="K60" s="3">
         <v>2715700</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>237100</v>
+        <v>248400</v>
       </c>
       <c r="J61" s="3">
-        <v>91200</v>
+        <v>95500</v>
       </c>
       <c r="K61" s="3">
         <v>176700</v>
@@ -2312,10 +2312,10 @@
         <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2324,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="I62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2270100</v>
+        <v>2377800</v>
       </c>
       <c r="E66" s="3">
-        <v>2039000</v>
+        <v>2135700</v>
       </c>
       <c r="F66" s="3">
-        <v>1628500</v>
+        <v>1705800</v>
       </c>
       <c r="G66" s="3">
-        <v>1339500</v>
+        <v>1403100</v>
       </c>
       <c r="H66" s="3">
-        <v>1165200</v>
+        <v>1220500</v>
       </c>
       <c r="I66" s="3">
-        <v>2092100</v>
+        <v>2191300</v>
       </c>
       <c r="J66" s="3">
-        <v>2745500</v>
+        <v>2875700</v>
       </c>
       <c r="K66" s="3">
         <v>2930600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2749600</v>
+        <v>2880000</v>
       </c>
       <c r="E72" s="3">
-        <v>2819700</v>
+        <v>2953500</v>
       </c>
       <c r="F72" s="3">
-        <v>2520300</v>
+        <v>2639900</v>
       </c>
       <c r="G72" s="3">
-        <v>2021900</v>
+        <v>2117800</v>
       </c>
       <c r="H72" s="3">
-        <v>1306700</v>
+        <v>1368700</v>
       </c>
       <c r="I72" s="3">
-        <v>827900</v>
+        <v>867100</v>
       </c>
       <c r="J72" s="3">
-        <v>1006800</v>
+        <v>1054600</v>
       </c>
       <c r="K72" s="3">
         <v>1840100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4337000</v>
+        <v>4542800</v>
       </c>
       <c r="E76" s="3">
-        <v>4407200</v>
+        <v>4616200</v>
       </c>
       <c r="F76" s="3">
-        <v>4099900</v>
+        <v>4294400</v>
       </c>
       <c r="G76" s="3">
-        <v>3590400</v>
+        <v>3760700</v>
       </c>
       <c r="H76" s="3">
-        <v>2875200</v>
+        <v>3011600</v>
       </c>
       <c r="I76" s="3">
-        <v>2396300</v>
+        <v>2510000</v>
       </c>
       <c r="J76" s="3">
-        <v>2575300</v>
+        <v>2697500</v>
       </c>
       <c r="K76" s="3">
         <v>2301000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>321800</v>
+        <v>337100</v>
       </c>
       <c r="E81" s="3">
-        <v>775000</v>
+        <v>811800</v>
       </c>
       <c r="F81" s="3">
-        <v>892200</v>
+        <v>934500</v>
       </c>
       <c r="G81" s="3">
-        <v>866800</v>
+        <v>907900</v>
       </c>
       <c r="H81" s="3">
-        <v>475500</v>
+        <v>498100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100500</v>
+        <v>-105300</v>
       </c>
       <c r="J81" s="3">
-        <v>298500</v>
+        <v>312700</v>
       </c>
       <c r="K81" s="3">
         <v>-219300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>235900</v>
+        <v>247100</v>
       </c>
       <c r="E83" s="3">
-        <v>227400</v>
+        <v>238100</v>
       </c>
       <c r="F83" s="3">
-        <v>231100</v>
+        <v>242100</v>
       </c>
       <c r="G83" s="3">
-        <v>238300</v>
+        <v>249600</v>
       </c>
       <c r="H83" s="3">
-        <v>250100</v>
+        <v>262000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>370600</v>
+        <v>388200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>734500</v>
+        <v>769400</v>
       </c>
       <c r="E89" s="3">
-        <v>967100</v>
+        <v>1013000</v>
       </c>
       <c r="F89" s="3">
-        <v>1025400</v>
+        <v>1074100</v>
       </c>
       <c r="G89" s="3">
-        <v>1043000</v>
+        <v>1092500</v>
       </c>
       <c r="H89" s="3">
-        <v>716400</v>
+        <v>750400</v>
       </c>
       <c r="I89" s="3">
-        <v>531900</v>
+        <v>557100</v>
       </c>
       <c r="J89" s="3">
-        <v>740500</v>
+        <v>775600</v>
       </c>
       <c r="K89" s="3">
         <v>-296500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-207700</v>
+        <v>-217600</v>
       </c>
       <c r="E91" s="3">
-        <v>-172400</v>
+        <v>-180600</v>
       </c>
       <c r="F91" s="3">
-        <v>-173800</v>
+        <v>-182100</v>
       </c>
       <c r="G91" s="3">
-        <v>-130900</v>
+        <v>-137100</v>
       </c>
       <c r="H91" s="3">
-        <v>-101000</v>
+        <v>-105800</v>
       </c>
       <c r="I91" s="3">
-        <v>-158200</v>
+        <v>-165700</v>
       </c>
       <c r="J91" s="3">
-        <v>-192200</v>
+        <v>-201300</v>
       </c>
       <c r="K91" s="3">
         <v>-611200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-671400</v>
+        <v>-703300</v>
       </c>
       <c r="E94" s="3">
-        <v>-280100</v>
+        <v>-293300</v>
       </c>
       <c r="F94" s="3">
-        <v>-348700</v>
+        <v>-365200</v>
       </c>
       <c r="G94" s="3">
-        <v>-27600</v>
+        <v>-28900</v>
       </c>
       <c r="H94" s="3">
-        <v>-63800</v>
+        <v>-66800</v>
       </c>
       <c r="I94" s="3">
-        <v>-132200</v>
+        <v>-138400</v>
       </c>
       <c r="J94" s="3">
-        <v>-91400</v>
+        <v>-95700</v>
       </c>
       <c r="K94" s="3">
         <v>-582800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-392800</v>
+        <v>-411500</v>
       </c>
       <c r="E96" s="3">
-        <v>-475700</v>
+        <v>-498300</v>
       </c>
       <c r="F96" s="3">
-        <v>-391700</v>
+        <v>-410300</v>
       </c>
       <c r="G96" s="3">
-        <v>-157500</v>
+        <v>-165000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-78900</v>
+        <v>-82600</v>
       </c>
       <c r="J96" s="3">
-        <v>-52400</v>
+        <v>-54900</v>
       </c>
       <c r="K96" s="3">
         <v>-51800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-252300</v>
+        <v>-264300</v>
       </c>
       <c r="E100" s="3">
-        <v>-509400</v>
+        <v>-533500</v>
       </c>
       <c r="F100" s="3">
-        <v>-376100</v>
+        <v>-394000</v>
       </c>
       <c r="G100" s="3">
-        <v>-383000</v>
+        <v>-401200</v>
       </c>
       <c r="H100" s="3">
-        <v>-536700</v>
+        <v>-562200</v>
       </c>
       <c r="I100" s="3">
-        <v>-378500</v>
+        <v>-396500</v>
       </c>
       <c r="J100" s="3">
-        <v>-653100</v>
+        <v>-684100</v>
       </c>
       <c r="K100" s="3">
         <v>889300</v>
@@ -3463,16 +3463,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-187700</v>
+        <v>-196600</v>
       </c>
       <c r="E102" s="3">
-        <v>179700</v>
+        <v>188300</v>
       </c>
       <c r="F102" s="3">
-        <v>299700</v>
+        <v>313900</v>
       </c>
       <c r="G102" s="3">
-        <v>633700</v>
+        <v>663700</v>
       </c>
       <c r="H102" s="3">
-        <v>115900</v>
+        <v>121400</v>
       </c>
       <c r="I102" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="J102" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="K102" s="3">
         <v>10000</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13395000</v>
+        <v>13453200</v>
       </c>
       <c r="E8" s="3">
-        <v>14544700</v>
+        <v>14607800</v>
       </c>
       <c r="F8" s="3">
-        <v>12050700</v>
+        <v>12103000</v>
       </c>
       <c r="G8" s="3">
-        <v>10030300</v>
+        <v>10073800</v>
       </c>
       <c r="H8" s="3">
-        <v>10197700</v>
+        <v>10241900</v>
       </c>
       <c r="I8" s="3">
-        <v>14105300</v>
+        <v>14166500</v>
       </c>
       <c r="J8" s="3">
-        <v>16049100</v>
+        <v>16118800</v>
       </c>
       <c r="K8" s="3">
         <v>12513900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13153500</v>
+        <v>13210600</v>
       </c>
       <c r="E9" s="3">
-        <v>13666300</v>
+        <v>13725600</v>
       </c>
       <c r="F9" s="3">
-        <v>11013200</v>
+        <v>11061000</v>
       </c>
       <c r="G9" s="3">
-        <v>8934300</v>
+        <v>8973000</v>
       </c>
       <c r="H9" s="3">
-        <v>9546600</v>
+        <v>9588000</v>
       </c>
       <c r="I9" s="3">
-        <v>14133500</v>
+        <v>14194800</v>
       </c>
       <c r="J9" s="3">
-        <v>15702700</v>
+        <v>15770900</v>
       </c>
       <c r="K9" s="3">
         <v>12714900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>241500</v>
+        <v>242600</v>
       </c>
       <c r="E10" s="3">
-        <v>878400</v>
+        <v>882200</v>
       </c>
       <c r="F10" s="3">
-        <v>1037500</v>
+        <v>1042000</v>
       </c>
       <c r="G10" s="3">
-        <v>1096000</v>
+        <v>1100700</v>
       </c>
       <c r="H10" s="3">
-        <v>651100</v>
+        <v>653900</v>
       </c>
       <c r="I10" s="3">
-        <v>-28200</v>
+        <v>-28300</v>
       </c>
       <c r="J10" s="3">
-        <v>346400</v>
+        <v>347900</v>
       </c>
       <c r="K10" s="3">
         <v>-200900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13194200</v>
+        <v>13251400</v>
       </c>
       <c r="E17" s="3">
-        <v>13695100</v>
+        <v>13754500</v>
       </c>
       <c r="F17" s="3">
-        <v>11076800</v>
+        <v>11124900</v>
       </c>
       <c r="G17" s="3">
-        <v>8999200</v>
+        <v>9038300</v>
       </c>
       <c r="H17" s="3">
-        <v>9603100</v>
+        <v>9644700</v>
       </c>
       <c r="I17" s="3">
-        <v>14194800</v>
+        <v>14256300</v>
       </c>
       <c r="J17" s="3">
-        <v>15715700</v>
+        <v>15783800</v>
       </c>
       <c r="K17" s="3">
         <v>12768200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200900</v>
+        <v>201800</v>
       </c>
       <c r="E18" s="3">
-        <v>849600</v>
+        <v>853300</v>
       </c>
       <c r="F18" s="3">
-        <v>973900</v>
+        <v>978100</v>
       </c>
       <c r="G18" s="3">
-        <v>1031000</v>
+        <v>1035500</v>
       </c>
       <c r="H18" s="3">
-        <v>594600</v>
+        <v>597200</v>
       </c>
       <c r="I18" s="3">
-        <v>-89400</v>
+        <v>-89800</v>
       </c>
       <c r="J18" s="3">
-        <v>333500</v>
+        <v>334900</v>
       </c>
       <c r="K18" s="3">
         <v>-254300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211300</v>
+        <v>212300</v>
       </c>
       <c r="E20" s="3">
-        <v>198100</v>
+        <v>199000</v>
       </c>
       <c r="F20" s="3">
-        <v>229000</v>
+        <v>230000</v>
       </c>
       <c r="G20" s="3">
-        <v>160300</v>
+        <v>161000</v>
       </c>
       <c r="H20" s="3">
-        <v>82200</v>
+        <v>82500</v>
       </c>
       <c r="I20" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J20" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="K20" s="3">
         <v>16100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>659300</v>
+        <v>663100</v>
       </c>
       <c r="E21" s="3">
-        <v>1285800</v>
+        <v>1292200</v>
       </c>
       <c r="F21" s="3">
-        <v>1444900</v>
+        <v>1452000</v>
       </c>
       <c r="G21" s="3">
-        <v>1441000</v>
+        <v>1448100</v>
       </c>
       <c r="H21" s="3">
-        <v>938800</v>
+        <v>943800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>760100</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1134,10 +1134,10 @@
         <v>8200</v>
       </c>
       <c r="H22" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="I22" s="3">
-        <v>57000</v>
+        <v>57200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>404100</v>
+        <v>405800</v>
       </c>
       <c r="E23" s="3">
-        <v>1035700</v>
+        <v>1040100</v>
       </c>
       <c r="F23" s="3">
-        <v>1194600</v>
+        <v>1199800</v>
       </c>
       <c r="G23" s="3">
-        <v>1183200</v>
+        <v>1188400</v>
       </c>
       <c r="H23" s="3">
-        <v>644600</v>
+        <v>647400</v>
       </c>
       <c r="I23" s="3">
-        <v>-135400</v>
+        <v>-136000</v>
       </c>
       <c r="J23" s="3">
-        <v>371900</v>
+        <v>373500</v>
       </c>
       <c r="K23" s="3">
         <v>-289300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65300</v>
+        <v>65500</v>
       </c>
       <c r="E24" s="3">
-        <v>223900</v>
+        <v>224900</v>
       </c>
       <c r="F24" s="3">
-        <v>258400</v>
+        <v>259500</v>
       </c>
       <c r="G24" s="3">
-        <v>273300</v>
+        <v>274500</v>
       </c>
       <c r="H24" s="3">
-        <v>141000</v>
+        <v>141600</v>
       </c>
       <c r="I24" s="3">
-        <v>-32600</v>
+        <v>-32700</v>
       </c>
       <c r="J24" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="K24" s="3">
         <v>-73400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>338800</v>
+        <v>340300</v>
       </c>
       <c r="E26" s="3">
-        <v>811700</v>
+        <v>815300</v>
       </c>
       <c r="F26" s="3">
-        <v>936200</v>
+        <v>940200</v>
       </c>
       <c r="G26" s="3">
-        <v>909900</v>
+        <v>913800</v>
       </c>
       <c r="H26" s="3">
-        <v>503600</v>
+        <v>505800</v>
       </c>
       <c r="I26" s="3">
-        <v>-102800</v>
+        <v>-103200</v>
       </c>
       <c r="J26" s="3">
-        <v>314200</v>
+        <v>315600</v>
       </c>
       <c r="K26" s="3">
         <v>-216000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>337100</v>
+        <v>338500</v>
       </c>
       <c r="E27" s="3">
-        <v>811800</v>
+        <v>815300</v>
       </c>
       <c r="F27" s="3">
-        <v>934500</v>
+        <v>938600</v>
       </c>
       <c r="G27" s="3">
-        <v>907900</v>
+        <v>911900</v>
       </c>
       <c r="H27" s="3">
-        <v>498100</v>
+        <v>500200</v>
       </c>
       <c r="I27" s="3">
-        <v>-105300</v>
+        <v>-105800</v>
       </c>
       <c r="J27" s="3">
-        <v>312700</v>
+        <v>314000</v>
       </c>
       <c r="K27" s="3">
         <v>-219300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211300</v>
+        <v>-212300</v>
       </c>
       <c r="E32" s="3">
-        <v>-198100</v>
+        <v>-199000</v>
       </c>
       <c r="F32" s="3">
-        <v>-229000</v>
+        <v>-230000</v>
       </c>
       <c r="G32" s="3">
-        <v>-160300</v>
+        <v>-161000</v>
       </c>
       <c r="H32" s="3">
-        <v>-82200</v>
+        <v>-82500</v>
       </c>
       <c r="I32" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="J32" s="3">
-        <v>-38400</v>
+        <v>-38600</v>
       </c>
       <c r="K32" s="3">
         <v>-16100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>337100</v>
+        <v>338500</v>
       </c>
       <c r="E33" s="3">
-        <v>811800</v>
+        <v>815300</v>
       </c>
       <c r="F33" s="3">
-        <v>934500</v>
+        <v>938600</v>
       </c>
       <c r="G33" s="3">
-        <v>907900</v>
+        <v>911900</v>
       </c>
       <c r="H33" s="3">
-        <v>498100</v>
+        <v>500200</v>
       </c>
       <c r="I33" s="3">
-        <v>-105300</v>
+        <v>-105800</v>
       </c>
       <c r="J33" s="3">
-        <v>312700</v>
+        <v>314000</v>
       </c>
       <c r="K33" s="3">
         <v>-219300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>337100</v>
+        <v>338500</v>
       </c>
       <c r="E35" s="3">
-        <v>811800</v>
+        <v>815300</v>
       </c>
       <c r="F35" s="3">
-        <v>934500</v>
+        <v>938600</v>
       </c>
       <c r="G35" s="3">
-        <v>907900</v>
+        <v>911900</v>
       </c>
       <c r="H35" s="3">
-        <v>498100</v>
+        <v>500200</v>
       </c>
       <c r="I35" s="3">
-        <v>-105300</v>
+        <v>-105800</v>
       </c>
       <c r="J35" s="3">
-        <v>312700</v>
+        <v>314000</v>
       </c>
       <c r="K35" s="3">
         <v>-219300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1123100</v>
+        <v>1127900</v>
       </c>
       <c r="E41" s="3">
-        <v>1326500</v>
+        <v>1332200</v>
       </c>
       <c r="F41" s="3">
-        <v>1137100</v>
+        <v>1142100</v>
       </c>
       <c r="G41" s="3">
-        <v>801900</v>
+        <v>805400</v>
       </c>
       <c r="H41" s="3">
-        <v>163100</v>
+        <v>163800</v>
       </c>
       <c r="I41" s="3">
-        <v>41700</v>
+        <v>41900</v>
       </c>
       <c r="J41" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="K41" s="3">
         <v>23100</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>979000</v>
+        <v>983200</v>
       </c>
       <c r="E42" s="3">
-        <v>900800</v>
+        <v>904700</v>
       </c>
       <c r="F42" s="3">
-        <v>308700</v>
+        <v>310000</v>
       </c>
       <c r="G42" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>260600</v>
+        <v>261700</v>
       </c>
       <c r="E43" s="3">
-        <v>376400</v>
+        <v>378000</v>
       </c>
       <c r="F43" s="3">
-        <v>537900</v>
+        <v>540200</v>
       </c>
       <c r="G43" s="3">
-        <v>473100</v>
+        <v>475100</v>
       </c>
       <c r="H43" s="3">
-        <v>439400</v>
+        <v>441300</v>
       </c>
       <c r="I43" s="3">
-        <v>502100</v>
+        <v>504300</v>
       </c>
       <c r="J43" s="3">
-        <v>808300</v>
+        <v>811800</v>
       </c>
       <c r="K43" s="3">
         <v>837800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1027500</v>
+        <v>1031900</v>
       </c>
       <c r="E44" s="3">
-        <v>1235300</v>
+        <v>1240700</v>
       </c>
       <c r="F44" s="3">
-        <v>1003600</v>
+        <v>1008000</v>
       </c>
       <c r="G44" s="3">
-        <v>937000</v>
+        <v>941000</v>
       </c>
       <c r="H44" s="3">
-        <v>635600</v>
+        <v>638300</v>
       </c>
       <c r="I44" s="3">
-        <v>902200</v>
+        <v>906100</v>
       </c>
       <c r="J44" s="3">
-        <v>1375000</v>
+        <v>1381000</v>
       </c>
       <c r="K44" s="3">
         <v>1339100</v>
@@ -1790,10 +1790,10 @@
         <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>34700</v>
+        <v>34900</v>
       </c>
       <c r="G45" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3393700</v>
+        <v>3408400</v>
       </c>
       <c r="E46" s="3">
-        <v>3848500</v>
+        <v>3865200</v>
       </c>
       <c r="F46" s="3">
-        <v>3022000</v>
+        <v>3035100</v>
       </c>
       <c r="G46" s="3">
-        <v>2262900</v>
+        <v>2272700</v>
       </c>
       <c r="H46" s="3">
-        <v>1238900</v>
+        <v>1244200</v>
       </c>
       <c r="I46" s="3">
-        <v>1446700</v>
+        <v>1453000</v>
       </c>
       <c r="J46" s="3">
-        <v>2203600</v>
+        <v>2213200</v>
       </c>
       <c r="K46" s="3">
         <v>1849700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1327200</v>
+        <v>1333000</v>
       </c>
       <c r="E47" s="3">
-        <v>688700</v>
+        <v>691700</v>
       </c>
       <c r="F47" s="3">
-        <v>677200</v>
+        <v>680200</v>
       </c>
       <c r="G47" s="3">
-        <v>561100</v>
+        <v>563600</v>
       </c>
       <c r="H47" s="3">
-        <v>503700</v>
+        <v>505900</v>
       </c>
       <c r="I47" s="3">
-        <v>446700</v>
+        <v>448600</v>
       </c>
       <c r="J47" s="3">
-        <v>455400</v>
+        <v>457400</v>
       </c>
       <c r="K47" s="3">
         <v>411400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2103500</v>
+        <v>2112600</v>
       </c>
       <c r="E48" s="3">
-        <v>2066200</v>
+        <v>2075100</v>
       </c>
       <c r="F48" s="3">
-        <v>2169100</v>
+        <v>2178500</v>
       </c>
       <c r="G48" s="3">
-        <v>2216800</v>
+        <v>2226400</v>
       </c>
       <c r="H48" s="3">
-        <v>2359600</v>
+        <v>2369800</v>
       </c>
       <c r="I48" s="3">
-        <v>2510000</v>
+        <v>2520900</v>
       </c>
       <c r="J48" s="3">
-        <v>2670600</v>
+        <v>2682100</v>
       </c>
       <c r="K48" s="3">
         <v>5226700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="E52" s="3">
-        <v>145500</v>
+        <v>146200</v>
       </c>
       <c r="F52" s="3">
-        <v>128200</v>
+        <v>128800</v>
       </c>
       <c r="G52" s="3">
-        <v>119000</v>
+        <v>119500</v>
       </c>
       <c r="H52" s="3">
-        <v>125500</v>
+        <v>126000</v>
       </c>
       <c r="I52" s="3">
-        <v>293000</v>
+        <v>294300</v>
       </c>
       <c r="J52" s="3">
-        <v>238300</v>
+        <v>239300</v>
       </c>
       <c r="K52" s="3">
         <v>368000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6920600</v>
+        <v>6950600</v>
       </c>
       <c r="E54" s="3">
-        <v>6752000</v>
+        <v>6781300</v>
       </c>
       <c r="F54" s="3">
-        <v>6000100</v>
+        <v>6026200</v>
       </c>
       <c r="G54" s="3">
-        <v>5163800</v>
+        <v>5186200</v>
       </c>
       <c r="H54" s="3">
-        <v>4232100</v>
+        <v>4250400</v>
       </c>
       <c r="I54" s="3">
-        <v>4701400</v>
+        <v>4721800</v>
       </c>
       <c r="J54" s="3">
-        <v>5573200</v>
+        <v>5597400</v>
       </c>
       <c r="K54" s="3">
         <v>5231600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>428400</v>
+        <v>430300</v>
       </c>
       <c r="E57" s="3">
-        <v>444600</v>
+        <v>446600</v>
       </c>
       <c r="F57" s="3">
-        <v>290300</v>
+        <v>291600</v>
       </c>
       <c r="G57" s="3">
-        <v>323100</v>
+        <v>324500</v>
       </c>
       <c r="H57" s="3">
-        <v>237600</v>
+        <v>238700</v>
       </c>
       <c r="I57" s="3">
-        <v>534200</v>
+        <v>536500</v>
       </c>
       <c r="J57" s="3">
-        <v>416800</v>
+        <v>418600</v>
       </c>
       <c r="K57" s="3">
         <v>828300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>237200</v>
+        <v>238200</v>
       </c>
       <c r="E58" s="3">
-        <v>75600</v>
+        <v>76000</v>
       </c>
       <c r="F58" s="3">
-        <v>92200</v>
+        <v>92600</v>
       </c>
       <c r="G58" s="3">
-        <v>83100</v>
+        <v>83500</v>
       </c>
       <c r="H58" s="3">
-        <v>314900</v>
+        <v>316300</v>
       </c>
       <c r="I58" s="3">
-        <v>620400</v>
+        <v>623100</v>
       </c>
       <c r="J58" s="3">
-        <v>1079100</v>
+        <v>1083800</v>
       </c>
       <c r="K58" s="3">
         <v>3163400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689200</v>
+        <v>1696500</v>
       </c>
       <c r="E59" s="3">
-        <v>1596200</v>
+        <v>1603100</v>
       </c>
       <c r="F59" s="3">
-        <v>1279000</v>
+        <v>1284500</v>
       </c>
       <c r="G59" s="3">
-        <v>954100</v>
+        <v>958200</v>
       </c>
       <c r="H59" s="3">
-        <v>622800</v>
+        <v>625500</v>
       </c>
       <c r="I59" s="3">
-        <v>744600</v>
+        <v>747900</v>
       </c>
       <c r="J59" s="3">
-        <v>1244900</v>
+        <v>1250300</v>
       </c>
       <c r="K59" s="3">
         <v>949800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2354800</v>
+        <v>2365000</v>
       </c>
       <c r="E60" s="3">
-        <v>2116400</v>
+        <v>2125600</v>
       </c>
       <c r="F60" s="3">
-        <v>1661500</v>
+        <v>1668700</v>
       </c>
       <c r="G60" s="3">
-        <v>1360300</v>
+        <v>1366200</v>
       </c>
       <c r="H60" s="3">
-        <v>1175300</v>
+        <v>1180400</v>
       </c>
       <c r="I60" s="3">
-        <v>1899200</v>
+        <v>1907400</v>
       </c>
       <c r="J60" s="3">
-        <v>2740800</v>
+        <v>2752700</v>
       </c>
       <c r="K60" s="3">
         <v>2715700</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>248400</v>
+        <v>249400</v>
       </c>
       <c r="J61" s="3">
-        <v>95500</v>
+        <v>95900</v>
       </c>
       <c r="K61" s="3">
         <v>176700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2377800</v>
+        <v>2388100</v>
       </c>
       <c r="E66" s="3">
-        <v>2135700</v>
+        <v>2145000</v>
       </c>
       <c r="F66" s="3">
-        <v>1705800</v>
+        <v>1713200</v>
       </c>
       <c r="G66" s="3">
-        <v>1403100</v>
+        <v>1409200</v>
       </c>
       <c r="H66" s="3">
-        <v>1220500</v>
+        <v>1225800</v>
       </c>
       <c r="I66" s="3">
-        <v>2191300</v>
+        <v>2200900</v>
       </c>
       <c r="J66" s="3">
-        <v>2875700</v>
+        <v>2888200</v>
       </c>
       <c r="K66" s="3">
         <v>2930600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2880000</v>
+        <v>2892500</v>
       </c>
       <c r="E72" s="3">
-        <v>2953500</v>
+        <v>2966300</v>
       </c>
       <c r="F72" s="3">
-        <v>2639900</v>
+        <v>2651300</v>
       </c>
       <c r="G72" s="3">
-        <v>2117800</v>
+        <v>2127000</v>
       </c>
       <c r="H72" s="3">
-        <v>1368700</v>
+        <v>1374600</v>
       </c>
       <c r="I72" s="3">
-        <v>867100</v>
+        <v>870900</v>
       </c>
       <c r="J72" s="3">
-        <v>1054600</v>
+        <v>1059100</v>
       </c>
       <c r="K72" s="3">
         <v>1840100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4542800</v>
+        <v>4562500</v>
       </c>
       <c r="E76" s="3">
-        <v>4616200</v>
+        <v>4636300</v>
       </c>
       <c r="F76" s="3">
-        <v>4294400</v>
+        <v>4313000</v>
       </c>
       <c r="G76" s="3">
-        <v>3760700</v>
+        <v>3777000</v>
       </c>
       <c r="H76" s="3">
-        <v>3011600</v>
+        <v>3024600</v>
       </c>
       <c r="I76" s="3">
-        <v>2510000</v>
+        <v>2520900</v>
       </c>
       <c r="J76" s="3">
-        <v>2697500</v>
+        <v>2709200</v>
       </c>
       <c r="K76" s="3">
         <v>2301000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>337100</v>
+        <v>338500</v>
       </c>
       <c r="E81" s="3">
-        <v>811800</v>
+        <v>815300</v>
       </c>
       <c r="F81" s="3">
-        <v>934500</v>
+        <v>938600</v>
       </c>
       <c r="G81" s="3">
-        <v>907900</v>
+        <v>911900</v>
       </c>
       <c r="H81" s="3">
-        <v>498100</v>
+        <v>500200</v>
       </c>
       <c r="I81" s="3">
-        <v>-105300</v>
+        <v>-105800</v>
       </c>
       <c r="J81" s="3">
-        <v>312700</v>
+        <v>314000</v>
       </c>
       <c r="K81" s="3">
         <v>-219300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247100</v>
+        <v>248200</v>
       </c>
       <c r="E83" s="3">
-        <v>238100</v>
+        <v>239200</v>
       </c>
       <c r="F83" s="3">
-        <v>242100</v>
+        <v>243100</v>
       </c>
       <c r="G83" s="3">
-        <v>249600</v>
+        <v>250700</v>
       </c>
       <c r="H83" s="3">
-        <v>262000</v>
+        <v>263100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
-        <v>388200</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>769400</v>
+        <v>772700</v>
       </c>
       <c r="E89" s="3">
-        <v>1013000</v>
+        <v>1017400</v>
       </c>
       <c r="F89" s="3">
-        <v>1074100</v>
+        <v>1078800</v>
       </c>
       <c r="G89" s="3">
-        <v>1092500</v>
+        <v>1097200</v>
       </c>
       <c r="H89" s="3">
-        <v>750400</v>
+        <v>753600</v>
       </c>
       <c r="I89" s="3">
-        <v>557100</v>
+        <v>559500</v>
       </c>
       <c r="J89" s="3">
-        <v>775600</v>
+        <v>779000</v>
       </c>
       <c r="K89" s="3">
         <v>-296500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-217600</v>
+        <v>-218500</v>
       </c>
       <c r="E91" s="3">
-        <v>-180600</v>
+        <v>-181400</v>
       </c>
       <c r="F91" s="3">
-        <v>-182100</v>
+        <v>-182900</v>
       </c>
       <c r="G91" s="3">
-        <v>-137100</v>
+        <v>-137700</v>
       </c>
       <c r="H91" s="3">
-        <v>-105800</v>
+        <v>-106200</v>
       </c>
       <c r="I91" s="3">
-        <v>-165700</v>
+        <v>-166400</v>
       </c>
       <c r="J91" s="3">
-        <v>-201300</v>
+        <v>-202100</v>
       </c>
       <c r="K91" s="3">
         <v>-611200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-703300</v>
+        <v>-706300</v>
       </c>
       <c r="E94" s="3">
-        <v>-293300</v>
+        <v>-294600</v>
       </c>
       <c r="F94" s="3">
-        <v>-365200</v>
+        <v>-366800</v>
       </c>
       <c r="G94" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="H94" s="3">
-        <v>-66800</v>
+        <v>-67100</v>
       </c>
       <c r="I94" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-95700</v>
+        <v>-139000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-582800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-411500</v>
+        <v>-413200</v>
       </c>
       <c r="E96" s="3">
-        <v>-498300</v>
+        <v>-500500</v>
       </c>
       <c r="F96" s="3">
-        <v>-410300</v>
+        <v>-412100</v>
       </c>
       <c r="G96" s="3">
-        <v>-165000</v>
+        <v>-165700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-82600</v>
+        <v>-83000</v>
       </c>
       <c r="J96" s="3">
-        <v>-54900</v>
+        <v>-55100</v>
       </c>
       <c r="K96" s="3">
         <v>-51800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-264300</v>
+        <v>-265400</v>
       </c>
       <c r="E100" s="3">
-        <v>-533500</v>
+        <v>-535800</v>
       </c>
       <c r="F100" s="3">
-        <v>-394000</v>
+        <v>-395700</v>
       </c>
       <c r="G100" s="3">
-        <v>-401200</v>
+        <v>-402900</v>
       </c>
       <c r="H100" s="3">
-        <v>-562200</v>
+        <v>-564600</v>
       </c>
       <c r="I100" s="3">
-        <v>-396500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-684100</v>
+        <v>-398200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>889300</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-196600</v>
+        <v>-197400</v>
       </c>
       <c r="E102" s="3">
-        <v>188300</v>
+        <v>189100</v>
       </c>
       <c r="F102" s="3">
-        <v>313900</v>
+        <v>315300</v>
       </c>
       <c r="G102" s="3">
-        <v>663700</v>
+        <v>666600</v>
       </c>
       <c r="H102" s="3">
-        <v>121400</v>
+        <v>122000</v>
       </c>
       <c r="I102" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="J102" s="3">
         <v>-4200</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13453200</v>
+        <v>9604100</v>
       </c>
       <c r="E8" s="3">
-        <v>14607800</v>
+        <v>13737600</v>
       </c>
       <c r="F8" s="3">
-        <v>12103000</v>
+        <v>14916700</v>
       </c>
       <c r="G8" s="3">
-        <v>10073800</v>
+        <v>12358900</v>
       </c>
       <c r="H8" s="3">
-        <v>10241900</v>
+        <v>10286700</v>
       </c>
       <c r="I8" s="3">
-        <v>14166500</v>
+        <v>10458500</v>
       </c>
       <c r="J8" s="3">
+        <v>14466000</v>
+      </c>
+      <c r="K8" s="3">
         <v>16118800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12513900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13284100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13210600</v>
+        <v>9657200</v>
       </c>
       <c r="E9" s="3">
-        <v>13725600</v>
+        <v>13489900</v>
       </c>
       <c r="F9" s="3">
-        <v>11061000</v>
+        <v>14015800</v>
       </c>
       <c r="G9" s="3">
-        <v>8973000</v>
+        <v>11294900</v>
       </c>
       <c r="H9" s="3">
-        <v>9588000</v>
+        <v>9162700</v>
       </c>
       <c r="I9" s="3">
-        <v>14194800</v>
+        <v>9790700</v>
       </c>
       <c r="J9" s="3">
+        <v>14494900</v>
+      </c>
+      <c r="K9" s="3">
         <v>15770900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12714900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13042400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>242600</v>
+        <v>-53100</v>
       </c>
       <c r="E10" s="3">
-        <v>882200</v>
+        <v>247700</v>
       </c>
       <c r="F10" s="3">
-        <v>1042000</v>
+        <v>900900</v>
       </c>
       <c r="G10" s="3">
-        <v>1100700</v>
+        <v>1064000</v>
       </c>
       <c r="H10" s="3">
-        <v>653900</v>
+        <v>1124000</v>
       </c>
       <c r="I10" s="3">
-        <v>-28300</v>
+        <v>667700</v>
       </c>
       <c r="J10" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K10" s="3">
         <v>347900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>241700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9300</v>
+        <v>-18900</v>
       </c>
       <c r="E14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,16 +961,16 @@
         <v>1400</v>
       </c>
       <c r="G15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13251400</v>
+        <v>9676800</v>
       </c>
       <c r="E17" s="3">
-        <v>13754500</v>
+        <v>13531600</v>
       </c>
       <c r="F17" s="3">
-        <v>11124900</v>
+        <v>14045300</v>
       </c>
       <c r="G17" s="3">
-        <v>9038300</v>
+        <v>11360100</v>
       </c>
       <c r="H17" s="3">
-        <v>9644700</v>
+        <v>9229300</v>
       </c>
       <c r="I17" s="3">
-        <v>14256300</v>
+        <v>9848600</v>
       </c>
       <c r="J17" s="3">
+        <v>14557700</v>
+      </c>
+      <c r="K17" s="3">
         <v>15783800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12768200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13126800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>201800</v>
+        <v>-72700</v>
       </c>
       <c r="E18" s="3">
-        <v>853300</v>
+        <v>206000</v>
       </c>
       <c r="F18" s="3">
-        <v>978100</v>
+        <v>871300</v>
       </c>
       <c r="G18" s="3">
-        <v>1035500</v>
+        <v>998800</v>
       </c>
       <c r="H18" s="3">
-        <v>597200</v>
+        <v>1057400</v>
       </c>
       <c r="I18" s="3">
-        <v>-89800</v>
+        <v>609800</v>
       </c>
       <c r="J18" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="K18" s="3">
         <v>334900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-254300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,61 +1082,65 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>212300</v>
+        <v>179500</v>
       </c>
       <c r="E20" s="3">
-        <v>199000</v>
+        <v>216800</v>
       </c>
       <c r="F20" s="3">
-        <v>230000</v>
+        <v>203200</v>
       </c>
       <c r="G20" s="3">
-        <v>161000</v>
+        <v>234900</v>
       </c>
       <c r="H20" s="3">
-        <v>82500</v>
+        <v>164400</v>
       </c>
       <c r="I20" s="3">
-        <v>11100</v>
+        <v>84300</v>
       </c>
       <c r="J20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K20" s="3">
         <v>38600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>67100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>663100</v>
+        <v>356200</v>
       </c>
       <c r="E21" s="3">
-        <v>1292200</v>
+        <v>675900</v>
       </c>
       <c r="F21" s="3">
-        <v>1452000</v>
+        <v>1318400</v>
       </c>
       <c r="G21" s="3">
-        <v>1448100</v>
+        <v>1481600</v>
       </c>
       <c r="H21" s="3">
-        <v>943800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>1477600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>962500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1115,108 +1151,120 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8200</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="3">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="F22" s="3">
-        <v>8300</v>
+        <v>12400</v>
       </c>
       <c r="G22" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="H22" s="3">
-        <v>32400</v>
+        <v>8400</v>
       </c>
       <c r="I22" s="3">
-        <v>57200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>51100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>405800</v>
+        <v>92200</v>
       </c>
       <c r="E23" s="3">
-        <v>1040100</v>
+        <v>414400</v>
       </c>
       <c r="F23" s="3">
-        <v>1199800</v>
+        <v>1062100</v>
       </c>
       <c r="G23" s="3">
-        <v>1188400</v>
+        <v>1225100</v>
       </c>
       <c r="H23" s="3">
-        <v>647400</v>
+        <v>1213500</v>
       </c>
       <c r="I23" s="3">
-        <v>-136000</v>
+        <v>661000</v>
       </c>
       <c r="J23" s="3">
+        <v>-138800</v>
+      </c>
+      <c r="K23" s="3">
         <v>373500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-289300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>192400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65500</v>
+        <v>-10200</v>
       </c>
       <c r="E24" s="3">
-        <v>224900</v>
+        <v>66900</v>
       </c>
       <c r="F24" s="3">
-        <v>259500</v>
+        <v>229600</v>
       </c>
       <c r="G24" s="3">
-        <v>274500</v>
+        <v>265000</v>
       </c>
       <c r="H24" s="3">
-        <v>141600</v>
+        <v>280300</v>
       </c>
       <c r="I24" s="3">
-        <v>-32700</v>
+        <v>144600</v>
       </c>
       <c r="J24" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K24" s="3">
         <v>57900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-73400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340300</v>
+        <v>102400</v>
       </c>
       <c r="E26" s="3">
-        <v>815300</v>
+        <v>347500</v>
       </c>
       <c r="F26" s="3">
-        <v>940200</v>
+        <v>832500</v>
       </c>
       <c r="G26" s="3">
-        <v>913800</v>
+        <v>960100</v>
       </c>
       <c r="H26" s="3">
-        <v>505800</v>
+        <v>933200</v>
       </c>
       <c r="I26" s="3">
-        <v>-103200</v>
+        <v>516500</v>
       </c>
       <c r="J26" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="K26" s="3">
         <v>315600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-216000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>338500</v>
+        <v>100600</v>
       </c>
       <c r="E27" s="3">
-        <v>815300</v>
+        <v>345700</v>
       </c>
       <c r="F27" s="3">
-        <v>938600</v>
+        <v>832500</v>
       </c>
       <c r="G27" s="3">
-        <v>911900</v>
+        <v>958400</v>
       </c>
       <c r="H27" s="3">
-        <v>500200</v>
+        <v>931100</v>
       </c>
       <c r="I27" s="3">
-        <v>-105800</v>
+        <v>510800</v>
       </c>
       <c r="J27" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K27" s="3">
         <v>314000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-219300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>141900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-212300</v>
+        <v>-179500</v>
       </c>
       <c r="E32" s="3">
-        <v>-199000</v>
+        <v>-216800</v>
       </c>
       <c r="F32" s="3">
-        <v>-230000</v>
+        <v>-203200</v>
       </c>
       <c r="G32" s="3">
-        <v>-161000</v>
+        <v>-234900</v>
       </c>
       <c r="H32" s="3">
-        <v>-82500</v>
+        <v>-164400</v>
       </c>
       <c r="I32" s="3">
-        <v>-11100</v>
+        <v>-84300</v>
       </c>
       <c r="J32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-38600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-67100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>338500</v>
+        <v>100600</v>
       </c>
       <c r="E33" s="3">
-        <v>815300</v>
+        <v>345700</v>
       </c>
       <c r="F33" s="3">
-        <v>938600</v>
+        <v>832500</v>
       </c>
       <c r="G33" s="3">
-        <v>911900</v>
+        <v>958400</v>
       </c>
       <c r="H33" s="3">
-        <v>500200</v>
+        <v>931100</v>
       </c>
       <c r="I33" s="3">
-        <v>-105800</v>
+        <v>510800</v>
       </c>
       <c r="J33" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K33" s="3">
         <v>314000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-219300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>141900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>338500</v>
+        <v>100600</v>
       </c>
       <c r="E35" s="3">
-        <v>815300</v>
+        <v>345700</v>
       </c>
       <c r="F35" s="3">
-        <v>938600</v>
+        <v>832500</v>
       </c>
       <c r="G35" s="3">
-        <v>911900</v>
+        <v>958400</v>
       </c>
       <c r="H35" s="3">
-        <v>500200</v>
+        <v>931100</v>
       </c>
       <c r="I35" s="3">
-        <v>-105800</v>
+        <v>510800</v>
       </c>
       <c r="J35" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K35" s="3">
         <v>314000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-219300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>141900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,157 +1731,170 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1127900</v>
+        <v>1078100</v>
       </c>
       <c r="E41" s="3">
-        <v>1332200</v>
+        <v>1151800</v>
       </c>
       <c r="F41" s="3">
-        <v>1142100</v>
+        <v>1360400</v>
       </c>
       <c r="G41" s="3">
-        <v>805400</v>
+        <v>1166200</v>
       </c>
       <c r="H41" s="3">
-        <v>163800</v>
+        <v>822400</v>
       </c>
       <c r="I41" s="3">
-        <v>41900</v>
+        <v>167200</v>
       </c>
       <c r="J41" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K41" s="3">
         <v>19300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>983200</v>
+        <v>821000</v>
       </c>
       <c r="E42" s="3">
-        <v>904700</v>
+        <v>1004000</v>
       </c>
       <c r="F42" s="3">
-        <v>310000</v>
+        <v>923900</v>
       </c>
       <c r="G42" s="3">
-        <v>25900</v>
+        <v>316600</v>
       </c>
       <c r="H42" s="3">
-        <v>800</v>
+        <v>26400</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
       </c>
       <c r="J42" s="3">
+        <v>800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>261700</v>
+        <v>190900</v>
       </c>
       <c r="E43" s="3">
-        <v>378000</v>
+        <v>267200</v>
       </c>
       <c r="F43" s="3">
-        <v>540200</v>
+        <v>386000</v>
       </c>
       <c r="G43" s="3">
-        <v>475100</v>
+        <v>551600</v>
       </c>
       <c r="H43" s="3">
-        <v>441300</v>
+        <v>485200</v>
       </c>
       <c r="I43" s="3">
-        <v>504300</v>
+        <v>450600</v>
       </c>
       <c r="J43" s="3">
+        <v>514900</v>
+      </c>
+      <c r="K43" s="3">
         <v>811800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>837800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>592500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1031900</v>
+        <v>606700</v>
       </c>
       <c r="E44" s="3">
-        <v>1240700</v>
+        <v>1053800</v>
       </c>
       <c r="F44" s="3">
-        <v>1008000</v>
+        <v>1266900</v>
       </c>
       <c r="G44" s="3">
-        <v>941000</v>
+        <v>1029300</v>
       </c>
       <c r="H44" s="3">
-        <v>638300</v>
+        <v>960900</v>
       </c>
       <c r="I44" s="3">
-        <v>906100</v>
+        <v>651800</v>
       </c>
       <c r="J44" s="3">
+        <v>925200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1381000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1339100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>828500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
-        <v>25300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>35600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>25900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1810,141 +1908,156 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3408400</v>
+        <v>2699700</v>
       </c>
       <c r="E46" s="3">
-        <v>3865200</v>
+        <v>3480500</v>
       </c>
       <c r="F46" s="3">
-        <v>3035100</v>
+        <v>3946900</v>
       </c>
       <c r="G46" s="3">
-        <v>2272700</v>
+        <v>3099300</v>
       </c>
       <c r="H46" s="3">
-        <v>1244200</v>
+        <v>2320800</v>
       </c>
       <c r="I46" s="3">
-        <v>1453000</v>
+        <v>1270500</v>
       </c>
       <c r="J46" s="3">
+        <v>1483700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2213200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1849700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1434500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1333000</v>
+        <v>1940100</v>
       </c>
       <c r="E47" s="3">
-        <v>691700</v>
+        <v>1361200</v>
       </c>
       <c r="F47" s="3">
-        <v>680200</v>
+        <v>706300</v>
       </c>
       <c r="G47" s="3">
-        <v>563600</v>
+        <v>694600</v>
       </c>
       <c r="H47" s="3">
-        <v>505900</v>
+        <v>575500</v>
       </c>
       <c r="I47" s="3">
-        <v>448600</v>
+        <v>516600</v>
       </c>
       <c r="J47" s="3">
+        <v>458100</v>
+      </c>
+      <c r="K47" s="3">
         <v>457400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>411400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>430600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2112600</v>
+        <v>2215600</v>
       </c>
       <c r="E48" s="3">
-        <v>2075100</v>
+        <v>2157300</v>
       </c>
       <c r="F48" s="3">
-        <v>2178500</v>
+        <v>2119000</v>
       </c>
       <c r="G48" s="3">
-        <v>2226400</v>
+        <v>2224500</v>
       </c>
       <c r="H48" s="3">
-        <v>2369800</v>
+        <v>2273400</v>
       </c>
       <c r="I48" s="3">
-        <v>2520900</v>
+        <v>2419900</v>
       </c>
       <c r="J48" s="3">
+        <v>2574200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2682100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5226700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2494400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="F49" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>258700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93900</v>
+        <v>103300</v>
       </c>
       <c r="E52" s="3">
-        <v>146200</v>
+        <v>95900</v>
       </c>
       <c r="F52" s="3">
-        <v>128800</v>
+        <v>149300</v>
       </c>
       <c r="G52" s="3">
-        <v>119500</v>
+        <v>131500</v>
       </c>
       <c r="H52" s="3">
-        <v>126000</v>
+        <v>122000</v>
       </c>
       <c r="I52" s="3">
-        <v>294300</v>
+        <v>128700</v>
       </c>
       <c r="J52" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K52" s="3">
         <v>239300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>368000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6950600</v>
+        <v>6961000</v>
       </c>
       <c r="E54" s="3">
-        <v>6781300</v>
+        <v>7097500</v>
       </c>
       <c r="F54" s="3">
-        <v>6026200</v>
+        <v>6924600</v>
       </c>
       <c r="G54" s="3">
-        <v>5186200</v>
+        <v>6153600</v>
       </c>
       <c r="H54" s="3">
-        <v>4250400</v>
+        <v>5295900</v>
       </c>
       <c r="I54" s="3">
-        <v>4721800</v>
+        <v>4340300</v>
       </c>
       <c r="J54" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5597400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5231600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4559000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,148 +2267,161 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>430300</v>
+        <v>206000</v>
       </c>
       <c r="E57" s="3">
-        <v>446600</v>
+        <v>439400</v>
       </c>
       <c r="F57" s="3">
-        <v>291600</v>
+        <v>456000</v>
       </c>
       <c r="G57" s="3">
-        <v>324500</v>
+        <v>297700</v>
       </c>
       <c r="H57" s="3">
-        <v>238700</v>
+        <v>331400</v>
       </c>
       <c r="I57" s="3">
-        <v>536500</v>
+        <v>243700</v>
       </c>
       <c r="J57" s="3">
+        <v>547800</v>
+      </c>
+      <c r="K57" s="3">
         <v>418600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>828300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>464000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>238200</v>
+        <v>713800</v>
       </c>
       <c r="E58" s="3">
-        <v>76000</v>
+        <v>243200</v>
       </c>
       <c r="F58" s="3">
-        <v>92600</v>
+        <v>77600</v>
       </c>
       <c r="G58" s="3">
-        <v>83500</v>
+        <v>94600</v>
       </c>
       <c r="H58" s="3">
-        <v>316300</v>
+        <v>85200</v>
       </c>
       <c r="I58" s="3">
-        <v>623100</v>
+        <v>322900</v>
       </c>
       <c r="J58" s="3">
+        <v>636200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1083800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3163400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>818000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1696500</v>
+        <v>1456600</v>
       </c>
       <c r="E59" s="3">
-        <v>1603100</v>
+        <v>1732400</v>
       </c>
       <c r="F59" s="3">
-        <v>1284500</v>
+        <v>1637000</v>
       </c>
       <c r="G59" s="3">
-        <v>958200</v>
+        <v>1311700</v>
       </c>
       <c r="H59" s="3">
-        <v>625500</v>
+        <v>978500</v>
       </c>
       <c r="I59" s="3">
-        <v>747900</v>
+        <v>638700</v>
       </c>
       <c r="J59" s="3">
+        <v>763700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1250300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>949800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>539200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2365000</v>
+        <v>2376400</v>
       </c>
       <c r="E60" s="3">
-        <v>2125600</v>
+        <v>2415000</v>
       </c>
       <c r="F60" s="3">
-        <v>1668700</v>
+        <v>2170600</v>
       </c>
       <c r="G60" s="3">
-        <v>1366200</v>
+        <v>1704000</v>
       </c>
       <c r="H60" s="3">
-        <v>1180400</v>
+        <v>1395100</v>
       </c>
       <c r="I60" s="3">
-        <v>1907400</v>
+        <v>1205400</v>
       </c>
       <c r="J60" s="3">
+        <v>1947800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2752700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2715700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1821300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2291,53 +2433,59 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>249400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K61" s="3">
         <v>95900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>176700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
       </c>
       <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2388100</v>
+        <v>2405900</v>
       </c>
       <c r="E66" s="3">
-        <v>2145000</v>
+        <v>2438600</v>
       </c>
       <c r="F66" s="3">
-        <v>1713200</v>
+        <v>2190400</v>
       </c>
       <c r="G66" s="3">
-        <v>1409200</v>
+        <v>1749400</v>
       </c>
       <c r="H66" s="3">
-        <v>1225800</v>
+        <v>1439000</v>
       </c>
       <c r="I66" s="3">
-        <v>2200900</v>
+        <v>1251700</v>
       </c>
       <c r="J66" s="3">
+        <v>2247400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2888200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2930600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1898700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2892500</v>
+        <v>2849900</v>
       </c>
       <c r="E72" s="3">
-        <v>2966300</v>
+        <v>2953700</v>
       </c>
       <c r="F72" s="3">
-        <v>2651300</v>
+        <v>3029000</v>
       </c>
       <c r="G72" s="3">
-        <v>2127000</v>
+        <v>2707400</v>
       </c>
       <c r="H72" s="3">
-        <v>1374600</v>
+        <v>2172000</v>
       </c>
       <c r="I72" s="3">
-        <v>870900</v>
+        <v>1403700</v>
       </c>
       <c r="J72" s="3">
+        <v>889300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1059100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1840100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1232500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4562500</v>
+        <v>4555200</v>
       </c>
       <c r="E76" s="3">
-        <v>4636300</v>
+        <v>4659000</v>
       </c>
       <c r="F76" s="3">
-        <v>4313000</v>
+        <v>4734300</v>
       </c>
       <c r="G76" s="3">
-        <v>3777000</v>
+        <v>4404200</v>
       </c>
       <c r="H76" s="3">
-        <v>3024600</v>
+        <v>3856900</v>
       </c>
       <c r="I76" s="3">
-        <v>2520900</v>
+        <v>3088600</v>
       </c>
       <c r="J76" s="3">
+        <v>2574200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2709200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2301000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2660300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>338500</v>
+        <v>100600</v>
       </c>
       <c r="E81" s="3">
-        <v>815300</v>
+        <v>345700</v>
       </c>
       <c r="F81" s="3">
-        <v>938600</v>
+        <v>832500</v>
       </c>
       <c r="G81" s="3">
-        <v>911900</v>
+        <v>958400</v>
       </c>
       <c r="H81" s="3">
-        <v>500200</v>
+        <v>931100</v>
       </c>
       <c r="I81" s="3">
-        <v>-105800</v>
+        <v>510800</v>
       </c>
       <c r="J81" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K81" s="3">
         <v>314000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-219300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>141900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,28 +3096,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>248200</v>
+        <v>249800</v>
       </c>
       <c r="E83" s="3">
-        <v>239200</v>
+        <v>253400</v>
       </c>
       <c r="F83" s="3">
-        <v>243100</v>
+        <v>244200</v>
       </c>
       <c r="G83" s="3">
-        <v>250700</v>
+        <v>248300</v>
       </c>
       <c r="H83" s="3">
-        <v>263100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+        <v>256000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>268700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>772700</v>
+        <v>262100</v>
       </c>
       <c r="E89" s="3">
-        <v>1017400</v>
+        <v>789100</v>
       </c>
       <c r="F89" s="3">
-        <v>1078800</v>
+        <v>1038900</v>
       </c>
       <c r="G89" s="3">
-        <v>1097200</v>
+        <v>1101600</v>
       </c>
       <c r="H89" s="3">
-        <v>753600</v>
+        <v>1120400</v>
       </c>
       <c r="I89" s="3">
-        <v>559500</v>
+        <v>769600</v>
       </c>
       <c r="J89" s="3">
+        <v>571400</v>
+      </c>
+      <c r="K89" s="3">
         <v>779000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-296500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>329500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-218500</v>
+        <v>-287200</v>
       </c>
       <c r="E91" s="3">
-        <v>-181400</v>
+        <v>-223200</v>
       </c>
       <c r="F91" s="3">
-        <v>-182900</v>
+        <v>-185200</v>
       </c>
       <c r="G91" s="3">
-        <v>-137700</v>
+        <v>-186800</v>
       </c>
       <c r="H91" s="3">
-        <v>-106200</v>
+        <v>-140600</v>
       </c>
       <c r="I91" s="3">
-        <v>-166400</v>
+        <v>-108500</v>
       </c>
       <c r="J91" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-202100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-611200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-516700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-706300</v>
+        <v>-606500</v>
       </c>
       <c r="E94" s="3">
-        <v>-294600</v>
+        <v>-721300</v>
       </c>
       <c r="F94" s="3">
-        <v>-366800</v>
+        <v>-300800</v>
       </c>
       <c r="G94" s="3">
-        <v>-29000</v>
+        <v>-374500</v>
       </c>
       <c r="H94" s="3">
-        <v>-67100</v>
+        <v>-29600</v>
       </c>
       <c r="I94" s="3">
-        <v>-139000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-582800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-413200</v>
+        <v>-201800</v>
       </c>
       <c r="E96" s="3">
-        <v>-500500</v>
+        <v>-422000</v>
       </c>
       <c r="F96" s="3">
-        <v>-412100</v>
+        <v>-511000</v>
       </c>
       <c r="G96" s="3">
-        <v>-165700</v>
+        <v>-420800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-169200</v>
       </c>
       <c r="I96" s="3">
-        <v>-83000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-55100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-105800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-265400</v>
+        <v>262400</v>
       </c>
       <c r="E100" s="3">
-        <v>-535800</v>
+        <v>-271000</v>
       </c>
       <c r="F100" s="3">
-        <v>-395700</v>
+        <v>-547200</v>
       </c>
       <c r="G100" s="3">
-        <v>-402900</v>
+        <v>-404000</v>
       </c>
       <c r="H100" s="3">
-        <v>-564600</v>
+        <v>-411400</v>
       </c>
       <c r="I100" s="3">
-        <v>-398200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-576600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-406600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>889300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-197400</v>
+        <v>-83200</v>
       </c>
       <c r="E102" s="3">
-        <v>189100</v>
+        <v>-201600</v>
       </c>
       <c r="F102" s="3">
-        <v>315300</v>
+        <v>193100</v>
       </c>
       <c r="G102" s="3">
-        <v>666600</v>
+        <v>321900</v>
       </c>
       <c r="H102" s="3">
-        <v>122000</v>
+        <v>680700</v>
       </c>
       <c r="I102" s="3">
-        <v>22300</v>
+        <v>124500</v>
       </c>
       <c r="J102" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9604100</v>
+        <v>9479100</v>
       </c>
       <c r="E8" s="3">
-        <v>13737600</v>
+        <v>13558800</v>
       </c>
       <c r="F8" s="3">
-        <v>14916700</v>
+        <v>14722600</v>
       </c>
       <c r="G8" s="3">
-        <v>12358900</v>
+        <v>12198000</v>
       </c>
       <c r="H8" s="3">
-        <v>10286700</v>
+        <v>10152900</v>
       </c>
       <c r="I8" s="3">
-        <v>10458500</v>
+        <v>10322400</v>
       </c>
       <c r="J8" s="3">
-        <v>14466000</v>
+        <v>14277800</v>
       </c>
       <c r="K8" s="3">
         <v>16118800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9657200</v>
+        <v>9531500</v>
       </c>
       <c r="E9" s="3">
-        <v>13489900</v>
+        <v>13314300</v>
       </c>
       <c r="F9" s="3">
-        <v>14015800</v>
+        <v>13833400</v>
       </c>
       <c r="G9" s="3">
-        <v>11294900</v>
+        <v>11147900</v>
       </c>
       <c r="H9" s="3">
-        <v>9162700</v>
+        <v>9043500</v>
       </c>
       <c r="I9" s="3">
-        <v>9790700</v>
+        <v>9663300</v>
       </c>
       <c r="J9" s="3">
-        <v>14494900</v>
+        <v>14306300</v>
       </c>
       <c r="K9" s="3">
         <v>15770900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-53100</v>
+        <v>-52400</v>
       </c>
       <c r="E10" s="3">
-        <v>247700</v>
+        <v>244500</v>
       </c>
       <c r="F10" s="3">
-        <v>900900</v>
+        <v>889200</v>
       </c>
       <c r="G10" s="3">
-        <v>1064000</v>
+        <v>1050100</v>
       </c>
       <c r="H10" s="3">
-        <v>1124000</v>
+        <v>1109400</v>
       </c>
       <c r="I10" s="3">
-        <v>667700</v>
+        <v>659000</v>
       </c>
       <c r="J10" s="3">
-        <v>-28900</v>
+        <v>-28500</v>
       </c>
       <c r="K10" s="3">
         <v>347900</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18900</v>
+        <v>-18600</v>
       </c>
       <c r="E14" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
@@ -961,7 +961,7 @@
         <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="3">
         <v>1300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9676800</v>
+        <v>9550900</v>
       </c>
       <c r="E17" s="3">
-        <v>13531600</v>
+        <v>13355500</v>
       </c>
       <c r="F17" s="3">
-        <v>14045300</v>
+        <v>13862600</v>
       </c>
       <c r="G17" s="3">
-        <v>11360100</v>
+        <v>11212300</v>
       </c>
       <c r="H17" s="3">
-        <v>9229300</v>
+        <v>9109200</v>
       </c>
       <c r="I17" s="3">
-        <v>9848600</v>
+        <v>9720500</v>
       </c>
       <c r="J17" s="3">
-        <v>14557700</v>
+        <v>14368300</v>
       </c>
       <c r="K17" s="3">
         <v>15783800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-72700</v>
+        <v>-71800</v>
       </c>
       <c r="E18" s="3">
-        <v>206000</v>
+        <v>203300</v>
       </c>
       <c r="F18" s="3">
-        <v>871300</v>
+        <v>860000</v>
       </c>
       <c r="G18" s="3">
-        <v>998800</v>
+        <v>985800</v>
       </c>
       <c r="H18" s="3">
-        <v>1057400</v>
+        <v>1043700</v>
       </c>
       <c r="I18" s="3">
-        <v>609800</v>
+        <v>601900</v>
       </c>
       <c r="J18" s="3">
-        <v>-91700</v>
+        <v>-90500</v>
       </c>
       <c r="K18" s="3">
         <v>334900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>179500</v>
+        <v>177100</v>
       </c>
       <c r="E20" s="3">
-        <v>216800</v>
+        <v>213900</v>
       </c>
       <c r="F20" s="3">
-        <v>203200</v>
+        <v>200500</v>
       </c>
       <c r="G20" s="3">
-        <v>234900</v>
+        <v>231800</v>
       </c>
       <c r="H20" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="I20" s="3">
-        <v>84300</v>
+        <v>83200</v>
       </c>
       <c r="J20" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3">
         <v>38600</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>356200</v>
+        <v>352200</v>
       </c>
       <c r="E21" s="3">
-        <v>675900</v>
+        <v>667800</v>
       </c>
       <c r="F21" s="3">
-        <v>1318400</v>
+        <v>1301900</v>
       </c>
       <c r="G21" s="3">
-        <v>1481600</v>
+        <v>1463000</v>
       </c>
       <c r="H21" s="3">
-        <v>1477600</v>
+        <v>1459000</v>
       </c>
       <c r="I21" s="3">
-        <v>962500</v>
+        <v>950700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="E22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="3">
         <v>8400</v>
       </c>
-      <c r="F22" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8500</v>
-      </c>
       <c r="H22" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I22" s="3">
-        <v>33100</v>
+        <v>32600</v>
       </c>
       <c r="J22" s="3">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92200</v>
+        <v>91000</v>
       </c>
       <c r="E23" s="3">
-        <v>414400</v>
+        <v>409000</v>
       </c>
       <c r="F23" s="3">
-        <v>1062100</v>
+        <v>1048300</v>
       </c>
       <c r="G23" s="3">
-        <v>1225100</v>
+        <v>1209200</v>
       </c>
       <c r="H23" s="3">
-        <v>1213500</v>
+        <v>1197700</v>
       </c>
       <c r="I23" s="3">
-        <v>661000</v>
+        <v>652400</v>
       </c>
       <c r="J23" s="3">
-        <v>-138800</v>
+        <v>-137000</v>
       </c>
       <c r="K23" s="3">
         <v>373500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="E24" s="3">
-        <v>66900</v>
+        <v>66100</v>
       </c>
       <c r="F24" s="3">
-        <v>229600</v>
+        <v>226600</v>
       </c>
       <c r="G24" s="3">
-        <v>265000</v>
+        <v>261600</v>
       </c>
       <c r="H24" s="3">
-        <v>280300</v>
+        <v>276700</v>
       </c>
       <c r="I24" s="3">
-        <v>144600</v>
+        <v>142700</v>
       </c>
       <c r="J24" s="3">
-        <v>-33400</v>
+        <v>-33000</v>
       </c>
       <c r="K24" s="3">
         <v>57900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102400</v>
+        <v>101100</v>
       </c>
       <c r="E26" s="3">
-        <v>347500</v>
+        <v>342900</v>
       </c>
       <c r="F26" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="G26" s="3">
-        <v>960100</v>
+        <v>947600</v>
       </c>
       <c r="H26" s="3">
-        <v>933200</v>
+        <v>921000</v>
       </c>
       <c r="I26" s="3">
-        <v>516500</v>
+        <v>509700</v>
       </c>
       <c r="J26" s="3">
-        <v>-105400</v>
+        <v>-104100</v>
       </c>
       <c r="K26" s="3">
         <v>315600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="E27" s="3">
-        <v>345700</v>
+        <v>341200</v>
       </c>
       <c r="F27" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="G27" s="3">
-        <v>958400</v>
+        <v>945900</v>
       </c>
       <c r="H27" s="3">
-        <v>931100</v>
+        <v>919000</v>
       </c>
       <c r="I27" s="3">
-        <v>510800</v>
+        <v>504200</v>
       </c>
       <c r="J27" s="3">
-        <v>-108000</v>
+        <v>-106600</v>
       </c>
       <c r="K27" s="3">
         <v>314000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-179500</v>
+        <v>-177100</v>
       </c>
       <c r="E32" s="3">
-        <v>-216800</v>
+        <v>-213900</v>
       </c>
       <c r="F32" s="3">
-        <v>-203200</v>
+        <v>-200500</v>
       </c>
       <c r="G32" s="3">
-        <v>-234900</v>
+        <v>-231800</v>
       </c>
       <c r="H32" s="3">
-        <v>-164400</v>
+        <v>-162300</v>
       </c>
       <c r="I32" s="3">
-        <v>-84300</v>
+        <v>-83200</v>
       </c>
       <c r="J32" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3">
         <v>-38600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="E33" s="3">
-        <v>345700</v>
+        <v>341200</v>
       </c>
       <c r="F33" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="G33" s="3">
-        <v>958400</v>
+        <v>945900</v>
       </c>
       <c r="H33" s="3">
-        <v>931100</v>
+        <v>919000</v>
       </c>
       <c r="I33" s="3">
-        <v>510800</v>
+        <v>504200</v>
       </c>
       <c r="J33" s="3">
-        <v>-108000</v>
+        <v>-106600</v>
       </c>
       <c r="K33" s="3">
         <v>314000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="E35" s="3">
-        <v>345700</v>
+        <v>341200</v>
       </c>
       <c r="F35" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="G35" s="3">
-        <v>958400</v>
+        <v>945900</v>
       </c>
       <c r="H35" s="3">
-        <v>931100</v>
+        <v>919000</v>
       </c>
       <c r="I35" s="3">
-        <v>510800</v>
+        <v>504200</v>
       </c>
       <c r="J35" s="3">
-        <v>-108000</v>
+        <v>-106600</v>
       </c>
       <c r="K35" s="3">
         <v>314000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1078100</v>
+        <v>1064100</v>
       </c>
       <c r="E41" s="3">
-        <v>1151800</v>
+        <v>1136800</v>
       </c>
       <c r="F41" s="3">
-        <v>1360400</v>
+        <v>1342700</v>
       </c>
       <c r="G41" s="3">
-        <v>1166200</v>
+        <v>1151000</v>
       </c>
       <c r="H41" s="3">
-        <v>822400</v>
+        <v>811700</v>
       </c>
       <c r="I41" s="3">
-        <v>167200</v>
+        <v>165100</v>
       </c>
       <c r="J41" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="K41" s="3">
         <v>19300</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>821000</v>
+        <v>810300</v>
       </c>
       <c r="E42" s="3">
-        <v>1004000</v>
+        <v>990900</v>
       </c>
       <c r="F42" s="3">
-        <v>923900</v>
+        <v>911800</v>
       </c>
       <c r="G42" s="3">
-        <v>316600</v>
+        <v>312400</v>
       </c>
       <c r="H42" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190900</v>
+        <v>188400</v>
       </c>
       <c r="E43" s="3">
-        <v>267200</v>
+        <v>263700</v>
       </c>
       <c r="F43" s="3">
-        <v>386000</v>
+        <v>381000</v>
       </c>
       <c r="G43" s="3">
-        <v>551600</v>
+        <v>544500</v>
       </c>
       <c r="H43" s="3">
-        <v>485200</v>
+        <v>478900</v>
       </c>
       <c r="I43" s="3">
-        <v>450600</v>
+        <v>444700</v>
       </c>
       <c r="J43" s="3">
-        <v>514900</v>
+        <v>508200</v>
       </c>
       <c r="K43" s="3">
         <v>811800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>606700</v>
+        <v>598800</v>
       </c>
       <c r="E44" s="3">
-        <v>1053800</v>
+        <v>1040000</v>
       </c>
       <c r="F44" s="3">
-        <v>1266900</v>
+        <v>1250500</v>
       </c>
       <c r="G44" s="3">
-        <v>1029300</v>
+        <v>1015900</v>
       </c>
       <c r="H44" s="3">
-        <v>960900</v>
+        <v>948400</v>
       </c>
       <c r="I44" s="3">
-        <v>651800</v>
+        <v>643400</v>
       </c>
       <c r="J44" s="3">
-        <v>925200</v>
+        <v>913200</v>
       </c>
       <c r="K44" s="3">
         <v>1381000</v>
@@ -1882,19 +1882,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
         <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
-        <v>35600</v>
+        <v>35100</v>
       </c>
       <c r="H45" s="3">
-        <v>25900</v>
+        <v>25500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2699700</v>
+        <v>2664600</v>
       </c>
       <c r="E46" s="3">
-        <v>3480500</v>
+        <v>3435200</v>
       </c>
       <c r="F46" s="3">
-        <v>3946900</v>
+        <v>3895500</v>
       </c>
       <c r="G46" s="3">
-        <v>3099300</v>
+        <v>3059000</v>
       </c>
       <c r="H46" s="3">
-        <v>2320800</v>
+        <v>2290600</v>
       </c>
       <c r="I46" s="3">
-        <v>1270500</v>
+        <v>1254000</v>
       </c>
       <c r="J46" s="3">
-        <v>1483700</v>
+        <v>1464400</v>
       </c>
       <c r="K46" s="3">
         <v>2213200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1940100</v>
+        <v>1914800</v>
       </c>
       <c r="E47" s="3">
-        <v>1361200</v>
+        <v>1343500</v>
       </c>
       <c r="F47" s="3">
-        <v>706300</v>
+        <v>697100</v>
       </c>
       <c r="G47" s="3">
-        <v>694600</v>
+        <v>685500</v>
       </c>
       <c r="H47" s="3">
-        <v>575500</v>
+        <v>568000</v>
       </c>
       <c r="I47" s="3">
-        <v>516600</v>
+        <v>509800</v>
       </c>
       <c r="J47" s="3">
-        <v>458100</v>
+        <v>452100</v>
       </c>
       <c r="K47" s="3">
         <v>457400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2215600</v>
+        <v>2186800</v>
       </c>
       <c r="E48" s="3">
-        <v>2157300</v>
+        <v>2129200</v>
       </c>
       <c r="F48" s="3">
-        <v>2119000</v>
+        <v>2091400</v>
       </c>
       <c r="G48" s="3">
-        <v>2224500</v>
+        <v>2195600</v>
       </c>
       <c r="H48" s="3">
-        <v>2273400</v>
+        <v>2243900</v>
       </c>
       <c r="I48" s="3">
-        <v>2419900</v>
+        <v>2388400</v>
       </c>
       <c r="J48" s="3">
-        <v>2574200</v>
+        <v>2540700</v>
       </c>
       <c r="K48" s="3">
         <v>2682100</v>
@@ -2029,19 +2029,19 @@
         <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
         <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J49" s="3">
         <v>5000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>103300</v>
+        <v>102000</v>
       </c>
       <c r="E52" s="3">
-        <v>95900</v>
+        <v>94600</v>
       </c>
       <c r="F52" s="3">
-        <v>149300</v>
+        <v>147300</v>
       </c>
       <c r="G52" s="3">
-        <v>131500</v>
+        <v>129800</v>
       </c>
       <c r="H52" s="3">
-        <v>122000</v>
+        <v>120400</v>
       </c>
       <c r="I52" s="3">
-        <v>128700</v>
+        <v>127000</v>
       </c>
       <c r="J52" s="3">
-        <v>300500</v>
+        <v>296600</v>
       </c>
       <c r="K52" s="3">
         <v>239300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6961000</v>
+        <v>6870500</v>
       </c>
       <c r="E54" s="3">
-        <v>7097500</v>
+        <v>7005200</v>
       </c>
       <c r="F54" s="3">
-        <v>6924600</v>
+        <v>6834500</v>
       </c>
       <c r="G54" s="3">
-        <v>6153600</v>
+        <v>6073500</v>
       </c>
       <c r="H54" s="3">
-        <v>5295900</v>
+        <v>5226900</v>
       </c>
       <c r="I54" s="3">
-        <v>4340300</v>
+        <v>4283800</v>
       </c>
       <c r="J54" s="3">
-        <v>4821600</v>
+        <v>4758800</v>
       </c>
       <c r="K54" s="3">
         <v>5597400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>206000</v>
+        <v>203300</v>
       </c>
       <c r="E57" s="3">
-        <v>439400</v>
+        <v>433700</v>
       </c>
       <c r="F57" s="3">
-        <v>456000</v>
+        <v>450100</v>
       </c>
       <c r="G57" s="3">
-        <v>297700</v>
+        <v>293900</v>
       </c>
       <c r="H57" s="3">
-        <v>331400</v>
+        <v>327000</v>
       </c>
       <c r="I57" s="3">
-        <v>243700</v>
+        <v>240600</v>
       </c>
       <c r="J57" s="3">
-        <v>547800</v>
+        <v>540700</v>
       </c>
       <c r="K57" s="3">
         <v>418600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>713800</v>
+        <v>704500</v>
       </c>
       <c r="E58" s="3">
-        <v>243200</v>
+        <v>240100</v>
       </c>
       <c r="F58" s="3">
-        <v>77600</v>
+        <v>76600</v>
       </c>
       <c r="G58" s="3">
-        <v>94600</v>
+        <v>93300</v>
       </c>
       <c r="H58" s="3">
-        <v>85200</v>
+        <v>84100</v>
       </c>
       <c r="I58" s="3">
-        <v>322900</v>
+        <v>318700</v>
       </c>
       <c r="J58" s="3">
-        <v>636200</v>
+        <v>628000</v>
       </c>
       <c r="K58" s="3">
         <v>1083800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1456600</v>
+        <v>1437700</v>
       </c>
       <c r="E59" s="3">
-        <v>1732400</v>
+        <v>1709800</v>
       </c>
       <c r="F59" s="3">
-        <v>1637000</v>
+        <v>1615700</v>
       </c>
       <c r="G59" s="3">
-        <v>1311700</v>
+        <v>1294600</v>
       </c>
       <c r="H59" s="3">
-        <v>978500</v>
+        <v>965800</v>
       </c>
       <c r="I59" s="3">
-        <v>638700</v>
+        <v>630400</v>
       </c>
       <c r="J59" s="3">
-        <v>763700</v>
+        <v>753800</v>
       </c>
       <c r="K59" s="3">
         <v>1250300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2376400</v>
+        <v>2345500</v>
       </c>
       <c r="E60" s="3">
-        <v>2415000</v>
+        <v>2383600</v>
       </c>
       <c r="F60" s="3">
-        <v>2170600</v>
+        <v>2142300</v>
       </c>
       <c r="G60" s="3">
-        <v>1704000</v>
+        <v>1681800</v>
       </c>
       <c r="H60" s="3">
-        <v>1395100</v>
+        <v>1376900</v>
       </c>
       <c r="I60" s="3">
-        <v>1205400</v>
+        <v>1189700</v>
       </c>
       <c r="J60" s="3">
-        <v>1947800</v>
+        <v>1922400</v>
       </c>
       <c r="K60" s="3">
         <v>2752700</v>
@@ -2421,7 +2421,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>254700</v>
+        <v>251400</v>
       </c>
       <c r="K61" s="3">
         <v>95900</v>
@@ -2454,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2472,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2405900</v>
+        <v>2374500</v>
       </c>
       <c r="E66" s="3">
-        <v>2438600</v>
+        <v>2406800</v>
       </c>
       <c r="F66" s="3">
-        <v>2190400</v>
+        <v>2161900</v>
       </c>
       <c r="G66" s="3">
-        <v>1749400</v>
+        <v>1726600</v>
       </c>
       <c r="H66" s="3">
-        <v>1439000</v>
+        <v>1420300</v>
       </c>
       <c r="I66" s="3">
-        <v>1251700</v>
+        <v>1235400</v>
       </c>
       <c r="J66" s="3">
-        <v>2247400</v>
+        <v>2218100</v>
       </c>
       <c r="K66" s="3">
         <v>2888200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2849900</v>
+        <v>2812800</v>
       </c>
       <c r="E72" s="3">
-        <v>2953700</v>
+        <v>2915200</v>
       </c>
       <c r="F72" s="3">
-        <v>3029000</v>
+        <v>2989600</v>
       </c>
       <c r="G72" s="3">
-        <v>2707400</v>
+        <v>2672100</v>
       </c>
       <c r="H72" s="3">
-        <v>2172000</v>
+        <v>2143700</v>
       </c>
       <c r="I72" s="3">
-        <v>1403700</v>
+        <v>1385400</v>
       </c>
       <c r="J72" s="3">
-        <v>889300</v>
+        <v>877700</v>
       </c>
       <c r="K72" s="3">
         <v>1059100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4555200</v>
+        <v>4495900</v>
       </c>
       <c r="E76" s="3">
-        <v>4659000</v>
+        <v>4598300</v>
       </c>
       <c r="F76" s="3">
-        <v>4734300</v>
+        <v>4672700</v>
       </c>
       <c r="G76" s="3">
-        <v>4404200</v>
+        <v>4346900</v>
       </c>
       <c r="H76" s="3">
-        <v>3856900</v>
+        <v>3806700</v>
       </c>
       <c r="I76" s="3">
-        <v>3088600</v>
+        <v>3048400</v>
       </c>
       <c r="J76" s="3">
-        <v>2574200</v>
+        <v>2540700</v>
       </c>
       <c r="K76" s="3">
         <v>2709200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="E81" s="3">
-        <v>345700</v>
+        <v>341200</v>
       </c>
       <c r="F81" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="G81" s="3">
-        <v>958400</v>
+        <v>945900</v>
       </c>
       <c r="H81" s="3">
-        <v>931100</v>
+        <v>919000</v>
       </c>
       <c r="I81" s="3">
-        <v>510800</v>
+        <v>504200</v>
       </c>
       <c r="J81" s="3">
-        <v>-108000</v>
+        <v>-106600</v>
       </c>
       <c r="K81" s="3">
         <v>314000</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>249800</v>
+        <v>246500</v>
       </c>
       <c r="E83" s="3">
-        <v>253400</v>
+        <v>250100</v>
       </c>
       <c r="F83" s="3">
-        <v>244200</v>
+        <v>241000</v>
       </c>
       <c r="G83" s="3">
-        <v>248300</v>
+        <v>245000</v>
       </c>
       <c r="H83" s="3">
-        <v>256000</v>
+        <v>252700</v>
       </c>
       <c r="I83" s="3">
-        <v>268700</v>
+        <v>265200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262100</v>
+        <v>258700</v>
       </c>
       <c r="E89" s="3">
-        <v>789100</v>
+        <v>778800</v>
       </c>
       <c r="F89" s="3">
-        <v>1038900</v>
+        <v>1025400</v>
       </c>
       <c r="G89" s="3">
-        <v>1101600</v>
+        <v>1087200</v>
       </c>
       <c r="H89" s="3">
-        <v>1120400</v>
+        <v>1105800</v>
       </c>
       <c r="I89" s="3">
-        <v>769600</v>
+        <v>759600</v>
       </c>
       <c r="J89" s="3">
-        <v>571400</v>
+        <v>563900</v>
       </c>
       <c r="K89" s="3">
         <v>779000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-287200</v>
+        <v>-283500</v>
       </c>
       <c r="E91" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="F91" s="3">
-        <v>-185200</v>
+        <v>-182800</v>
       </c>
       <c r="G91" s="3">
-        <v>-186800</v>
+        <v>-184300</v>
       </c>
       <c r="H91" s="3">
-        <v>-140600</v>
+        <v>-138800</v>
       </c>
       <c r="I91" s="3">
-        <v>-108500</v>
+        <v>-107100</v>
       </c>
       <c r="J91" s="3">
-        <v>-169900</v>
+        <v>-167700</v>
       </c>
       <c r="K91" s="3">
         <v>-202100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-606500</v>
+        <v>-598600</v>
       </c>
       <c r="E94" s="3">
-        <v>-721300</v>
+        <v>-711900</v>
       </c>
       <c r="F94" s="3">
-        <v>-300800</v>
+        <v>-296900</v>
       </c>
       <c r="G94" s="3">
-        <v>-374500</v>
+        <v>-369700</v>
       </c>
       <c r="H94" s="3">
-        <v>-29600</v>
+        <v>-29200</v>
       </c>
       <c r="I94" s="3">
-        <v>-68500</v>
+        <v>-67600</v>
       </c>
       <c r="J94" s="3">
-        <v>-142000</v>
+        <v>-140100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-201800</v>
+        <v>-199200</v>
       </c>
       <c r="E96" s="3">
-        <v>-422000</v>
+        <v>-416500</v>
       </c>
       <c r="F96" s="3">
-        <v>-511000</v>
+        <v>-504400</v>
       </c>
       <c r="G96" s="3">
-        <v>-420800</v>
+        <v>-415300</v>
       </c>
       <c r="H96" s="3">
-        <v>-169200</v>
+        <v>-167000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-84700</v>
+        <v>-83600</v>
       </c>
       <c r="K96" s="3">
         <v>-55100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="E100" s="3">
-        <v>-271000</v>
+        <v>-267500</v>
       </c>
       <c r="F100" s="3">
-        <v>-547200</v>
+        <v>-540000</v>
       </c>
       <c r="G100" s="3">
-        <v>-404000</v>
+        <v>-398800</v>
       </c>
       <c r="H100" s="3">
-        <v>-411400</v>
+        <v>-406100</v>
       </c>
       <c r="I100" s="3">
-        <v>-576600</v>
+        <v>-569100</v>
       </c>
       <c r="J100" s="3">
-        <v>-406600</v>
+        <v>-401300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
         <v>2100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-83200</v>
+        <v>-82100</v>
       </c>
       <c r="E102" s="3">
-        <v>-201600</v>
+        <v>-199000</v>
       </c>
       <c r="F102" s="3">
-        <v>193100</v>
+        <v>190600</v>
       </c>
       <c r="G102" s="3">
-        <v>321900</v>
+        <v>317800</v>
       </c>
       <c r="H102" s="3">
-        <v>680700</v>
+        <v>671800</v>
       </c>
       <c r="I102" s="3">
-        <v>124500</v>
+        <v>122900</v>
       </c>
       <c r="J102" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="K102" s="3">
         <v>-4200</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9479100</v>
+        <v>9638000</v>
       </c>
       <c r="E8" s="3">
-        <v>13558800</v>
+        <v>13786000</v>
       </c>
       <c r="F8" s="3">
-        <v>14722600</v>
+        <v>14969200</v>
       </c>
       <c r="G8" s="3">
-        <v>12198000</v>
+        <v>12402400</v>
       </c>
       <c r="H8" s="3">
-        <v>10152900</v>
+        <v>10323000</v>
       </c>
       <c r="I8" s="3">
-        <v>10322400</v>
+        <v>10495300</v>
       </c>
       <c r="J8" s="3">
-        <v>14277800</v>
+        <v>14517000</v>
       </c>
       <c r="K8" s="3">
         <v>16118800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9531500</v>
+        <v>9691200</v>
       </c>
       <c r="E9" s="3">
-        <v>13314300</v>
+        <v>13537400</v>
       </c>
       <c r="F9" s="3">
-        <v>13833400</v>
+        <v>14065200</v>
       </c>
       <c r="G9" s="3">
-        <v>11147900</v>
+        <v>11334700</v>
       </c>
       <c r="H9" s="3">
-        <v>9043500</v>
+        <v>9195000</v>
       </c>
       <c r="I9" s="3">
-        <v>9663300</v>
+        <v>9825300</v>
       </c>
       <c r="J9" s="3">
-        <v>14306300</v>
+        <v>14546000</v>
       </c>
       <c r="K9" s="3">
         <v>15770900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-52400</v>
+        <v>-53300</v>
       </c>
       <c r="E10" s="3">
-        <v>244500</v>
+        <v>248600</v>
       </c>
       <c r="F10" s="3">
-        <v>889200</v>
+        <v>904100</v>
       </c>
       <c r="G10" s="3">
-        <v>1050100</v>
+        <v>1067700</v>
       </c>
       <c r="H10" s="3">
-        <v>1109400</v>
+        <v>1128000</v>
       </c>
       <c r="I10" s="3">
-        <v>659000</v>
+        <v>670100</v>
       </c>
       <c r="J10" s="3">
-        <v>-28500</v>
+        <v>-29000</v>
       </c>
       <c r="K10" s="3">
         <v>347900</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="E14" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
@@ -961,7 +961,7 @@
         <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H15" s="3">
         <v>1300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9550900</v>
+        <v>9711000</v>
       </c>
       <c r="E17" s="3">
-        <v>13355500</v>
+        <v>13579300</v>
       </c>
       <c r="F17" s="3">
-        <v>13862600</v>
+        <v>14094800</v>
       </c>
       <c r="G17" s="3">
-        <v>11212300</v>
+        <v>11400100</v>
       </c>
       <c r="H17" s="3">
-        <v>9109200</v>
+        <v>9261900</v>
       </c>
       <c r="I17" s="3">
-        <v>9720500</v>
+        <v>9883400</v>
       </c>
       <c r="J17" s="3">
-        <v>14368300</v>
+        <v>14609100</v>
       </c>
       <c r="K17" s="3">
         <v>15783800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-71800</v>
+        <v>-73000</v>
       </c>
       <c r="E18" s="3">
-        <v>203300</v>
+        <v>206700</v>
       </c>
       <c r="F18" s="3">
-        <v>860000</v>
+        <v>874400</v>
       </c>
       <c r="G18" s="3">
-        <v>985800</v>
+        <v>1002300</v>
       </c>
       <c r="H18" s="3">
-        <v>1043700</v>
+        <v>1061100</v>
       </c>
       <c r="I18" s="3">
-        <v>601900</v>
+        <v>612000</v>
       </c>
       <c r="J18" s="3">
-        <v>-90500</v>
+        <v>-92000</v>
       </c>
       <c r="K18" s="3">
         <v>334900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>177100</v>
+        <v>180100</v>
       </c>
       <c r="E20" s="3">
-        <v>213900</v>
+        <v>217500</v>
       </c>
       <c r="F20" s="3">
-        <v>200500</v>
+        <v>203900</v>
       </c>
       <c r="G20" s="3">
-        <v>231800</v>
+        <v>235700</v>
       </c>
       <c r="H20" s="3">
-        <v>162300</v>
+        <v>165000</v>
       </c>
       <c r="I20" s="3">
-        <v>83200</v>
+        <v>84600</v>
       </c>
       <c r="J20" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K20" s="3">
         <v>38600</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>352200</v>
+        <v>357600</v>
       </c>
       <c r="E21" s="3">
-        <v>667800</v>
+        <v>678400</v>
       </c>
       <c r="F21" s="3">
-        <v>1301900</v>
+        <v>1323200</v>
       </c>
       <c r="G21" s="3">
-        <v>1463000</v>
+        <v>1486900</v>
       </c>
       <c r="H21" s="3">
-        <v>1459000</v>
+        <v>1482900</v>
       </c>
       <c r="I21" s="3">
-        <v>950700</v>
+        <v>966000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="G22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
-        <v>8300</v>
-      </c>
       <c r="I22" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="J22" s="3">
-        <v>57700</v>
+        <v>58600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>91000</v>
+        <v>92500</v>
       </c>
       <c r="E23" s="3">
-        <v>409000</v>
+        <v>415800</v>
       </c>
       <c r="F23" s="3">
-        <v>1048300</v>
+        <v>1065900</v>
       </c>
       <c r="G23" s="3">
-        <v>1209200</v>
+        <v>1229400</v>
       </c>
       <c r="H23" s="3">
-        <v>1197700</v>
+        <v>1217800</v>
       </c>
       <c r="I23" s="3">
-        <v>652400</v>
+        <v>663400</v>
       </c>
       <c r="J23" s="3">
-        <v>-137000</v>
+        <v>-139300</v>
       </c>
       <c r="K23" s="3">
         <v>373500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="E24" s="3">
-        <v>66100</v>
+        <v>67200</v>
       </c>
       <c r="F24" s="3">
-        <v>226600</v>
+        <v>230400</v>
       </c>
       <c r="G24" s="3">
-        <v>261600</v>
+        <v>266000</v>
       </c>
       <c r="H24" s="3">
-        <v>276700</v>
+        <v>281300</v>
       </c>
       <c r="I24" s="3">
-        <v>142700</v>
+        <v>145100</v>
       </c>
       <c r="J24" s="3">
-        <v>-33000</v>
+        <v>-33500</v>
       </c>
       <c r="K24" s="3">
         <v>57900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>101100</v>
+        <v>102800</v>
       </c>
       <c r="E26" s="3">
-        <v>342900</v>
+        <v>348700</v>
       </c>
       <c r="F26" s="3">
-        <v>821700</v>
+        <v>835400</v>
       </c>
       <c r="G26" s="3">
-        <v>947600</v>
+        <v>963500</v>
       </c>
       <c r="H26" s="3">
-        <v>921000</v>
+        <v>936500</v>
       </c>
       <c r="I26" s="3">
-        <v>509700</v>
+        <v>518300</v>
       </c>
       <c r="J26" s="3">
-        <v>-104100</v>
+        <v>-105800</v>
       </c>
       <c r="K26" s="3">
         <v>315600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>99300</v>
+        <v>101000</v>
       </c>
       <c r="E27" s="3">
-        <v>341200</v>
+        <v>346900</v>
       </c>
       <c r="F27" s="3">
-        <v>821700</v>
+        <v>835500</v>
       </c>
       <c r="G27" s="3">
-        <v>945900</v>
+        <v>961800</v>
       </c>
       <c r="H27" s="3">
-        <v>919000</v>
+        <v>934400</v>
       </c>
       <c r="I27" s="3">
-        <v>504200</v>
+        <v>512600</v>
       </c>
       <c r="J27" s="3">
-        <v>-106600</v>
+        <v>-108400</v>
       </c>
       <c r="K27" s="3">
         <v>314000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-177100</v>
+        <v>-180100</v>
       </c>
       <c r="E32" s="3">
-        <v>-213900</v>
+        <v>-217500</v>
       </c>
       <c r="F32" s="3">
-        <v>-200500</v>
+        <v>-203900</v>
       </c>
       <c r="G32" s="3">
-        <v>-231800</v>
+        <v>-235700</v>
       </c>
       <c r="H32" s="3">
-        <v>-162300</v>
+        <v>-165000</v>
       </c>
       <c r="I32" s="3">
-        <v>-83200</v>
+        <v>-84600</v>
       </c>
       <c r="J32" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="K32" s="3">
         <v>-38600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>99300</v>
+        <v>101000</v>
       </c>
       <c r="E33" s="3">
-        <v>341200</v>
+        <v>346900</v>
       </c>
       <c r="F33" s="3">
-        <v>821700</v>
+        <v>835500</v>
       </c>
       <c r="G33" s="3">
-        <v>945900</v>
+        <v>961800</v>
       </c>
       <c r="H33" s="3">
-        <v>919000</v>
+        <v>934400</v>
       </c>
       <c r="I33" s="3">
-        <v>504200</v>
+        <v>512600</v>
       </c>
       <c r="J33" s="3">
-        <v>-106600</v>
+        <v>-108400</v>
       </c>
       <c r="K33" s="3">
         <v>314000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>99300</v>
+        <v>101000</v>
       </c>
       <c r="E35" s="3">
-        <v>341200</v>
+        <v>346900</v>
       </c>
       <c r="F35" s="3">
-        <v>821700</v>
+        <v>835500</v>
       </c>
       <c r="G35" s="3">
-        <v>945900</v>
+        <v>961800</v>
       </c>
       <c r="H35" s="3">
-        <v>919000</v>
+        <v>934400</v>
       </c>
       <c r="I35" s="3">
-        <v>504200</v>
+        <v>512600</v>
       </c>
       <c r="J35" s="3">
-        <v>-106600</v>
+        <v>-108400</v>
       </c>
       <c r="K35" s="3">
         <v>314000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1064100</v>
+        <v>1081900</v>
       </c>
       <c r="E41" s="3">
-        <v>1136800</v>
+        <v>1155800</v>
       </c>
       <c r="F41" s="3">
-        <v>1342700</v>
+        <v>1365200</v>
       </c>
       <c r="G41" s="3">
-        <v>1151000</v>
+        <v>1170300</v>
       </c>
       <c r="H41" s="3">
-        <v>811700</v>
+        <v>825300</v>
       </c>
       <c r="I41" s="3">
-        <v>165100</v>
+        <v>167800</v>
       </c>
       <c r="J41" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="K41" s="3">
         <v>19300</v>
@@ -1774,19 +1774,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>810300</v>
+        <v>823900</v>
       </c>
       <c r="E42" s="3">
-        <v>990900</v>
+        <v>1007500</v>
       </c>
       <c r="F42" s="3">
-        <v>911800</v>
+        <v>927100</v>
       </c>
       <c r="G42" s="3">
-        <v>312400</v>
+        <v>317700</v>
       </c>
       <c r="H42" s="3">
-        <v>26100</v>
+        <v>26500</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188400</v>
+        <v>191600</v>
       </c>
       <c r="E43" s="3">
-        <v>263700</v>
+        <v>268200</v>
       </c>
       <c r="F43" s="3">
-        <v>381000</v>
+        <v>387300</v>
       </c>
       <c r="G43" s="3">
-        <v>544500</v>
+        <v>553600</v>
       </c>
       <c r="H43" s="3">
-        <v>478900</v>
+        <v>486900</v>
       </c>
       <c r="I43" s="3">
-        <v>444700</v>
+        <v>452200</v>
       </c>
       <c r="J43" s="3">
-        <v>508200</v>
+        <v>516700</v>
       </c>
       <c r="K43" s="3">
         <v>811800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>598800</v>
+        <v>608800</v>
       </c>
       <c r="E44" s="3">
-        <v>1040000</v>
+        <v>1057500</v>
       </c>
       <c r="F44" s="3">
-        <v>1250500</v>
+        <v>1271400</v>
       </c>
       <c r="G44" s="3">
-        <v>1015900</v>
+        <v>1032900</v>
       </c>
       <c r="H44" s="3">
-        <v>948400</v>
+        <v>964300</v>
       </c>
       <c r="I44" s="3">
-        <v>643400</v>
+        <v>654100</v>
       </c>
       <c r="J44" s="3">
-        <v>913200</v>
+        <v>928500</v>
       </c>
       <c r="K44" s="3">
         <v>1381000</v>
@@ -1882,19 +1882,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
         <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>35100</v>
+        <v>35700</v>
       </c>
       <c r="H45" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2664600</v>
+        <v>2709200</v>
       </c>
       <c r="E46" s="3">
-        <v>3435200</v>
+        <v>3492700</v>
       </c>
       <c r="F46" s="3">
-        <v>3895500</v>
+        <v>3960800</v>
       </c>
       <c r="G46" s="3">
-        <v>3059000</v>
+        <v>3110200</v>
       </c>
       <c r="H46" s="3">
-        <v>2290600</v>
+        <v>2329000</v>
       </c>
       <c r="I46" s="3">
-        <v>1254000</v>
+        <v>1275000</v>
       </c>
       <c r="J46" s="3">
-        <v>1464400</v>
+        <v>1489000</v>
       </c>
       <c r="K46" s="3">
         <v>2213200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1914800</v>
+        <v>1946900</v>
       </c>
       <c r="E47" s="3">
-        <v>1343500</v>
+        <v>1366000</v>
       </c>
       <c r="F47" s="3">
-        <v>697100</v>
+        <v>708800</v>
       </c>
       <c r="G47" s="3">
-        <v>685500</v>
+        <v>697000</v>
       </c>
       <c r="H47" s="3">
-        <v>568000</v>
+        <v>577500</v>
       </c>
       <c r="I47" s="3">
-        <v>509800</v>
+        <v>518400</v>
       </c>
       <c r="J47" s="3">
-        <v>452100</v>
+        <v>459700</v>
       </c>
       <c r="K47" s="3">
         <v>457400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2186800</v>
+        <v>2223400</v>
       </c>
       <c r="E48" s="3">
-        <v>2129200</v>
+        <v>2164900</v>
       </c>
       <c r="F48" s="3">
-        <v>2091400</v>
+        <v>2126500</v>
       </c>
       <c r="G48" s="3">
-        <v>2195600</v>
+        <v>2232400</v>
       </c>
       <c r="H48" s="3">
-        <v>2243900</v>
+        <v>2281500</v>
       </c>
       <c r="I48" s="3">
-        <v>2388400</v>
+        <v>2428500</v>
       </c>
       <c r="J48" s="3">
-        <v>2540700</v>
+        <v>2583300</v>
       </c>
       <c r="K48" s="3">
         <v>2682100</v>
@@ -2029,19 +2029,19 @@
         <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
         <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J49" s="3">
         <v>5000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>102000</v>
+        <v>103700</v>
       </c>
       <c r="E52" s="3">
-        <v>94600</v>
+        <v>96200</v>
       </c>
       <c r="F52" s="3">
-        <v>147300</v>
+        <v>149800</v>
       </c>
       <c r="G52" s="3">
-        <v>129800</v>
+        <v>132000</v>
       </c>
       <c r="H52" s="3">
-        <v>120400</v>
+        <v>122500</v>
       </c>
       <c r="I52" s="3">
-        <v>127000</v>
+        <v>129100</v>
       </c>
       <c r="J52" s="3">
-        <v>296600</v>
+        <v>301600</v>
       </c>
       <c r="K52" s="3">
         <v>239300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6870500</v>
+        <v>6985600</v>
       </c>
       <c r="E54" s="3">
-        <v>7005200</v>
+        <v>7122600</v>
       </c>
       <c r="F54" s="3">
-        <v>6834500</v>
+        <v>6949100</v>
       </c>
       <c r="G54" s="3">
-        <v>6073500</v>
+        <v>6175300</v>
       </c>
       <c r="H54" s="3">
-        <v>5226900</v>
+        <v>5314500</v>
       </c>
       <c r="I54" s="3">
-        <v>4283800</v>
+        <v>4355600</v>
       </c>
       <c r="J54" s="3">
-        <v>4758800</v>
+        <v>4838600</v>
       </c>
       <c r="K54" s="3">
         <v>5597400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>203300</v>
+        <v>206700</v>
       </c>
       <c r="E57" s="3">
-        <v>433700</v>
+        <v>440900</v>
       </c>
       <c r="F57" s="3">
-        <v>450100</v>
+        <v>457600</v>
       </c>
       <c r="G57" s="3">
-        <v>293900</v>
+        <v>298800</v>
       </c>
       <c r="H57" s="3">
-        <v>327000</v>
+        <v>332500</v>
       </c>
       <c r="I57" s="3">
-        <v>240600</v>
+        <v>244600</v>
       </c>
       <c r="J57" s="3">
-        <v>540700</v>
+        <v>549800</v>
       </c>
       <c r="K57" s="3">
         <v>418600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>704500</v>
+        <v>716300</v>
       </c>
       <c r="E58" s="3">
-        <v>240100</v>
+        <v>244100</v>
       </c>
       <c r="F58" s="3">
-        <v>76600</v>
+        <v>77800</v>
       </c>
       <c r="G58" s="3">
-        <v>93300</v>
+        <v>94900</v>
       </c>
       <c r="H58" s="3">
-        <v>84100</v>
+        <v>85500</v>
       </c>
       <c r="I58" s="3">
-        <v>318700</v>
+        <v>324100</v>
       </c>
       <c r="J58" s="3">
-        <v>628000</v>
+        <v>638500</v>
       </c>
       <c r="K58" s="3">
         <v>1083800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1437700</v>
+        <v>1461800</v>
       </c>
       <c r="E59" s="3">
-        <v>1709800</v>
+        <v>1738500</v>
       </c>
       <c r="F59" s="3">
-        <v>1615700</v>
+        <v>1642700</v>
       </c>
       <c r="G59" s="3">
-        <v>1294600</v>
+        <v>1316300</v>
       </c>
       <c r="H59" s="3">
-        <v>965800</v>
+        <v>982000</v>
       </c>
       <c r="I59" s="3">
-        <v>630400</v>
+        <v>641000</v>
       </c>
       <c r="J59" s="3">
-        <v>753800</v>
+        <v>766400</v>
       </c>
       <c r="K59" s="3">
         <v>1250300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2345500</v>
+        <v>2384800</v>
       </c>
       <c r="E60" s="3">
-        <v>2383600</v>
+        <v>2423500</v>
       </c>
       <c r="F60" s="3">
-        <v>2142300</v>
+        <v>2178200</v>
       </c>
       <c r="G60" s="3">
-        <v>1681800</v>
+        <v>1710000</v>
       </c>
       <c r="H60" s="3">
-        <v>1376900</v>
+        <v>1400000</v>
       </c>
       <c r="I60" s="3">
-        <v>1189700</v>
+        <v>1209600</v>
       </c>
       <c r="J60" s="3">
-        <v>1922400</v>
+        <v>1954600</v>
       </c>
       <c r="K60" s="3">
         <v>2752700</v>
@@ -2421,7 +2421,7 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>251400</v>
+        <v>255600</v>
       </c>
       <c r="K61" s="3">
         <v>95900</v>
@@ -2454,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2472,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="J62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2374500</v>
+        <v>2414300</v>
       </c>
       <c r="E66" s="3">
-        <v>2406800</v>
+        <v>2447200</v>
       </c>
       <c r="F66" s="3">
-        <v>2161900</v>
+        <v>2198100</v>
       </c>
       <c r="G66" s="3">
-        <v>1726600</v>
+        <v>1755500</v>
       </c>
       <c r="H66" s="3">
-        <v>1420300</v>
+        <v>1444100</v>
       </c>
       <c r="I66" s="3">
-        <v>1235400</v>
+        <v>1256100</v>
       </c>
       <c r="J66" s="3">
-        <v>2218100</v>
+        <v>2255300</v>
       </c>
       <c r="K66" s="3">
         <v>2888200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2812800</v>
+        <v>2859900</v>
       </c>
       <c r="E72" s="3">
-        <v>2915200</v>
+        <v>2964100</v>
       </c>
       <c r="F72" s="3">
-        <v>2989600</v>
+        <v>3039700</v>
       </c>
       <c r="G72" s="3">
-        <v>2672100</v>
+        <v>2716900</v>
       </c>
       <c r="H72" s="3">
-        <v>2143700</v>
+        <v>2179600</v>
       </c>
       <c r="I72" s="3">
-        <v>1385400</v>
+        <v>1408600</v>
       </c>
       <c r="J72" s="3">
-        <v>877700</v>
+        <v>892400</v>
       </c>
       <c r="K72" s="3">
         <v>1059100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4495900</v>
+        <v>4571200</v>
       </c>
       <c r="E76" s="3">
-        <v>4598300</v>
+        <v>4675400</v>
       </c>
       <c r="F76" s="3">
-        <v>4672700</v>
+        <v>4751000</v>
       </c>
       <c r="G76" s="3">
-        <v>4346900</v>
+        <v>4419700</v>
       </c>
       <c r="H76" s="3">
-        <v>3806700</v>
+        <v>3870500</v>
       </c>
       <c r="I76" s="3">
-        <v>3048400</v>
+        <v>3099500</v>
       </c>
       <c r="J76" s="3">
-        <v>2540700</v>
+        <v>2583300</v>
       </c>
       <c r="K76" s="3">
         <v>2709200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>99300</v>
+        <v>101000</v>
       </c>
       <c r="E81" s="3">
-        <v>341200</v>
+        <v>346900</v>
       </c>
       <c r="F81" s="3">
-        <v>821700</v>
+        <v>835500</v>
       </c>
       <c r="G81" s="3">
-        <v>945900</v>
+        <v>961800</v>
       </c>
       <c r="H81" s="3">
-        <v>919000</v>
+        <v>934400</v>
       </c>
       <c r="I81" s="3">
-        <v>504200</v>
+        <v>512600</v>
       </c>
       <c r="J81" s="3">
-        <v>-106600</v>
+        <v>-108400</v>
       </c>
       <c r="K81" s="3">
         <v>314000</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>246500</v>
+        <v>250600</v>
       </c>
       <c r="E83" s="3">
-        <v>250100</v>
+        <v>254300</v>
       </c>
       <c r="F83" s="3">
-        <v>241000</v>
+        <v>245100</v>
       </c>
       <c r="G83" s="3">
-        <v>245000</v>
+        <v>249200</v>
       </c>
       <c r="H83" s="3">
-        <v>252700</v>
+        <v>256900</v>
       </c>
       <c r="I83" s="3">
-        <v>265200</v>
+        <v>269600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>258700</v>
+        <v>263000</v>
       </c>
       <c r="E89" s="3">
-        <v>778800</v>
+        <v>791800</v>
       </c>
       <c r="F89" s="3">
-        <v>1025400</v>
+        <v>1042600</v>
       </c>
       <c r="G89" s="3">
-        <v>1087200</v>
+        <v>1105400</v>
       </c>
       <c r="H89" s="3">
-        <v>1105800</v>
+        <v>1124400</v>
       </c>
       <c r="I89" s="3">
-        <v>759600</v>
+        <v>772300</v>
       </c>
       <c r="J89" s="3">
-        <v>563900</v>
+        <v>573400</v>
       </c>
       <c r="K89" s="3">
         <v>779000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-283500</v>
+        <v>-288200</v>
       </c>
       <c r="E91" s="3">
-        <v>-220300</v>
+        <v>-223900</v>
       </c>
       <c r="F91" s="3">
-        <v>-182800</v>
+        <v>-185800</v>
       </c>
       <c r="G91" s="3">
-        <v>-184300</v>
+        <v>-187400</v>
       </c>
       <c r="H91" s="3">
-        <v>-138800</v>
+        <v>-141100</v>
       </c>
       <c r="I91" s="3">
-        <v>-107100</v>
+        <v>-108900</v>
       </c>
       <c r="J91" s="3">
-        <v>-167700</v>
+        <v>-170500</v>
       </c>
       <c r="K91" s="3">
         <v>-202100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-598600</v>
+        <v>-608600</v>
       </c>
       <c r="E94" s="3">
-        <v>-711900</v>
+        <v>-723800</v>
       </c>
       <c r="F94" s="3">
-        <v>-296900</v>
+        <v>-301900</v>
       </c>
       <c r="G94" s="3">
-        <v>-369700</v>
+        <v>-375900</v>
       </c>
       <c r="H94" s="3">
-        <v>-29200</v>
+        <v>-29700</v>
       </c>
       <c r="I94" s="3">
-        <v>-67600</v>
+        <v>-68700</v>
       </c>
       <c r="J94" s="3">
-        <v>-140100</v>
+        <v>-142500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199200</v>
+        <v>-202500</v>
       </c>
       <c r="E96" s="3">
-        <v>-416500</v>
+        <v>-423500</v>
       </c>
       <c r="F96" s="3">
-        <v>-504400</v>
+        <v>-512800</v>
       </c>
       <c r="G96" s="3">
-        <v>-415300</v>
+        <v>-422300</v>
       </c>
       <c r="H96" s="3">
-        <v>-167000</v>
+        <v>-169800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-83600</v>
+        <v>-85000</v>
       </c>
       <c r="K96" s="3">
         <v>-55100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>259000</v>
+        <v>263300</v>
       </c>
       <c r="E100" s="3">
-        <v>-267500</v>
+        <v>-272000</v>
       </c>
       <c r="F100" s="3">
-        <v>-540000</v>
+        <v>-549100</v>
       </c>
       <c r="G100" s="3">
-        <v>-398800</v>
+        <v>-405500</v>
       </c>
       <c r="H100" s="3">
-        <v>-406100</v>
+        <v>-412900</v>
       </c>
       <c r="I100" s="3">
-        <v>-569100</v>
+        <v>-578600</v>
       </c>
       <c r="J100" s="3">
-        <v>-401300</v>
+        <v>-408100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
         <v>-1000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-82100</v>
+        <v>-83500</v>
       </c>
       <c r="E102" s="3">
-        <v>-199000</v>
+        <v>-202300</v>
       </c>
       <c r="F102" s="3">
-        <v>190600</v>
+        <v>193800</v>
       </c>
       <c r="G102" s="3">
-        <v>317800</v>
+        <v>323100</v>
       </c>
       <c r="H102" s="3">
-        <v>671800</v>
+        <v>683100</v>
       </c>
       <c r="I102" s="3">
-        <v>122900</v>
+        <v>125000</v>
       </c>
       <c r="J102" s="3">
-        <v>22500</v>
+        <v>22800</v>
       </c>
       <c r="K102" s="3">
         <v>-4200</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9638000</v>
+        <v>9711800</v>
       </c>
       <c r="E8" s="3">
-        <v>13786000</v>
+        <v>13891700</v>
       </c>
       <c r="F8" s="3">
-        <v>14969200</v>
+        <v>15084000</v>
       </c>
       <c r="G8" s="3">
-        <v>12402400</v>
+        <v>12497500</v>
       </c>
       <c r="H8" s="3">
-        <v>10323000</v>
+        <v>10402100</v>
       </c>
       <c r="I8" s="3">
-        <v>10495300</v>
+        <v>10575800</v>
       </c>
       <c r="J8" s="3">
-        <v>14517000</v>
+        <v>14628300</v>
       </c>
       <c r="K8" s="3">
         <v>16118800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9691200</v>
+        <v>9765500</v>
       </c>
       <c r="E9" s="3">
-        <v>13537400</v>
+        <v>13641200</v>
       </c>
       <c r="F9" s="3">
-        <v>14065200</v>
+        <v>14173000</v>
       </c>
       <c r="G9" s="3">
-        <v>11334700</v>
+        <v>11421600</v>
       </c>
       <c r="H9" s="3">
-        <v>9195000</v>
+        <v>9265500</v>
       </c>
       <c r="I9" s="3">
-        <v>9825300</v>
+        <v>9900600</v>
       </c>
       <c r="J9" s="3">
-        <v>14546000</v>
+        <v>14657500</v>
       </c>
       <c r="K9" s="3">
         <v>15770900</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-53300</v>
+        <v>-53700</v>
       </c>
       <c r="E10" s="3">
-        <v>248600</v>
+        <v>250500</v>
       </c>
       <c r="F10" s="3">
-        <v>904100</v>
+        <v>911000</v>
       </c>
       <c r="G10" s="3">
-        <v>1067700</v>
+        <v>1075900</v>
       </c>
       <c r="H10" s="3">
-        <v>1128000</v>
+        <v>1136600</v>
       </c>
       <c r="I10" s="3">
-        <v>670100</v>
+        <v>675200</v>
       </c>
       <c r="J10" s="3">
-        <v>-29000</v>
+        <v>-29200</v>
       </c>
       <c r="K10" s="3">
         <v>347900</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="E14" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="3">
         <v>-200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9711000</v>
+        <v>9785400</v>
       </c>
       <c r="E17" s="3">
-        <v>13579300</v>
+        <v>13683300</v>
       </c>
       <c r="F17" s="3">
-        <v>14094800</v>
+        <v>14202900</v>
       </c>
       <c r="G17" s="3">
-        <v>11400100</v>
+        <v>11487500</v>
       </c>
       <c r="H17" s="3">
-        <v>9261900</v>
+        <v>9332900</v>
       </c>
       <c r="I17" s="3">
-        <v>9883400</v>
+        <v>9959100</v>
       </c>
       <c r="J17" s="3">
-        <v>14609100</v>
+        <v>14721000</v>
       </c>
       <c r="K17" s="3">
         <v>15783800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-73000</v>
+        <v>-73600</v>
       </c>
       <c r="E18" s="3">
-        <v>206700</v>
+        <v>208300</v>
       </c>
       <c r="F18" s="3">
-        <v>874400</v>
+        <v>881100</v>
       </c>
       <c r="G18" s="3">
-        <v>1002300</v>
+        <v>1010000</v>
       </c>
       <c r="H18" s="3">
-        <v>1061100</v>
+        <v>1069300</v>
       </c>
       <c r="I18" s="3">
-        <v>612000</v>
+        <v>616700</v>
       </c>
       <c r="J18" s="3">
-        <v>-92000</v>
+        <v>-92700</v>
       </c>
       <c r="K18" s="3">
         <v>334900</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>180100</v>
+        <v>181500</v>
       </c>
       <c r="E20" s="3">
-        <v>217500</v>
+        <v>219200</v>
       </c>
       <c r="F20" s="3">
-        <v>203900</v>
+        <v>205400</v>
       </c>
       <c r="G20" s="3">
-        <v>235700</v>
+        <v>237500</v>
       </c>
       <c r="H20" s="3">
-        <v>165000</v>
+        <v>166300</v>
       </c>
       <c r="I20" s="3">
-        <v>84600</v>
+        <v>85200</v>
       </c>
       <c r="J20" s="3">
         <v>11400</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>357600</v>
+        <v>361300</v>
       </c>
       <c r="E21" s="3">
-        <v>678400</v>
+        <v>684700</v>
       </c>
       <c r="F21" s="3">
-        <v>1323200</v>
+        <v>1334300</v>
       </c>
       <c r="G21" s="3">
-        <v>1486900</v>
+        <v>1499400</v>
       </c>
       <c r="H21" s="3">
-        <v>1482900</v>
+        <v>1495300</v>
       </c>
       <c r="I21" s="3">
-        <v>966000</v>
+        <v>974500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="E22" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F22" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="G22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H22" s="3">
         <v>8500</v>
       </c>
-      <c r="H22" s="3">
-        <v>8400</v>
-      </c>
       <c r="I22" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="J22" s="3">
-        <v>58600</v>
+        <v>59100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="E23" s="3">
-        <v>415800</v>
+        <v>419000</v>
       </c>
       <c r="F23" s="3">
-        <v>1065900</v>
+        <v>1074000</v>
       </c>
       <c r="G23" s="3">
-        <v>1229400</v>
+        <v>1238900</v>
       </c>
       <c r="H23" s="3">
-        <v>1217800</v>
+        <v>1227100</v>
       </c>
       <c r="I23" s="3">
-        <v>663400</v>
+        <v>668500</v>
       </c>
       <c r="J23" s="3">
-        <v>-139300</v>
+        <v>-140400</v>
       </c>
       <c r="K23" s="3">
         <v>373500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="E24" s="3">
-        <v>67200</v>
+        <v>67700</v>
       </c>
       <c r="F24" s="3">
-        <v>230400</v>
+        <v>232200</v>
       </c>
       <c r="G24" s="3">
-        <v>266000</v>
+        <v>268000</v>
       </c>
       <c r="H24" s="3">
-        <v>281300</v>
+        <v>283500</v>
       </c>
       <c r="I24" s="3">
-        <v>145100</v>
+        <v>146200</v>
       </c>
       <c r="J24" s="3">
-        <v>-33500</v>
+        <v>-33800</v>
       </c>
       <c r="K24" s="3">
         <v>57900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102800</v>
+        <v>103600</v>
       </c>
       <c r="E26" s="3">
-        <v>348700</v>
+        <v>351400</v>
       </c>
       <c r="F26" s="3">
-        <v>835400</v>
+        <v>841800</v>
       </c>
       <c r="G26" s="3">
-        <v>963500</v>
+        <v>970900</v>
       </c>
       <c r="H26" s="3">
-        <v>936500</v>
+        <v>943600</v>
       </c>
       <c r="I26" s="3">
-        <v>518300</v>
+        <v>522300</v>
       </c>
       <c r="J26" s="3">
-        <v>-105800</v>
+        <v>-106600</v>
       </c>
       <c r="K26" s="3">
         <v>315600</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="E27" s="3">
-        <v>346900</v>
+        <v>349600</v>
       </c>
       <c r="F27" s="3">
-        <v>835500</v>
+        <v>841900</v>
       </c>
       <c r="G27" s="3">
-        <v>961800</v>
+        <v>969200</v>
       </c>
       <c r="H27" s="3">
-        <v>934400</v>
+        <v>941600</v>
       </c>
       <c r="I27" s="3">
-        <v>512600</v>
+        <v>516600</v>
       </c>
       <c r="J27" s="3">
-        <v>-108400</v>
+        <v>-109200</v>
       </c>
       <c r="K27" s="3">
         <v>314000</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-180100</v>
+        <v>-181500</v>
       </c>
       <c r="E32" s="3">
-        <v>-217500</v>
+        <v>-219200</v>
       </c>
       <c r="F32" s="3">
-        <v>-203900</v>
+        <v>-205400</v>
       </c>
       <c r="G32" s="3">
-        <v>-235700</v>
+        <v>-237500</v>
       </c>
       <c r="H32" s="3">
-        <v>-165000</v>
+        <v>-166300</v>
       </c>
       <c r="I32" s="3">
-        <v>-84600</v>
+        <v>-85200</v>
       </c>
       <c r="J32" s="3">
         <v>-11400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="E33" s="3">
-        <v>346900</v>
+        <v>349600</v>
       </c>
       <c r="F33" s="3">
-        <v>835500</v>
+        <v>841900</v>
       </c>
       <c r="G33" s="3">
-        <v>961800</v>
+        <v>969200</v>
       </c>
       <c r="H33" s="3">
-        <v>934400</v>
+        <v>941600</v>
       </c>
       <c r="I33" s="3">
-        <v>512600</v>
+        <v>516600</v>
       </c>
       <c r="J33" s="3">
-        <v>-108400</v>
+        <v>-109200</v>
       </c>
       <c r="K33" s="3">
         <v>314000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="E35" s="3">
-        <v>346900</v>
+        <v>349600</v>
       </c>
       <c r="F35" s="3">
-        <v>835500</v>
+        <v>841900</v>
       </c>
       <c r="G35" s="3">
-        <v>961800</v>
+        <v>969200</v>
       </c>
       <c r="H35" s="3">
-        <v>934400</v>
+        <v>941600</v>
       </c>
       <c r="I35" s="3">
-        <v>512600</v>
+        <v>516600</v>
       </c>
       <c r="J35" s="3">
-        <v>-108400</v>
+        <v>-109200</v>
       </c>
       <c r="K35" s="3">
         <v>314000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1081900</v>
+        <v>1090200</v>
       </c>
       <c r="E41" s="3">
-        <v>1155800</v>
+        <v>1164700</v>
       </c>
       <c r="F41" s="3">
-        <v>1365200</v>
+        <v>1375600</v>
       </c>
       <c r="G41" s="3">
-        <v>1170300</v>
+        <v>1179300</v>
       </c>
       <c r="H41" s="3">
-        <v>825300</v>
+        <v>831600</v>
       </c>
       <c r="I41" s="3">
-        <v>167800</v>
+        <v>169100</v>
       </c>
       <c r="J41" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="K41" s="3">
         <v>19300</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>823900</v>
+        <v>830200</v>
       </c>
       <c r="E42" s="3">
-        <v>1007500</v>
+        <v>1015300</v>
       </c>
       <c r="F42" s="3">
-        <v>927100</v>
+        <v>934200</v>
       </c>
       <c r="G42" s="3">
-        <v>317700</v>
+        <v>320100</v>
       </c>
       <c r="H42" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="I42" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>191600</v>
+        <v>193000</v>
       </c>
       <c r="E43" s="3">
-        <v>268200</v>
+        <v>270200</v>
       </c>
       <c r="F43" s="3">
-        <v>387300</v>
+        <v>390300</v>
       </c>
       <c r="G43" s="3">
-        <v>553600</v>
+        <v>557800</v>
       </c>
       <c r="H43" s="3">
-        <v>486900</v>
+        <v>490600</v>
       </c>
       <c r="I43" s="3">
-        <v>452200</v>
+        <v>455700</v>
       </c>
       <c r="J43" s="3">
-        <v>516700</v>
+        <v>520700</v>
       </c>
       <c r="K43" s="3">
         <v>811800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>608800</v>
+        <v>613500</v>
       </c>
       <c r="E44" s="3">
-        <v>1057500</v>
+        <v>1065600</v>
       </c>
       <c r="F44" s="3">
-        <v>1271400</v>
+        <v>1281100</v>
       </c>
       <c r="G44" s="3">
-        <v>1032900</v>
+        <v>1040800</v>
       </c>
       <c r="H44" s="3">
-        <v>964300</v>
+        <v>971700</v>
       </c>
       <c r="I44" s="3">
-        <v>654100</v>
+        <v>659200</v>
       </c>
       <c r="J44" s="3">
-        <v>928500</v>
+        <v>935600</v>
       </c>
       <c r="K44" s="3">
         <v>1381000</v>
@@ -1891,10 +1891,10 @@
         <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="H45" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2709200</v>
+        <v>2730000</v>
       </c>
       <c r="E46" s="3">
-        <v>3492700</v>
+        <v>3519500</v>
       </c>
       <c r="F46" s="3">
-        <v>3960800</v>
+        <v>3991200</v>
       </c>
       <c r="G46" s="3">
-        <v>3110200</v>
+        <v>3134100</v>
       </c>
       <c r="H46" s="3">
-        <v>2329000</v>
+        <v>2346800</v>
       </c>
       <c r="I46" s="3">
-        <v>1275000</v>
+        <v>1284800</v>
       </c>
       <c r="J46" s="3">
-        <v>1489000</v>
+        <v>1500400</v>
       </c>
       <c r="K46" s="3">
         <v>2213200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1946900</v>
+        <v>1961900</v>
       </c>
       <c r="E47" s="3">
-        <v>1366000</v>
+        <v>1376500</v>
       </c>
       <c r="F47" s="3">
-        <v>708800</v>
+        <v>714200</v>
       </c>
       <c r="G47" s="3">
-        <v>697000</v>
+        <v>702400</v>
       </c>
       <c r="H47" s="3">
-        <v>577500</v>
+        <v>581900</v>
       </c>
       <c r="I47" s="3">
-        <v>518400</v>
+        <v>522400</v>
       </c>
       <c r="J47" s="3">
-        <v>459700</v>
+        <v>463200</v>
       </c>
       <c r="K47" s="3">
         <v>457400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2223400</v>
+        <v>2240400</v>
       </c>
       <c r="E48" s="3">
-        <v>2164900</v>
+        <v>2181500</v>
       </c>
       <c r="F48" s="3">
-        <v>2126500</v>
+        <v>2142800</v>
       </c>
       <c r="G48" s="3">
-        <v>2232400</v>
+        <v>2249500</v>
       </c>
       <c r="H48" s="3">
-        <v>2281500</v>
+        <v>2298900</v>
       </c>
       <c r="I48" s="3">
-        <v>2428500</v>
+        <v>2447100</v>
       </c>
       <c r="J48" s="3">
-        <v>2583300</v>
+        <v>2603100</v>
       </c>
       <c r="K48" s="3">
         <v>2682100</v>
@@ -2038,13 +2038,13 @@
         <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I49" s="3">
         <v>4600</v>
       </c>
       <c r="J49" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K49" s="3">
         <v>5400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>103700</v>
+        <v>104500</v>
       </c>
       <c r="E52" s="3">
-        <v>96200</v>
+        <v>97000</v>
       </c>
       <c r="F52" s="3">
-        <v>149800</v>
+        <v>150900</v>
       </c>
       <c r="G52" s="3">
-        <v>132000</v>
+        <v>133000</v>
       </c>
       <c r="H52" s="3">
-        <v>122500</v>
+        <v>123400</v>
       </c>
       <c r="I52" s="3">
-        <v>129100</v>
+        <v>130100</v>
       </c>
       <c r="J52" s="3">
-        <v>301600</v>
+        <v>303900</v>
       </c>
       <c r="K52" s="3">
         <v>239300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6985600</v>
+        <v>7039100</v>
       </c>
       <c r="E54" s="3">
-        <v>7122600</v>
+        <v>7177100</v>
       </c>
       <c r="F54" s="3">
-        <v>6949100</v>
+        <v>7002300</v>
       </c>
       <c r="G54" s="3">
-        <v>6175300</v>
+        <v>6222600</v>
       </c>
       <c r="H54" s="3">
-        <v>5314500</v>
+        <v>5355300</v>
       </c>
       <c r="I54" s="3">
-        <v>4355600</v>
+        <v>4389000</v>
       </c>
       <c r="J54" s="3">
-        <v>4838600</v>
+        <v>4875700</v>
       </c>
       <c r="K54" s="3">
         <v>5597400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>206700</v>
+        <v>208300</v>
       </c>
       <c r="E57" s="3">
-        <v>440900</v>
+        <v>444300</v>
       </c>
       <c r="F57" s="3">
-        <v>457600</v>
+        <v>461100</v>
       </c>
       <c r="G57" s="3">
-        <v>298800</v>
+        <v>301100</v>
       </c>
       <c r="H57" s="3">
-        <v>332500</v>
+        <v>335100</v>
       </c>
       <c r="I57" s="3">
-        <v>244600</v>
+        <v>246500</v>
       </c>
       <c r="J57" s="3">
-        <v>549800</v>
+        <v>554000</v>
       </c>
       <c r="K57" s="3">
         <v>418600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>716300</v>
+        <v>721800</v>
       </c>
       <c r="E58" s="3">
-        <v>244100</v>
+        <v>246000</v>
       </c>
       <c r="F58" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="G58" s="3">
-        <v>94900</v>
+        <v>95600</v>
       </c>
       <c r="H58" s="3">
-        <v>85500</v>
+        <v>86200</v>
       </c>
       <c r="I58" s="3">
-        <v>324100</v>
+        <v>326600</v>
       </c>
       <c r="J58" s="3">
-        <v>638500</v>
+        <v>643400</v>
       </c>
       <c r="K58" s="3">
         <v>1083800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1461800</v>
+        <v>1473000</v>
       </c>
       <c r="E59" s="3">
-        <v>1738500</v>
+        <v>1751800</v>
       </c>
       <c r="F59" s="3">
-        <v>1642700</v>
+        <v>1655300</v>
       </c>
       <c r="G59" s="3">
-        <v>1316300</v>
+        <v>1326400</v>
       </c>
       <c r="H59" s="3">
-        <v>982000</v>
+        <v>989500</v>
       </c>
       <c r="I59" s="3">
-        <v>641000</v>
+        <v>645900</v>
       </c>
       <c r="J59" s="3">
-        <v>766400</v>
+        <v>772300</v>
       </c>
       <c r="K59" s="3">
         <v>1250300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2384800</v>
+        <v>2403000</v>
       </c>
       <c r="E60" s="3">
-        <v>2423500</v>
+        <v>2442100</v>
       </c>
       <c r="F60" s="3">
-        <v>2178200</v>
+        <v>2194900</v>
       </c>
       <c r="G60" s="3">
-        <v>1710000</v>
+        <v>1723100</v>
       </c>
       <c r="H60" s="3">
-        <v>1400000</v>
+        <v>1410700</v>
       </c>
       <c r="I60" s="3">
-        <v>1209600</v>
+        <v>1218900</v>
       </c>
       <c r="J60" s="3">
-        <v>1954600</v>
+        <v>1969600</v>
       </c>
       <c r="K60" s="3">
         <v>2752700</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>255600</v>
+        <v>257600</v>
       </c>
       <c r="K61" s="3">
         <v>95900</v>
@@ -2454,7 +2454,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2414300</v>
+        <v>2432800</v>
       </c>
       <c r="E66" s="3">
-        <v>2447200</v>
+        <v>2465900</v>
       </c>
       <c r="F66" s="3">
-        <v>2198100</v>
+        <v>2214900</v>
       </c>
       <c r="G66" s="3">
-        <v>1755500</v>
+        <v>1769000</v>
       </c>
       <c r="H66" s="3">
-        <v>1444100</v>
+        <v>1455100</v>
       </c>
       <c r="I66" s="3">
-        <v>1256100</v>
+        <v>1265800</v>
       </c>
       <c r="J66" s="3">
-        <v>2255300</v>
+        <v>2272600</v>
       </c>
       <c r="K66" s="3">
         <v>2888200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2859900</v>
+        <v>2881900</v>
       </c>
       <c r="E72" s="3">
-        <v>2964100</v>
+        <v>2986800</v>
       </c>
       <c r="F72" s="3">
-        <v>3039700</v>
+        <v>3063000</v>
       </c>
       <c r="G72" s="3">
-        <v>2716900</v>
+        <v>2737700</v>
       </c>
       <c r="H72" s="3">
-        <v>2179600</v>
+        <v>2196300</v>
       </c>
       <c r="I72" s="3">
-        <v>1408600</v>
+        <v>1419400</v>
       </c>
       <c r="J72" s="3">
-        <v>892400</v>
+        <v>899300</v>
       </c>
       <c r="K72" s="3">
         <v>1059100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4571200</v>
+        <v>4606300</v>
       </c>
       <c r="E76" s="3">
-        <v>4675400</v>
+        <v>4711200</v>
       </c>
       <c r="F76" s="3">
-        <v>4751000</v>
+        <v>4787400</v>
       </c>
       <c r="G76" s="3">
-        <v>4419700</v>
+        <v>4453600</v>
       </c>
       <c r="H76" s="3">
-        <v>3870500</v>
+        <v>3900100</v>
       </c>
       <c r="I76" s="3">
-        <v>3099500</v>
+        <v>3123200</v>
       </c>
       <c r="J76" s="3">
-        <v>2583300</v>
+        <v>2603100</v>
       </c>
       <c r="K76" s="3">
         <v>2709200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="E81" s="3">
-        <v>346900</v>
+        <v>349600</v>
       </c>
       <c r="F81" s="3">
-        <v>835500</v>
+        <v>841900</v>
       </c>
       <c r="G81" s="3">
-        <v>961800</v>
+        <v>969200</v>
       </c>
       <c r="H81" s="3">
-        <v>934400</v>
+        <v>941600</v>
       </c>
       <c r="I81" s="3">
-        <v>512600</v>
+        <v>516600</v>
       </c>
       <c r="J81" s="3">
-        <v>-108400</v>
+        <v>-109200</v>
       </c>
       <c r="K81" s="3">
         <v>314000</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>250600</v>
+        <v>252600</v>
       </c>
       <c r="E83" s="3">
-        <v>254300</v>
+        <v>256300</v>
       </c>
       <c r="F83" s="3">
-        <v>245100</v>
+        <v>247000</v>
       </c>
       <c r="G83" s="3">
-        <v>249200</v>
+        <v>251100</v>
       </c>
       <c r="H83" s="3">
-        <v>256900</v>
+        <v>258900</v>
       </c>
       <c r="I83" s="3">
-        <v>269600</v>
+        <v>271700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>263000</v>
+        <v>265000</v>
       </c>
       <c r="E89" s="3">
-        <v>791800</v>
+        <v>797900</v>
       </c>
       <c r="F89" s="3">
-        <v>1042600</v>
+        <v>1050600</v>
       </c>
       <c r="G89" s="3">
-        <v>1105400</v>
+        <v>1113900</v>
       </c>
       <c r="H89" s="3">
-        <v>1124400</v>
+        <v>1133000</v>
       </c>
       <c r="I89" s="3">
-        <v>772300</v>
+        <v>778200</v>
       </c>
       <c r="J89" s="3">
-        <v>573400</v>
+        <v>577800</v>
       </c>
       <c r="K89" s="3">
         <v>779000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-288200</v>
+        <v>-290400</v>
       </c>
       <c r="E91" s="3">
-        <v>-223900</v>
+        <v>-225700</v>
       </c>
       <c r="F91" s="3">
-        <v>-185800</v>
+        <v>-187300</v>
       </c>
       <c r="G91" s="3">
-        <v>-187400</v>
+        <v>-188800</v>
       </c>
       <c r="H91" s="3">
-        <v>-141100</v>
+        <v>-142200</v>
       </c>
       <c r="I91" s="3">
-        <v>-108900</v>
+        <v>-109700</v>
       </c>
       <c r="J91" s="3">
-        <v>-170500</v>
+        <v>-171800</v>
       </c>
       <c r="K91" s="3">
         <v>-202100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-608600</v>
+        <v>-613300</v>
       </c>
       <c r="E94" s="3">
-        <v>-723800</v>
+        <v>-729400</v>
       </c>
       <c r="F94" s="3">
-        <v>-301900</v>
+        <v>-304200</v>
       </c>
       <c r="G94" s="3">
-        <v>-375900</v>
+        <v>-378700</v>
       </c>
       <c r="H94" s="3">
-        <v>-29700</v>
+        <v>-30000</v>
       </c>
       <c r="I94" s="3">
-        <v>-68700</v>
+        <v>-69300</v>
       </c>
       <c r="J94" s="3">
-        <v>-142500</v>
+        <v>-143600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-202500</v>
+        <v>-204100</v>
       </c>
       <c r="E96" s="3">
-        <v>-423500</v>
+        <v>-426700</v>
       </c>
       <c r="F96" s="3">
-        <v>-512800</v>
+        <v>-516800</v>
       </c>
       <c r="G96" s="3">
-        <v>-422300</v>
+        <v>-425500</v>
       </c>
       <c r="H96" s="3">
-        <v>-169800</v>
+        <v>-171100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-85000</v>
+        <v>-85700</v>
       </c>
       <c r="K96" s="3">
         <v>-55100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>263300</v>
+        <v>265300</v>
       </c>
       <c r="E100" s="3">
-        <v>-272000</v>
+        <v>-274100</v>
       </c>
       <c r="F100" s="3">
-        <v>-549100</v>
+        <v>-553300</v>
       </c>
       <c r="G100" s="3">
-        <v>-405500</v>
+        <v>-408600</v>
       </c>
       <c r="H100" s="3">
-        <v>-412900</v>
+        <v>-416000</v>
       </c>
       <c r="I100" s="3">
-        <v>-578600</v>
+        <v>-583000</v>
       </c>
       <c r="J100" s="3">
-        <v>-408100</v>
+        <v>-411200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3720,7 +3720,7 @@
         <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H101" s="3">
         <v>1300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-83500</v>
+        <v>-84100</v>
       </c>
       <c r="E102" s="3">
-        <v>-202300</v>
+        <v>-203900</v>
       </c>
       <c r="F102" s="3">
-        <v>193800</v>
+        <v>195200</v>
       </c>
       <c r="G102" s="3">
-        <v>323100</v>
+        <v>325600</v>
       </c>
       <c r="H102" s="3">
-        <v>683100</v>
+        <v>688300</v>
       </c>
       <c r="I102" s="3">
-        <v>125000</v>
+        <v>125900</v>
       </c>
       <c r="J102" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="K102" s="3">
         <v>-4200</v>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>SHI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9711800</v>
+        <v>11183000</v>
       </c>
       <c r="E8" s="3">
-        <v>13891700</v>
+        <v>9071600</v>
       </c>
       <c r="F8" s="3">
-        <v>15084000</v>
+        <v>12975900</v>
       </c>
       <c r="G8" s="3">
-        <v>12497500</v>
+        <v>14089600</v>
       </c>
       <c r="H8" s="3">
-        <v>10402100</v>
+        <v>11673600</v>
       </c>
       <c r="I8" s="3">
-        <v>10575800</v>
+        <v>9716400</v>
       </c>
       <c r="J8" s="3">
+        <v>9878600</v>
+      </c>
+      <c r="K8" s="3">
         <v>14628300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16118800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12513900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13284100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9765500</v>
+        <v>10948600</v>
       </c>
       <c r="E9" s="3">
-        <v>13641200</v>
+        <v>9121700</v>
       </c>
       <c r="F9" s="3">
-        <v>14173000</v>
+        <v>12741900</v>
       </c>
       <c r="G9" s="3">
-        <v>11421600</v>
+        <v>13238700</v>
       </c>
       <c r="H9" s="3">
-        <v>9265500</v>
+        <v>10668600</v>
       </c>
       <c r="I9" s="3">
-        <v>9900600</v>
+        <v>8654700</v>
       </c>
       <c r="J9" s="3">
+        <v>9247900</v>
+      </c>
+      <c r="K9" s="3">
         <v>14657500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15770900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12714900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13042400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-53700</v>
+        <v>234400</v>
       </c>
       <c r="E10" s="3">
-        <v>250500</v>
+        <v>-50100</v>
       </c>
       <c r="F10" s="3">
-        <v>911000</v>
+        <v>234000</v>
       </c>
       <c r="G10" s="3">
-        <v>1075900</v>
+        <v>850900</v>
       </c>
       <c r="H10" s="3">
-        <v>1136600</v>
+        <v>1005000</v>
       </c>
       <c r="I10" s="3">
-        <v>675200</v>
+        <v>1061700</v>
       </c>
       <c r="J10" s="3">
+        <v>630700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-29200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>347900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>241700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,71 +925,77 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-19100</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>-17800</v>
       </c>
       <c r="F14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-1500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>1400</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
         <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9785400</v>
+        <v>10971900</v>
       </c>
       <c r="E17" s="3">
-        <v>13683300</v>
+        <v>9140300</v>
       </c>
       <c r="F17" s="3">
-        <v>14202900</v>
+        <v>12781300</v>
       </c>
       <c r="G17" s="3">
-        <v>11487500</v>
+        <v>13266600</v>
       </c>
       <c r="H17" s="3">
-        <v>9332900</v>
+        <v>10730200</v>
       </c>
       <c r="I17" s="3">
-        <v>9959100</v>
+        <v>8717600</v>
       </c>
       <c r="J17" s="3">
+        <v>9302600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14721000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15783800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12768200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13126800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-73600</v>
+        <v>211100</v>
       </c>
       <c r="E18" s="3">
-        <v>208300</v>
+        <v>-68700</v>
       </c>
       <c r="F18" s="3">
-        <v>881100</v>
+        <v>194600</v>
       </c>
       <c r="G18" s="3">
-        <v>1010000</v>
+        <v>823000</v>
       </c>
       <c r="H18" s="3">
-        <v>1069300</v>
+        <v>943400</v>
       </c>
       <c r="I18" s="3">
-        <v>616700</v>
+        <v>998800</v>
       </c>
       <c r="J18" s="3">
+        <v>576000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-92700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>334900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-254300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,67 +1115,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>181500</v>
+        <v>203800</v>
       </c>
       <c r="E20" s="3">
-        <v>219200</v>
+        <v>169500</v>
       </c>
       <c r="F20" s="3">
-        <v>205400</v>
+        <v>204700</v>
       </c>
       <c r="G20" s="3">
-        <v>237500</v>
+        <v>191900</v>
       </c>
       <c r="H20" s="3">
-        <v>166300</v>
+        <v>221800</v>
       </c>
       <c r="I20" s="3">
-        <v>85200</v>
+        <v>155300</v>
       </c>
       <c r="J20" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>67100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>361300</v>
+        <v>663600</v>
       </c>
       <c r="E21" s="3">
-        <v>684700</v>
+        <v>339100</v>
       </c>
       <c r="F21" s="3">
-        <v>1334300</v>
+        <v>641100</v>
       </c>
       <c r="G21" s="3">
-        <v>1499400</v>
+        <v>1247900</v>
       </c>
       <c r="H21" s="3">
-        <v>1495300</v>
+        <v>1402100</v>
       </c>
       <c r="I21" s="3">
-        <v>974500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1398400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>912000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1154,117 +1190,129 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14700</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>8500</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>12500</v>
+        <v>7900</v>
       </c>
       <c r="G22" s="3">
-        <v>8600</v>
+        <v>11700</v>
       </c>
       <c r="H22" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="I22" s="3">
-        <v>33400</v>
+        <v>7900</v>
       </c>
       <c r="J22" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K22" s="3">
         <v>59100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>51100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>93200</v>
+        <v>401000</v>
       </c>
       <c r="E23" s="3">
-        <v>419000</v>
+        <v>87100</v>
       </c>
       <c r="F23" s="3">
-        <v>1074000</v>
+        <v>391400</v>
       </c>
       <c r="G23" s="3">
-        <v>1238900</v>
+        <v>1003200</v>
       </c>
       <c r="H23" s="3">
-        <v>1227100</v>
+        <v>1157200</v>
       </c>
       <c r="I23" s="3">
-        <v>668500</v>
+        <v>1146200</v>
       </c>
       <c r="J23" s="3">
+        <v>624400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-140400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>373500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-289300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>192400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10400</v>
+        <v>95000</v>
       </c>
       <c r="E24" s="3">
-        <v>67700</v>
+        <v>-9700</v>
       </c>
       <c r="F24" s="3">
-        <v>232200</v>
+        <v>63200</v>
       </c>
       <c r="G24" s="3">
-        <v>268000</v>
+        <v>216900</v>
       </c>
       <c r="H24" s="3">
-        <v>283500</v>
+        <v>250300</v>
       </c>
       <c r="I24" s="3">
-        <v>146200</v>
+        <v>264800</v>
       </c>
       <c r="J24" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-33800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-73400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103600</v>
+        <v>306000</v>
       </c>
       <c r="E26" s="3">
-        <v>351400</v>
+        <v>96700</v>
       </c>
       <c r="F26" s="3">
-        <v>841800</v>
+        <v>328200</v>
       </c>
       <c r="G26" s="3">
-        <v>970900</v>
+        <v>786300</v>
       </c>
       <c r="H26" s="3">
-        <v>943600</v>
+        <v>906900</v>
       </c>
       <c r="I26" s="3">
-        <v>522300</v>
+        <v>881400</v>
       </c>
       <c r="J26" s="3">
+        <v>487800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-106600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>315600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-216000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>146400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101800</v>
+        <v>305500</v>
       </c>
       <c r="E27" s="3">
-        <v>349600</v>
+        <v>95100</v>
       </c>
       <c r="F27" s="3">
-        <v>841900</v>
+        <v>326500</v>
       </c>
       <c r="G27" s="3">
-        <v>969200</v>
+        <v>786400</v>
       </c>
       <c r="H27" s="3">
-        <v>941600</v>
+        <v>905300</v>
       </c>
       <c r="I27" s="3">
-        <v>516600</v>
+        <v>879500</v>
       </c>
       <c r="J27" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-109200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>314000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-219300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-181500</v>
+        <v>-203800</v>
       </c>
       <c r="E32" s="3">
-        <v>-219200</v>
+        <v>-169500</v>
       </c>
       <c r="F32" s="3">
-        <v>-205400</v>
+        <v>-204700</v>
       </c>
       <c r="G32" s="3">
-        <v>-237500</v>
+        <v>-191900</v>
       </c>
       <c r="H32" s="3">
-        <v>-166300</v>
+        <v>-221800</v>
       </c>
       <c r="I32" s="3">
-        <v>-85200</v>
+        <v>-155300</v>
       </c>
       <c r="J32" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-67100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101800</v>
+        <v>305500</v>
       </c>
       <c r="E33" s="3">
-        <v>349600</v>
+        <v>95100</v>
       </c>
       <c r="F33" s="3">
-        <v>841900</v>
+        <v>326500</v>
       </c>
       <c r="G33" s="3">
-        <v>969200</v>
+        <v>786400</v>
       </c>
       <c r="H33" s="3">
-        <v>941600</v>
+        <v>905300</v>
       </c>
       <c r="I33" s="3">
-        <v>516600</v>
+        <v>879500</v>
       </c>
       <c r="J33" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-109200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>314000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-219300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101800</v>
+        <v>305500</v>
       </c>
       <c r="E35" s="3">
-        <v>349600</v>
+        <v>95100</v>
       </c>
       <c r="F35" s="3">
-        <v>841900</v>
+        <v>326500</v>
       </c>
       <c r="G35" s="3">
-        <v>969200</v>
+        <v>786400</v>
       </c>
       <c r="H35" s="3">
-        <v>941600</v>
+        <v>905300</v>
       </c>
       <c r="I35" s="3">
-        <v>516600</v>
+        <v>879500</v>
       </c>
       <c r="J35" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-109200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>314000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-219300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,172 +1817,185 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1090200</v>
+        <v>752800</v>
       </c>
       <c r="E41" s="3">
-        <v>1164700</v>
+        <v>1018400</v>
       </c>
       <c r="F41" s="3">
-        <v>1375600</v>
+        <v>1087900</v>
       </c>
       <c r="G41" s="3">
-        <v>1179300</v>
+        <v>1285000</v>
       </c>
       <c r="H41" s="3">
-        <v>831600</v>
+        <v>1101500</v>
       </c>
       <c r="I41" s="3">
-        <v>169100</v>
+        <v>776800</v>
       </c>
       <c r="J41" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K41" s="3">
         <v>43200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>830200</v>
+        <v>1243400</v>
       </c>
       <c r="E42" s="3">
-        <v>1015300</v>
+        <v>775400</v>
       </c>
       <c r="F42" s="3">
-        <v>934200</v>
+        <v>948300</v>
       </c>
       <c r="G42" s="3">
-        <v>320100</v>
+        <v>872600</v>
       </c>
       <c r="H42" s="3">
-        <v>26700</v>
+        <v>299000</v>
       </c>
       <c r="I42" s="3">
-        <v>900</v>
+        <v>24900</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
       </c>
       <c r="K42" s="3">
+        <v>800</v>
+      </c>
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>193000</v>
+        <v>197100</v>
       </c>
       <c r="E43" s="3">
-        <v>270200</v>
+        <v>180300</v>
       </c>
       <c r="F43" s="3">
-        <v>390300</v>
+        <v>252400</v>
       </c>
       <c r="G43" s="3">
-        <v>557800</v>
+        <v>364600</v>
       </c>
       <c r="H43" s="3">
-        <v>490600</v>
+        <v>521100</v>
       </c>
       <c r="I43" s="3">
-        <v>455700</v>
+        <v>458300</v>
       </c>
       <c r="J43" s="3">
+        <v>425600</v>
+      </c>
+      <c r="K43" s="3">
         <v>520700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>811800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>837800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>592500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>613500</v>
+        <v>872900</v>
       </c>
       <c r="E44" s="3">
-        <v>1065600</v>
+        <v>573000</v>
       </c>
       <c r="F44" s="3">
-        <v>1281100</v>
+        <v>995300</v>
       </c>
       <c r="G44" s="3">
-        <v>1040800</v>
+        <v>1196700</v>
       </c>
       <c r="H44" s="3">
-        <v>971700</v>
+        <v>972200</v>
       </c>
       <c r="I44" s="3">
-        <v>659200</v>
+        <v>907700</v>
       </c>
       <c r="J44" s="3">
+        <v>615700</v>
+      </c>
+      <c r="K44" s="3">
         <v>935600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1381000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1339100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>828500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>18400</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>36000</v>
+        <v>9200</v>
       </c>
       <c r="H45" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>33600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1911,153 +2009,168 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2730000</v>
+        <v>3084600</v>
       </c>
       <c r="E46" s="3">
-        <v>3519500</v>
+        <v>2550000</v>
       </c>
       <c r="F46" s="3">
-        <v>3991200</v>
+        <v>3287500</v>
       </c>
       <c r="G46" s="3">
-        <v>3134100</v>
+        <v>3728000</v>
       </c>
       <c r="H46" s="3">
-        <v>2346800</v>
+        <v>2927500</v>
       </c>
       <c r="I46" s="3">
-        <v>1284800</v>
+        <v>2192100</v>
       </c>
       <c r="J46" s="3">
+        <v>1200100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2213200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1849700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1434500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1961900</v>
+        <v>1425800</v>
       </c>
       <c r="E47" s="3">
-        <v>1376500</v>
+        <v>1832500</v>
       </c>
       <c r="F47" s="3">
-        <v>714200</v>
+        <v>1285700</v>
       </c>
       <c r="G47" s="3">
-        <v>702400</v>
+        <v>667100</v>
       </c>
       <c r="H47" s="3">
-        <v>581900</v>
+        <v>656100</v>
       </c>
       <c r="I47" s="3">
-        <v>522400</v>
+        <v>543600</v>
       </c>
       <c r="J47" s="3">
+        <v>487900</v>
+      </c>
+      <c r="K47" s="3">
         <v>463200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>457400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>411400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>430600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2240400</v>
+        <v>2260700</v>
       </c>
       <c r="E48" s="3">
-        <v>2181500</v>
+        <v>2092700</v>
       </c>
       <c r="F48" s="3">
-        <v>2142800</v>
+        <v>2037600</v>
       </c>
       <c r="G48" s="3">
-        <v>2249500</v>
+        <v>2001500</v>
       </c>
       <c r="H48" s="3">
-        <v>2298900</v>
+        <v>2101200</v>
       </c>
       <c r="I48" s="3">
-        <v>2447100</v>
+        <v>2147400</v>
       </c>
       <c r="J48" s="3">
+        <v>2285800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2603100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2682100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5226700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2494400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="H49" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="I49" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="J49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>258700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>104500</v>
+        <v>141500</v>
       </c>
       <c r="E52" s="3">
-        <v>97000</v>
+        <v>97600</v>
       </c>
       <c r="F52" s="3">
-        <v>150900</v>
+        <v>90600</v>
       </c>
       <c r="G52" s="3">
-        <v>133000</v>
+        <v>141000</v>
       </c>
       <c r="H52" s="3">
-        <v>123400</v>
+        <v>124200</v>
       </c>
       <c r="I52" s="3">
-        <v>130100</v>
+        <v>115300</v>
       </c>
       <c r="J52" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K52" s="3">
         <v>303900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>239300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>368000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7039100</v>
+        <v>6914200</v>
       </c>
       <c r="E54" s="3">
-        <v>7177100</v>
+        <v>6575100</v>
       </c>
       <c r="F54" s="3">
-        <v>7002300</v>
+        <v>6704000</v>
       </c>
       <c r="G54" s="3">
-        <v>6222600</v>
+        <v>6540700</v>
       </c>
       <c r="H54" s="3">
-        <v>5355300</v>
+        <v>5812400</v>
       </c>
       <c r="I54" s="3">
-        <v>4389000</v>
+        <v>5002200</v>
       </c>
       <c r="J54" s="3">
+        <v>4099600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4875700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5597400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5231600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4559000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,163 +2397,176 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>208300</v>
+        <v>308000</v>
       </c>
       <c r="E57" s="3">
-        <v>444300</v>
+        <v>194600</v>
       </c>
       <c r="F57" s="3">
-        <v>461100</v>
+        <v>415000</v>
       </c>
       <c r="G57" s="3">
-        <v>301100</v>
+        <v>430700</v>
       </c>
       <c r="H57" s="3">
-        <v>335100</v>
+        <v>281200</v>
       </c>
       <c r="I57" s="3">
-        <v>246500</v>
+        <v>313000</v>
       </c>
       <c r="J57" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K57" s="3">
         <v>554000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>418600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>828300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>464000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>721800</v>
+        <v>230300</v>
       </c>
       <c r="E58" s="3">
-        <v>246000</v>
+        <v>674200</v>
       </c>
       <c r="F58" s="3">
-        <v>78400</v>
+        <v>229700</v>
       </c>
       <c r="G58" s="3">
-        <v>95600</v>
+        <v>73300</v>
       </c>
       <c r="H58" s="3">
-        <v>86200</v>
+        <v>89300</v>
       </c>
       <c r="I58" s="3">
-        <v>326600</v>
+        <v>80500</v>
       </c>
       <c r="J58" s="3">
+        <v>305000</v>
+      </c>
+      <c r="K58" s="3">
         <v>643400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1083800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3163400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>818000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1473000</v>
+        <v>1789300</v>
       </c>
       <c r="E59" s="3">
-        <v>1751800</v>
+        <v>1375900</v>
       </c>
       <c r="F59" s="3">
-        <v>1655300</v>
+        <v>1636300</v>
       </c>
       <c r="G59" s="3">
-        <v>1326400</v>
+        <v>1546200</v>
       </c>
       <c r="H59" s="3">
-        <v>989500</v>
+        <v>1238900</v>
       </c>
       <c r="I59" s="3">
-        <v>645900</v>
+        <v>924200</v>
       </c>
       <c r="J59" s="3">
+        <v>603300</v>
+      </c>
+      <c r="K59" s="3">
         <v>772300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1250300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>949800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>539200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2403000</v>
+        <v>2327700</v>
       </c>
       <c r="E60" s="3">
-        <v>2442100</v>
+        <v>2244600</v>
       </c>
       <c r="F60" s="3">
-        <v>2194900</v>
+        <v>2281100</v>
       </c>
       <c r="G60" s="3">
-        <v>1723100</v>
+        <v>2050200</v>
       </c>
       <c r="H60" s="3">
-        <v>1410700</v>
+        <v>1609500</v>
       </c>
       <c r="I60" s="3">
-        <v>1218900</v>
+        <v>1317700</v>
       </c>
       <c r="J60" s="3">
+        <v>1138500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1969600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2752700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2715700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1821300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>1700</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2436,56 +2578,62 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>257600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>95900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>176700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="E62" s="3">
-        <v>1600</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>13600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432800</v>
+        <v>2457700</v>
       </c>
       <c r="E66" s="3">
-        <v>2465900</v>
+        <v>2272500</v>
       </c>
       <c r="F66" s="3">
-        <v>2214900</v>
+        <v>2303400</v>
       </c>
       <c r="G66" s="3">
-        <v>1769000</v>
+        <v>2068900</v>
       </c>
       <c r="H66" s="3">
-        <v>1455100</v>
+        <v>1652400</v>
       </c>
       <c r="I66" s="3">
-        <v>1265800</v>
+        <v>1359200</v>
       </c>
       <c r="J66" s="3">
+        <v>1182300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2272600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2888200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2930600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1898700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2881900</v>
+        <v>2840400</v>
       </c>
       <c r="E72" s="3">
-        <v>2986800</v>
+        <v>2691900</v>
       </c>
       <c r="F72" s="3">
-        <v>3063000</v>
+        <v>2789900</v>
       </c>
       <c r="G72" s="3">
-        <v>2737700</v>
+        <v>2861100</v>
       </c>
       <c r="H72" s="3">
-        <v>2196300</v>
+        <v>2557200</v>
       </c>
       <c r="I72" s="3">
-        <v>1419400</v>
+        <v>2051500</v>
       </c>
       <c r="J72" s="3">
+        <v>1325800</v>
+      </c>
+      <c r="K72" s="3">
         <v>899300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1059100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1840100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1232500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4606300</v>
+        <v>4456500</v>
       </c>
       <c r="E76" s="3">
-        <v>4711200</v>
+        <v>4302600</v>
       </c>
       <c r="F76" s="3">
-        <v>4787400</v>
+        <v>4400700</v>
       </c>
       <c r="G76" s="3">
-        <v>4453600</v>
+        <v>4471800</v>
       </c>
       <c r="H76" s="3">
-        <v>3900100</v>
+        <v>4160000</v>
       </c>
       <c r="I76" s="3">
-        <v>3123200</v>
+        <v>3643000</v>
       </c>
       <c r="J76" s="3">
+        <v>2917300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2603100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2709200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2301000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2660300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101800</v>
+        <v>305500</v>
       </c>
       <c r="E81" s="3">
-        <v>349600</v>
+        <v>95100</v>
       </c>
       <c r="F81" s="3">
-        <v>841900</v>
+        <v>326500</v>
       </c>
       <c r="G81" s="3">
-        <v>969200</v>
+        <v>786400</v>
       </c>
       <c r="H81" s="3">
-        <v>941600</v>
+        <v>905300</v>
       </c>
       <c r="I81" s="3">
-        <v>516600</v>
+        <v>879500</v>
       </c>
       <c r="J81" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-109200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>314000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-219300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,31 +3294,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>252600</v>
+        <v>246300</v>
       </c>
       <c r="E83" s="3">
-        <v>256300</v>
+        <v>235900</v>
       </c>
       <c r="F83" s="3">
-        <v>247000</v>
+        <v>239400</v>
       </c>
       <c r="G83" s="3">
-        <v>251100</v>
+        <v>230700</v>
       </c>
       <c r="H83" s="3">
-        <v>258900</v>
+        <v>234500</v>
       </c>
       <c r="I83" s="3">
-        <v>271700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>241800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>253800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3132,9 +3330,12 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>265000</v>
+        <v>582100</v>
       </c>
       <c r="E89" s="3">
-        <v>797900</v>
+        <v>247500</v>
       </c>
       <c r="F89" s="3">
-        <v>1050600</v>
+        <v>745300</v>
       </c>
       <c r="G89" s="3">
-        <v>1113900</v>
+        <v>981300</v>
       </c>
       <c r="H89" s="3">
-        <v>1133000</v>
+        <v>1040500</v>
       </c>
       <c r="I89" s="3">
-        <v>778200</v>
+        <v>1058300</v>
       </c>
       <c r="J89" s="3">
+        <v>726900</v>
+      </c>
+      <c r="K89" s="3">
         <v>577800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>779000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-296500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>329500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-290400</v>
+        <v>-475100</v>
       </c>
       <c r="E91" s="3">
-        <v>-225700</v>
+        <v>-271300</v>
       </c>
       <c r="F91" s="3">
-        <v>-187300</v>
+        <v>-210800</v>
       </c>
       <c r="G91" s="3">
-        <v>-188800</v>
+        <v>-174900</v>
       </c>
       <c r="H91" s="3">
-        <v>-142200</v>
+        <v>-176400</v>
       </c>
       <c r="I91" s="3">
-        <v>-109700</v>
+        <v>-132800</v>
       </c>
       <c r="J91" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-171800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-611200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-516700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-613300</v>
+        <v>-347700</v>
       </c>
       <c r="E94" s="3">
-        <v>-729400</v>
+        <v>-572900</v>
       </c>
       <c r="F94" s="3">
-        <v>-304200</v>
+        <v>-681300</v>
       </c>
       <c r="G94" s="3">
-        <v>-378700</v>
+        <v>-284200</v>
       </c>
       <c r="H94" s="3">
-        <v>-30000</v>
+        <v>-353800</v>
       </c>
       <c r="I94" s="3">
-        <v>-69300</v>
+        <v>-28000</v>
       </c>
       <c r="J94" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-143600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-582800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-204100</v>
+        <v>-159300</v>
       </c>
       <c r="E96" s="3">
-        <v>-426700</v>
+        <v>-190600</v>
       </c>
       <c r="F96" s="3">
-        <v>-516800</v>
+        <v>-398600</v>
       </c>
       <c r="G96" s="3">
-        <v>-425500</v>
+        <v>-482700</v>
       </c>
       <c r="H96" s="3">
-        <v>-171100</v>
+        <v>-397500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-159900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-85700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-55100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-51800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-105800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265300</v>
+        <v>-500000</v>
       </c>
       <c r="E100" s="3">
-        <v>-274100</v>
+        <v>247800</v>
       </c>
       <c r="F100" s="3">
-        <v>-553300</v>
+        <v>-256000</v>
       </c>
       <c r="G100" s="3">
-        <v>-408600</v>
+        <v>-516800</v>
       </c>
       <c r="H100" s="3">
-        <v>-416000</v>
+        <v>-381600</v>
       </c>
       <c r="I100" s="3">
-        <v>-583000</v>
+        <v>-388600</v>
       </c>
       <c r="J100" s="3">
+        <v>-544600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-411200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>889300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>1300</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-84100</v>
+        <v>-265900</v>
       </c>
       <c r="E102" s="3">
-        <v>-203900</v>
+        <v>-78600</v>
       </c>
       <c r="F102" s="3">
-        <v>195200</v>
+        <v>-190400</v>
       </c>
       <c r="G102" s="3">
-        <v>325600</v>
+        <v>182400</v>
       </c>
       <c r="H102" s="3">
-        <v>688300</v>
+        <v>304100</v>
       </c>
       <c r="I102" s="3">
-        <v>125900</v>
+        <v>643000</v>
       </c>
       <c r="J102" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K102" s="3">
         <v>23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SHI_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11183000</v>
+        <v>11082000</v>
       </c>
       <c r="E8" s="3">
-        <v>9071600</v>
+        <v>8989700</v>
       </c>
       <c r="F8" s="3">
-        <v>12975900</v>
+        <v>12858800</v>
       </c>
       <c r="G8" s="3">
-        <v>14089600</v>
+        <v>13962400</v>
       </c>
       <c r="H8" s="3">
-        <v>11673600</v>
+        <v>11568300</v>
       </c>
       <c r="I8" s="3">
-        <v>9716400</v>
+        <v>9628700</v>
       </c>
       <c r="J8" s="3">
-        <v>9878600</v>
+        <v>9789400</v>
       </c>
       <c r="K8" s="3">
         <v>14628300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10948600</v>
+        <v>10849700</v>
       </c>
       <c r="E9" s="3">
-        <v>9121700</v>
+        <v>9039400</v>
       </c>
       <c r="F9" s="3">
-        <v>12741900</v>
+        <v>12626900</v>
       </c>
       <c r="G9" s="3">
-        <v>13238700</v>
+        <v>13119200</v>
       </c>
       <c r="H9" s="3">
-        <v>10668600</v>
+        <v>10572300</v>
       </c>
       <c r="I9" s="3">
-        <v>8654700</v>
+        <v>8576600</v>
       </c>
       <c r="J9" s="3">
-        <v>9247900</v>
+        <v>9164400</v>
       </c>
       <c r="K9" s="3">
         <v>14657500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>234400</v>
+        <v>232300</v>
       </c>
       <c r="E10" s="3">
-        <v>-50100</v>
+        <v>-49700</v>
       </c>
       <c r="F10" s="3">
-        <v>234000</v>
+        <v>231900</v>
       </c>
       <c r="G10" s="3">
-        <v>850900</v>
+        <v>843300</v>
       </c>
       <c r="H10" s="3">
-        <v>1005000</v>
+        <v>995900</v>
       </c>
       <c r="I10" s="3">
-        <v>1061700</v>
+        <v>1052100</v>
       </c>
       <c r="J10" s="3">
-        <v>630700</v>
+        <v>625000</v>
       </c>
       <c r="K10" s="3">
         <v>-29200</v>
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>-17800</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G14" s="3">
         <v>-200</v>
@@ -980,7 +980,7 @@
         <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="3">
         <v>1300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10971900</v>
+        <v>10872900</v>
       </c>
       <c r="E17" s="3">
-        <v>9140300</v>
+        <v>9057800</v>
       </c>
       <c r="F17" s="3">
-        <v>12781300</v>
+        <v>12665900</v>
       </c>
       <c r="G17" s="3">
-        <v>13266600</v>
+        <v>13146800</v>
       </c>
       <c r="H17" s="3">
-        <v>10730200</v>
+        <v>10633400</v>
       </c>
       <c r="I17" s="3">
-        <v>8717600</v>
+        <v>8638900</v>
       </c>
       <c r="J17" s="3">
-        <v>9302600</v>
+        <v>9218600</v>
       </c>
       <c r="K17" s="3">
         <v>14721000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>211100</v>
+        <v>209100</v>
       </c>
       <c r="E18" s="3">
-        <v>-68700</v>
+        <v>-68100</v>
       </c>
       <c r="F18" s="3">
-        <v>194600</v>
+        <v>192800</v>
       </c>
       <c r="G18" s="3">
-        <v>823000</v>
+        <v>815600</v>
       </c>
       <c r="H18" s="3">
-        <v>943400</v>
+        <v>934900</v>
       </c>
       <c r="I18" s="3">
-        <v>998800</v>
+        <v>989800</v>
       </c>
       <c r="J18" s="3">
-        <v>576000</v>
+        <v>570800</v>
       </c>
       <c r="K18" s="3">
         <v>-92700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>203800</v>
+        <v>202000</v>
       </c>
       <c r="E20" s="3">
-        <v>169500</v>
+        <v>168000</v>
       </c>
       <c r="F20" s="3">
-        <v>204700</v>
+        <v>202900</v>
       </c>
       <c r="G20" s="3">
-        <v>191900</v>
+        <v>190200</v>
       </c>
       <c r="H20" s="3">
-        <v>221800</v>
+        <v>219800</v>
       </c>
       <c r="I20" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="J20" s="3">
-        <v>79600</v>
+        <v>78900</v>
       </c>
       <c r="K20" s="3">
         <v>11400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>663600</v>
+        <v>654800</v>
       </c>
       <c r="E21" s="3">
-        <v>339100</v>
+        <v>333300</v>
       </c>
       <c r="F21" s="3">
-        <v>641100</v>
+        <v>632600</v>
       </c>
       <c r="G21" s="3">
-        <v>1247900</v>
+        <v>1234000</v>
       </c>
       <c r="H21" s="3">
-        <v>1402100</v>
+        <v>1386700</v>
       </c>
       <c r="I21" s="3">
-        <v>1398400</v>
+        <v>1383000</v>
       </c>
       <c r="J21" s="3">
-        <v>912000</v>
+        <v>900800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="F22" s="3">
         <v>7900</v>
       </c>
       <c r="G22" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="H22" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J22" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="K22" s="3">
         <v>59100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>401000</v>
+        <v>397400</v>
       </c>
       <c r="E23" s="3">
-        <v>87100</v>
+        <v>86300</v>
       </c>
       <c r="F23" s="3">
-        <v>391400</v>
+        <v>387900</v>
       </c>
       <c r="G23" s="3">
-        <v>1003200</v>
+        <v>994200</v>
       </c>
       <c r="H23" s="3">
-        <v>1157200</v>
+        <v>1146800</v>
       </c>
       <c r="I23" s="3">
-        <v>1146200</v>
+        <v>1135900</v>
       </c>
       <c r="J23" s="3">
-        <v>624400</v>
+        <v>618800</v>
       </c>
       <c r="K23" s="3">
         <v>-140400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>95000</v>
+        <v>94100</v>
       </c>
       <c r="E24" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F24" s="3">
-        <v>63200</v>
+        <v>62600</v>
       </c>
       <c r="G24" s="3">
-        <v>216900</v>
+        <v>214900</v>
       </c>
       <c r="H24" s="3">
-        <v>250300</v>
+        <v>248100</v>
       </c>
       <c r="I24" s="3">
-        <v>264800</v>
+        <v>262400</v>
       </c>
       <c r="J24" s="3">
-        <v>136600</v>
+        <v>135300</v>
       </c>
       <c r="K24" s="3">
         <v>-33800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>306000</v>
+        <v>303200</v>
       </c>
       <c r="E26" s="3">
-        <v>96700</v>
+        <v>95900</v>
       </c>
       <c r="F26" s="3">
-        <v>328200</v>
+        <v>325200</v>
       </c>
       <c r="G26" s="3">
-        <v>786300</v>
+        <v>779200</v>
       </c>
       <c r="H26" s="3">
-        <v>906900</v>
+        <v>898700</v>
       </c>
       <c r="I26" s="3">
-        <v>881400</v>
+        <v>873500</v>
       </c>
       <c r="J26" s="3">
-        <v>487800</v>
+        <v>483400</v>
       </c>
       <c r="K26" s="3">
         <v>-106600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>305500</v>
+        <v>302800</v>
       </c>
       <c r="E27" s="3">
-        <v>95100</v>
+        <v>94200</v>
       </c>
       <c r="F27" s="3">
-        <v>326500</v>
+        <v>323600</v>
       </c>
       <c r="G27" s="3">
-        <v>786400</v>
+        <v>779300</v>
       </c>
       <c r="H27" s="3">
-        <v>905300</v>
+        <v>897100</v>
       </c>
       <c r="I27" s="3">
-        <v>879500</v>
+        <v>871600</v>
       </c>
       <c r="J27" s="3">
-        <v>482500</v>
+        <v>478100</v>
       </c>
       <c r="K27" s="3">
         <v>-109200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-203800</v>
+        <v>-202000</v>
       </c>
       <c r="E32" s="3">
-        <v>-169500</v>
+        <v>-168000</v>
       </c>
       <c r="F32" s="3">
-        <v>-204700</v>
+        <v>-202900</v>
       </c>
       <c r="G32" s="3">
-        <v>-191900</v>
+        <v>-190200</v>
       </c>
       <c r="H32" s="3">
-        <v>-221800</v>
+        <v>-219800</v>
       </c>
       <c r="I32" s="3">
-        <v>-155300</v>
+        <v>-153900</v>
       </c>
       <c r="J32" s="3">
-        <v>-79600</v>
+        <v>-78900</v>
       </c>
       <c r="K32" s="3">
         <v>-11400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>305500</v>
+        <v>302800</v>
       </c>
       <c r="E33" s="3">
-        <v>95100</v>
+        <v>94200</v>
       </c>
       <c r="F33" s="3">
-        <v>326500</v>
+        <v>323600</v>
       </c>
       <c r="G33" s="3">
-        <v>786400</v>
+        <v>779300</v>
       </c>
       <c r="H33" s="3">
-        <v>905300</v>
+        <v>897100</v>
       </c>
       <c r="I33" s="3">
-        <v>879500</v>
+        <v>871600</v>
       </c>
       <c r="J33" s="3">
-        <v>482500</v>
+        <v>478100</v>
       </c>
       <c r="K33" s="3">
         <v>-109200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>305500</v>
+        <v>302800</v>
       </c>
       <c r="E35" s="3">
-        <v>95100</v>
+        <v>94200</v>
       </c>
       <c r="F35" s="3">
-        <v>326500</v>
+        <v>323600</v>
       </c>
       <c r="G35" s="3">
-        <v>786400</v>
+        <v>779300</v>
       </c>
       <c r="H35" s="3">
-        <v>905300</v>
+        <v>897100</v>
       </c>
       <c r="I35" s="3">
-        <v>879500</v>
+        <v>871600</v>
       </c>
       <c r="J35" s="3">
-        <v>482500</v>
+        <v>478100</v>
       </c>
       <c r="K35" s="3">
         <v>-109200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>752800</v>
+        <v>746000</v>
       </c>
       <c r="E41" s="3">
-        <v>1018400</v>
+        <v>1009200</v>
       </c>
       <c r="F41" s="3">
-        <v>1087900</v>
+        <v>1078100</v>
       </c>
       <c r="G41" s="3">
-        <v>1285000</v>
+        <v>1273400</v>
       </c>
       <c r="H41" s="3">
-        <v>1101500</v>
+        <v>1091600</v>
       </c>
       <c r="I41" s="3">
-        <v>776800</v>
+        <v>769800</v>
       </c>
       <c r="J41" s="3">
-        <v>158000</v>
+        <v>156500</v>
       </c>
       <c r="K41" s="3">
         <v>43200</v>
@@ -1863,22 +1863,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1243400</v>
+        <v>1232100</v>
       </c>
       <c r="E42" s="3">
-        <v>775400</v>
+        <v>768400</v>
       </c>
       <c r="F42" s="3">
-        <v>948300</v>
+        <v>939800</v>
       </c>
       <c r="G42" s="3">
-        <v>872600</v>
+        <v>864800</v>
       </c>
       <c r="H42" s="3">
-        <v>299000</v>
+        <v>296300</v>
       </c>
       <c r="I42" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197100</v>
+        <v>195300</v>
       </c>
       <c r="E43" s="3">
-        <v>180300</v>
+        <v>178700</v>
       </c>
       <c r="F43" s="3">
-        <v>252400</v>
+        <v>250100</v>
       </c>
       <c r="G43" s="3">
-        <v>364600</v>
+        <v>361300</v>
       </c>
       <c r="H43" s="3">
-        <v>521100</v>
+        <v>516400</v>
       </c>
       <c r="I43" s="3">
-        <v>458300</v>
+        <v>454200</v>
       </c>
       <c r="J43" s="3">
-        <v>425600</v>
+        <v>421800</v>
       </c>
       <c r="K43" s="3">
         <v>520700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>872900</v>
+        <v>865000</v>
       </c>
       <c r="E44" s="3">
-        <v>573000</v>
+        <v>567900</v>
       </c>
       <c r="F44" s="3">
-        <v>995300</v>
+        <v>986300</v>
       </c>
       <c r="G44" s="3">
-        <v>1196700</v>
+        <v>1185900</v>
       </c>
       <c r="H44" s="3">
-        <v>972200</v>
+        <v>963400</v>
       </c>
       <c r="I44" s="3">
-        <v>907700</v>
+        <v>899500</v>
       </c>
       <c r="J44" s="3">
-        <v>615700</v>
+        <v>610100</v>
       </c>
       <c r="K44" s="3">
         <v>935600</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="E45" s="3">
         <v>2900</v>
@@ -1989,13 +1989,13 @@
         <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H45" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="I45" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3084600</v>
+        <v>3056700</v>
       </c>
       <c r="E46" s="3">
-        <v>2550000</v>
+        <v>2527000</v>
       </c>
       <c r="F46" s="3">
-        <v>3287500</v>
+        <v>3257800</v>
       </c>
       <c r="G46" s="3">
-        <v>3728000</v>
+        <v>3694400</v>
       </c>
       <c r="H46" s="3">
-        <v>2927500</v>
+        <v>2901000</v>
       </c>
       <c r="I46" s="3">
-        <v>2192100</v>
+        <v>2172300</v>
       </c>
       <c r="J46" s="3">
-        <v>1200100</v>
+        <v>1189300</v>
       </c>
       <c r="K46" s="3">
         <v>1500400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1425800</v>
+        <v>1412900</v>
       </c>
       <c r="E47" s="3">
-        <v>1832500</v>
+        <v>1816000</v>
       </c>
       <c r="F47" s="3">
-        <v>1285700</v>
+        <v>1274100</v>
       </c>
       <c r="G47" s="3">
-        <v>667100</v>
+        <v>661100</v>
       </c>
       <c r="H47" s="3">
-        <v>656100</v>
+        <v>650100</v>
       </c>
       <c r="I47" s="3">
-        <v>543600</v>
+        <v>538700</v>
       </c>
       <c r="J47" s="3">
-        <v>487900</v>
+        <v>483500</v>
       </c>
       <c r="K47" s="3">
         <v>463200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2260700</v>
+        <v>2240300</v>
       </c>
       <c r="E48" s="3">
-        <v>2092700</v>
+        <v>2073800</v>
       </c>
       <c r="F48" s="3">
-        <v>2037600</v>
+        <v>2019300</v>
       </c>
       <c r="G48" s="3">
-        <v>2001500</v>
+        <v>1983500</v>
       </c>
       <c r="H48" s="3">
-        <v>2101200</v>
+        <v>2082200</v>
       </c>
       <c r="I48" s="3">
-        <v>2147400</v>
+        <v>2128000</v>
       </c>
       <c r="J48" s="3">
-        <v>2285800</v>
+        <v>2265100</v>
       </c>
       <c r="K48" s="3">
         <v>2603100</v>
@@ -2148,7 +2148,7 @@
         <v>3000</v>
       </c>
       <c r="H49" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I49" s="3">
         <v>3900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>141500</v>
+        <v>140200</v>
       </c>
       <c r="E52" s="3">
-        <v>97600</v>
+        <v>96700</v>
       </c>
       <c r="F52" s="3">
-        <v>90600</v>
+        <v>89800</v>
       </c>
       <c r="G52" s="3">
-        <v>141000</v>
+        <v>139700</v>
       </c>
       <c r="H52" s="3">
-        <v>124200</v>
+        <v>123100</v>
       </c>
       <c r="I52" s="3">
-        <v>115300</v>
+        <v>114200</v>
       </c>
       <c r="J52" s="3">
-        <v>121500</v>
+        <v>120400</v>
       </c>
       <c r="K52" s="3">
         <v>303900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6914200</v>
+        <v>6851800</v>
       </c>
       <c r="E54" s="3">
-        <v>6575100</v>
+        <v>6515700</v>
       </c>
       <c r="F54" s="3">
-        <v>6704000</v>
+        <v>6643500</v>
       </c>
       <c r="G54" s="3">
-        <v>6540700</v>
+        <v>6481700</v>
       </c>
       <c r="H54" s="3">
-        <v>5812400</v>
+        <v>5759900</v>
       </c>
       <c r="I54" s="3">
-        <v>5002200</v>
+        <v>4957100</v>
       </c>
       <c r="J54" s="3">
-        <v>4099600</v>
+        <v>4062600</v>
       </c>
       <c r="K54" s="3">
         <v>4875700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>308000</v>
+        <v>305200</v>
       </c>
       <c r="E57" s="3">
-        <v>194600</v>
+        <v>192800</v>
       </c>
       <c r="F57" s="3">
-        <v>415000</v>
+        <v>411300</v>
       </c>
       <c r="G57" s="3">
-        <v>430700</v>
+        <v>426800</v>
       </c>
       <c r="H57" s="3">
-        <v>281200</v>
+        <v>278700</v>
       </c>
       <c r="I57" s="3">
-        <v>313000</v>
+        <v>310200</v>
       </c>
       <c r="J57" s="3">
-        <v>230200</v>
+        <v>228100</v>
       </c>
       <c r="K57" s="3">
         <v>554000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>230300</v>
+        <v>228200</v>
       </c>
       <c r="E58" s="3">
-        <v>674200</v>
+        <v>668100</v>
       </c>
       <c r="F58" s="3">
-        <v>229700</v>
+        <v>227700</v>
       </c>
       <c r="G58" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="H58" s="3">
-        <v>89300</v>
+        <v>88500</v>
       </c>
       <c r="I58" s="3">
-        <v>80500</v>
+        <v>79800</v>
       </c>
       <c r="J58" s="3">
-        <v>305000</v>
+        <v>302300</v>
       </c>
       <c r="K58" s="3">
         <v>643400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1789300</v>
+        <v>1773200</v>
       </c>
       <c r="E59" s="3">
-        <v>1375900</v>
+        <v>1363400</v>
       </c>
       <c r="F59" s="3">
-        <v>1636300</v>
+        <v>1621600</v>
       </c>
       <c r="G59" s="3">
-        <v>1546200</v>
+        <v>1532300</v>
       </c>
       <c r="H59" s="3">
-        <v>1238900</v>
+        <v>1227800</v>
       </c>
       <c r="I59" s="3">
-        <v>924200</v>
+        <v>915900</v>
       </c>
       <c r="J59" s="3">
-        <v>603300</v>
+        <v>597900</v>
       </c>
       <c r="K59" s="3">
         <v>772300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2327700</v>
+        <v>2306700</v>
       </c>
       <c r="E60" s="3">
-        <v>2244600</v>
+        <v>2224400</v>
       </c>
       <c r="F60" s="3">
-        <v>2281100</v>
+        <v>2260500</v>
       </c>
       <c r="G60" s="3">
-        <v>2050200</v>
+        <v>2031700</v>
       </c>
       <c r="H60" s="3">
-        <v>1609500</v>
+        <v>1595000</v>
       </c>
       <c r="I60" s="3">
-        <v>1317700</v>
+        <v>1305900</v>
       </c>
       <c r="J60" s="3">
-        <v>1138500</v>
+        <v>1128300</v>
       </c>
       <c r="K60" s="3">
         <v>1969600</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>103400</v>
+        <v>102400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
         <v>1500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2457700</v>
+        <v>2435600</v>
       </c>
       <c r="E66" s="3">
-        <v>2272500</v>
+        <v>2251900</v>
       </c>
       <c r="F66" s="3">
-        <v>2303400</v>
+        <v>2282600</v>
       </c>
       <c r="G66" s="3">
-        <v>2068900</v>
+        <v>2050200</v>
       </c>
       <c r="H66" s="3">
-        <v>1652400</v>
+        <v>1637500</v>
       </c>
       <c r="I66" s="3">
-        <v>1359200</v>
+        <v>1346900</v>
       </c>
       <c r="J66" s="3">
-        <v>1182300</v>
+        <v>1171600</v>
       </c>
       <c r="K66" s="3">
         <v>2272600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2840400</v>
+        <v>2814700</v>
       </c>
       <c r="E72" s="3">
-        <v>2691900</v>
+        <v>2667600</v>
       </c>
       <c r="F72" s="3">
-        <v>2789900</v>
+        <v>2764700</v>
       </c>
       <c r="G72" s="3">
-        <v>2861100</v>
+        <v>2835200</v>
       </c>
       <c r="H72" s="3">
-        <v>2557200</v>
+        <v>2534200</v>
       </c>
       <c r="I72" s="3">
-        <v>2051500</v>
+        <v>2033000</v>
       </c>
       <c r="J72" s="3">
-        <v>1325800</v>
+        <v>1313900</v>
       </c>
       <c r="K72" s="3">
         <v>899300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4456500</v>
+        <v>4416300</v>
       </c>
       <c r="E76" s="3">
-        <v>4302600</v>
+        <v>4263800</v>
       </c>
       <c r="F76" s="3">
-        <v>4400700</v>
+        <v>4360900</v>
       </c>
       <c r="G76" s="3">
-        <v>4471800</v>
+        <v>4431400</v>
       </c>
       <c r="H76" s="3">
-        <v>4160000</v>
+        <v>4122500</v>
       </c>
       <c r="I76" s="3">
-        <v>3643000</v>
+        <v>3610100</v>
       </c>
       <c r="J76" s="3">
-        <v>2917300</v>
+        <v>2891000</v>
       </c>
       <c r="K76" s="3">
         <v>2603100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>305500</v>
+        <v>302800</v>
       </c>
       <c r="E81" s="3">
-        <v>95100</v>
+        <v>94200</v>
       </c>
       <c r="F81" s="3">
-        <v>326500</v>
+        <v>323600</v>
       </c>
       <c r="G81" s="3">
-        <v>786400</v>
+        <v>779300</v>
       </c>
       <c r="H81" s="3">
-        <v>905300</v>
+        <v>897100</v>
       </c>
       <c r="I81" s="3">
-        <v>879500</v>
+        <v>871600</v>
       </c>
       <c r="J81" s="3">
-        <v>482500</v>
+        <v>478100</v>
       </c>
       <c r="K81" s="3">
         <v>-109200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>246300</v>
+        <v>244000</v>
       </c>
       <c r="E83" s="3">
-        <v>235900</v>
+        <v>233800</v>
       </c>
       <c r="F83" s="3">
-        <v>239400</v>
+        <v>237200</v>
       </c>
       <c r="G83" s="3">
-        <v>230700</v>
+        <v>228600</v>
       </c>
       <c r="H83" s="3">
-        <v>234500</v>
+        <v>232400</v>
       </c>
       <c r="I83" s="3">
-        <v>241800</v>
+        <v>239600</v>
       </c>
       <c r="J83" s="3">
-        <v>253800</v>
+        <v>251500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>582100</v>
+        <v>576800</v>
       </c>
       <c r="E89" s="3">
-        <v>247500</v>
+        <v>245300</v>
       </c>
       <c r="F89" s="3">
-        <v>745300</v>
+        <v>738600</v>
       </c>
       <c r="G89" s="3">
-        <v>981300</v>
+        <v>972500</v>
       </c>
       <c r="H89" s="3">
-        <v>1040500</v>
+        <v>1031100</v>
       </c>
       <c r="I89" s="3">
-        <v>1058300</v>
+        <v>1048800</v>
       </c>
       <c r="J89" s="3">
-        <v>726900</v>
+        <v>720300</v>
       </c>
       <c r="K89" s="3">
         <v>577800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-475100</v>
+        <v>-470800</v>
       </c>
       <c r="E91" s="3">
-        <v>-271300</v>
+        <v>-268800</v>
       </c>
       <c r="F91" s="3">
-        <v>-210800</v>
+        <v>-208900</v>
       </c>
       <c r="G91" s="3">
-        <v>-174900</v>
+        <v>-173300</v>
       </c>
       <c r="H91" s="3">
-        <v>-176400</v>
+        <v>-174800</v>
       </c>
       <c r="I91" s="3">
-        <v>-132800</v>
+        <v>-131600</v>
       </c>
       <c r="J91" s="3">
-        <v>-102500</v>
+        <v>-101500</v>
       </c>
       <c r="K91" s="3">
         <v>-171800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-347700</v>
+        <v>-344500</v>
       </c>
       <c r="E94" s="3">
-        <v>-572900</v>
+        <v>-567700</v>
       </c>
       <c r="F94" s="3">
-        <v>-681300</v>
+        <v>-675100</v>
       </c>
       <c r="G94" s="3">
-        <v>-284200</v>
+        <v>-281600</v>
       </c>
       <c r="H94" s="3">
-        <v>-353800</v>
+        <v>-350600</v>
       </c>
       <c r="I94" s="3">
-        <v>-28000</v>
+        <v>-27700</v>
       </c>
       <c r="J94" s="3">
-        <v>-64700</v>
+        <v>-64100</v>
       </c>
       <c r="K94" s="3">
         <v>-143600</v>
@@ -3764,22 +3764,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-159300</v>
+        <v>-157900</v>
       </c>
       <c r="E96" s="3">
-        <v>-190600</v>
+        <v>-188900</v>
       </c>
       <c r="F96" s="3">
-        <v>-398600</v>
+        <v>-395000</v>
       </c>
       <c r="G96" s="3">
-        <v>-482700</v>
+        <v>-478300</v>
       </c>
       <c r="H96" s="3">
-        <v>-397500</v>
+        <v>-393900</v>
       </c>
       <c r="I96" s="3">
-        <v>-159900</v>
+        <v>-158400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500000</v>
+        <v>-495500</v>
       </c>
       <c r="E100" s="3">
-        <v>247800</v>
+        <v>245600</v>
       </c>
       <c r="F100" s="3">
-        <v>-256000</v>
+        <v>-253700</v>
       </c>
       <c r="G100" s="3">
-        <v>-516800</v>
+        <v>-512200</v>
       </c>
       <c r="H100" s="3">
-        <v>-381600</v>
+        <v>-378200</v>
       </c>
       <c r="I100" s="3">
-        <v>-388600</v>
+        <v>-385100</v>
       </c>
       <c r="J100" s="3">
-        <v>-544600</v>
+        <v>-539700</v>
       </c>
       <c r="K100" s="3">
         <v>-411200</v>
@@ -3965,7 +3965,7 @@
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-265900</v>
+        <v>-263500</v>
       </c>
       <c r="E102" s="3">
-        <v>-78600</v>
+        <v>-77900</v>
       </c>
       <c r="F102" s="3">
-        <v>-190400</v>
+        <v>-188700</v>
       </c>
       <c r="G102" s="3">
-        <v>182400</v>
+        <v>180700</v>
       </c>
       <c r="H102" s="3">
-        <v>304100</v>
+        <v>301400</v>
       </c>
       <c r="I102" s="3">
-        <v>643000</v>
+        <v>637200</v>
       </c>
       <c r="J102" s="3">
-        <v>117600</v>
+        <v>116600</v>
       </c>
       <c r="K102" s="3">
         <v>23000</v>
